--- a/造轮子.xlsx
+++ b/造轮子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="创建许可证文件" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve"> </t>
+    <t>github上选择Create new file</t>
+  </si>
+  <si>
+    <t>输入LICENCE，会自动弹出Choose a licence template 按钮，并点击</t>
+  </si>
+  <si>
+    <t>点击按钮后</t>
   </si>
 </sst>
 </file>
@@ -25,9 +31,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -39,6 +45,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -46,23 +60,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,8 +113,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,16 +136,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,47 +182,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,55 +198,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,127 +378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,25 +393,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,17 +431,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,21 +489,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -491,10 +497,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -503,133 +509,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -696,6 +702,305 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="355600"/>
+          <a:ext cx="8972550" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="2070100"/>
+          <a:ext cx="12039600" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="3270250"/>
+          <a:ext cx="11601450" cy="6505575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="9956800"/>
+          <a:ext cx="11744325" cy="6229350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="16471900"/>
+          <a:ext cx="8210550" cy="7524750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="24187150"/>
+          <a:ext cx="11877675" cy="5295900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="29673550"/>
+          <a:ext cx="8982075" cy="2686050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -985,23 +1290,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="F6"/>
+  <dimension ref="B2:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="M199" sqref="M199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="6" spans="6:6">
-      <c r="F6" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1010,7 +1326,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/造轮子.xlsx
+++ b/造轮子.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="创建许可证文件" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="初始化node项目" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>github上选择Create new file</t>
   </si>
@@ -24,6 +24,18 @@
   </si>
   <si>
     <t>点击按钮后</t>
+  </si>
+  <si>
+    <t>1.执行npm init，生成package.json</t>
+  </si>
+  <si>
+    <t>2.安装vue</t>
+  </si>
+  <si>
+    <t>npm i vue</t>
+  </si>
+  <si>
+    <t>注：从npm v6开始，默认--save</t>
   </si>
 </sst>
 </file>
@@ -36,10 +48,17 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -497,10 +516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -509,138 +528,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1003,6 +1025,53 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="355600"/>
+          <a:ext cx="5924550" cy="6734175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -1292,7 +1361,7 @@
   <sheetPr/>
   <dimension ref="B2:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+    <sheetView topLeftCell="A163" workbookViewId="0">
       <selection activeCell="M199" sqref="M199"/>
     </sheetView>
   </sheetViews>
@@ -1324,16 +1393,36 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/造轮子.xlsx
+++ b/造轮子.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="创建许可证文件" sheetId="1" r:id="rId1"/>
     <sheet name="初始化node项目" sheetId="3" r:id="rId2"/>
+    <sheet name="x-button" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>github上选择Create new file</t>
   </si>
@@ -36,6 +37,658 @@
   </si>
   <si>
     <t>注：从npm v6开始，默认--save</t>
+  </si>
+  <si>
+    <t>1.创建index.html，引入vue.js</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">script </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>src</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>="./node_modules/vue/dist/vue.min.js"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>script</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>script</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">let </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">app </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Vue({</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>el</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'#app'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>script</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>2.创建button.js</t>
+  </si>
+  <si>
+    <r>
+      <t>Vue.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A43"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>component</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'x-button'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>template</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;button class="x-button"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   `</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <t>在html中引入，并使用</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">div </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>="app"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x-button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x-button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">script </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>src</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>="./button.js"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>script</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>3.x-button样式</t>
+  </si>
+  <si>
+    <t>略</t>
+  </si>
+  <si>
+    <t>css中声明变量</t>
+  </si>
+  <si>
+    <r>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">root </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--font-size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6C71C4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>使用变量</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">body </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>font-size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--font-size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -43,12 +696,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,9 +711,176 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF586E75"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFD33682"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF859900"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFDC322F"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF839496"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -72,143 +892,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <color rgb="FF458383"/>
+      <name val="Consolas"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7A7A43"/>
+      <name val="Consolas"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFDC322F"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6C71C4"/>
+      <name val="Consolas"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,25 +925,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFDF6E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,145 +1033,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,16 +1126,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -430,6 +1144,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -459,43 +1199,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,10 +1230,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,141 +1242,159 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -718,6 +1450,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FDF6E3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1395,7 +2132,7 @@
   <sheetPr/>
   <dimension ref="B2:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
@@ -1415,7 +2152,7 @@
       <c r="B45" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1425,4 +2162,320 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:G42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/造轮子.xlsx
+++ b/造轮子.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>github上选择Create new file</t>
   </si>
@@ -689,6 +689,539 @@
       </rPr>
       <t>);</t>
     </r>
+  </si>
+  <si>
+    <t>使用parcel创建x-button组件</t>
+  </si>
+  <si>
+    <t>1.安装</t>
+  </si>
+  <si>
+    <t>npm i -D parcel-bundler</t>
+  </si>
+  <si>
+    <t>2.根目录下创建src文件夹，创建app.js 与 x-button.vue文件</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Vue </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'vue'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>template</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">xbutton </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"./x-button"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">button </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>="x-button"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>template</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注册全局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x-button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组件</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vue.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A43"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>component</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'x-button'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, xbutton);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">export default </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">app </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Vue({</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"x-button"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>el</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'#app'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>};</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">style </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>scoped lang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>="scss"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>3.删除button.js，修改index.html文件</t>
+  </si>
+  <si>
+    <t>4.执行parcel命令</t>
+  </si>
+  <si>
+    <t>.\node_modules\.bin/parcel --no-cache index.html</t>
+  </si>
+  <si>
+    <t>npx parcel --no-cache index.html</t>
+  </si>
+  <si>
+    <t>package.json中配置scripts，执行npm start</t>
+  </si>
+  <si>
+    <t>发现代码警告</t>
+  </si>
+  <si>
+    <t>5.配置package.json</t>
+  </si>
+  <si>
+    <t>声明alias，配置vue文件</t>
+  </si>
+  <si>
+    <t>再次执行npm start</t>
   </si>
 </sst>
 </file>
@@ -701,7 +1234,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,8 +1268,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF839496"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF43EFF"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
@@ -915,13 +1462,31 @@
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF586E75"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF43EFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1230,10 +1795,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1242,159 +1807,177 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1809,6 +2392,221 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>650875</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="10985500"/>
+          <a:ext cx="2695575" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384300" y="13042900"/>
+          <a:ext cx="2952750" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="13900150"/>
+          <a:ext cx="10420350" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>669925</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="15100300"/>
+          <a:ext cx="3400425" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="15957550"/>
+          <a:ext cx="2447925" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -2152,7 +2950,7 @@
       <c r="B45" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2167,13 +2965,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:G42"/>
+  <dimension ref="B2:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -2181,72 +2979,72 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
@@ -2254,44 +3052,44 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
@@ -2299,120 +3097,120 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" t="s">
@@ -2423,30 +3221,30 @@
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" t="s">
+      <c r="B34" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
@@ -2454,28 +3252,284 @@
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="44" s="1" customFormat="1"/>
+    <row r="46" spans="2:2">
+      <c r="B46" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="G52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="G53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="G54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="G56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="G57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="G58" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="G59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="G60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="7:10">
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="7:10">
+      <c r="G62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="7:10">
+      <c r="G63" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="7:7">
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" spans="7:7">
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="7:7">
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="7:7">
+      <c r="G68" s="10"/>
+    </row>
+    <row r="69" spans="7:7">
+      <c r="G69" s="10"/>
+    </row>
+    <row r="71" spans="7:7">
+      <c r="G71" s="11"/>
+    </row>
+    <row r="72" spans="7:7">
+      <c r="G72" s="10"/>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" t="s">
+        <v>53</v>
+      </c>
+      <c r="G73" s="12"/>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>55</v>
+      </c>
+      <c r="G75" s="11"/>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>56</v>
+      </c>
+      <c r="G76" s="10"/>
+    </row>
+    <row r="77" spans="7:7">
+      <c r="G77" s="12"/>
+    </row>
+    <row r="79" spans="7:7">
+      <c r="G79" s="11"/>
+    </row>
+    <row r="80" spans="7:7">
+      <c r="G80" s="10"/>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" t="s">
+        <v>57</v>
+      </c>
+      <c r="G81" s="12"/>
+    </row>
+    <row r="82" spans="7:7">
+      <c r="G82" s="12"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/造轮子.xlsx
+++ b/造轮子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="创建许可证文件" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
   <si>
     <t>github上选择Create new file</t>
   </si>
@@ -1131,6 +1131,9 @@
     </r>
   </si>
   <si>
+    <t>app.js</t>
+  </si>
+  <si>
     <r>
       <t>&lt;</t>
     </r>
@@ -1197,18 +1200,30 @@
     </r>
   </si>
   <si>
+    <t>x-button.vue</t>
+  </si>
+  <si>
     <t>3.删除button.js，修改index.html文件</t>
   </si>
   <si>
     <t>4.执行parcel命令</t>
   </si>
   <si>
+    <t>注：</t>
+  </si>
+  <si>
     <t>.\node_modules\.bin/parcel --no-cache index.html</t>
   </si>
   <si>
+    <t>第一次运行parcel命令，parcel会自动下载项目的相关依赖包，如解析.vue文件，scss语法等</t>
+  </si>
+  <si>
     <t>npx parcel --no-cache index.html</t>
   </si>
   <si>
+    <t>达到零配置</t>
+  </si>
+  <si>
     <t>package.json中配置scripts，执行npm start</t>
   </si>
   <si>
@@ -1222,6 +1237,297 @@
   </si>
   <si>
     <t>再次执行npm start</t>
+  </si>
+  <si>
+    <t>6.下载图标</t>
+  </si>
+  <si>
+    <t>https://www.iconfont.cn</t>
+  </si>
+  <si>
+    <t>选择好图标后，点击购物车</t>
+  </si>
+  <si>
+    <t>点击添加至项目，新建项目，添加项目名称，确定</t>
+  </si>
+  <si>
+    <t>将图标"左"通过编辑图标，旋转后保存为副本，即可生成"右"</t>
+  </si>
+  <si>
+    <t>图标的名称会变成 x-good</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">点击 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>批量操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全选</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>批量去色</t>
+    </r>
+  </si>
+  <si>
+    <t>代码中引入</t>
+  </si>
+  <si>
+    <t>将复制的连接放到搜索栏中，复制下方的代码</t>
+  </si>
+  <si>
+    <t>或者直接引入</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">script </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>src</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>="//at.alicdn.com/t/font_2291729_lob12za91fh.js"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>script</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>在src中创建icon.js文件，放入复制的代码</t>
+  </si>
+  <si>
+    <t>在index.html中引入icon.js文件</t>
+  </si>
+  <si>
+    <t>使用</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">svg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>="x-icon"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xlink</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>="#x-setting"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>use</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>svg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>xlink:href="#x-setting" 引用的是上边&lt;symbol&gt;标签中的id</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1540,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1286,6 +1592,13 @@
       <color rgb="FFF43EFF"/>
       <name val="Consolas"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1795,10 +2108,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1807,137 +2120,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1971,13 +2284,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2604,6 +2926,594 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="17500600"/>
+          <a:ext cx="11687175" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="18357850"/>
+          <a:ext cx="2876550" cy="9220200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4127500" y="18529300"/>
+          <a:ext cx="8915400" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>488315</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>172085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="25717500"/>
+          <a:ext cx="3231515" cy="2229485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>262890</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>172085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="21602700"/>
+          <a:ext cx="3691890" cy="3772535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>684530</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4127500" y="28130500"/>
+          <a:ext cx="6158230" cy="2372360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12065</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>31115</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="30689550"/>
+          <a:ext cx="6184265" cy="4660265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>432435</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4127500" y="35674300"/>
+          <a:ext cx="6591935" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>459740</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4127500" y="38074600"/>
+          <a:ext cx="6619240" cy="3000375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4813300" y="41846500"/>
+          <a:ext cx="6381750" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4813300" y="43561000"/>
+          <a:ext cx="2867025" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>422275</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4813300" y="44932600"/>
+          <a:ext cx="5210175" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4813300" y="48018700"/>
+          <a:ext cx="5257800" cy="2933700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4813300" y="51104800"/>
+          <a:ext cx="1276350" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2950,7 +3860,7 @@
       <c r="B45" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2965,10 +3875,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:J92"/>
+  <dimension ref="B2:X293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="H299" sqref="H299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3405,7 +4315,9 @@
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G60" s="2" t="s">
         <v>13</v>
       </c>
@@ -3421,7 +4333,7 @@
     </row>
     <row r="62" spans="7:10">
       <c r="G62" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -3429,15 +4341,17 @@
     </row>
     <row r="63" spans="7:10">
       <c r="G63" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
+      <c r="J63" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G64" s="10"/>
     </row>
@@ -3457,74 +4371,184 @@
       <c r="G69" s="10"/>
     </row>
     <row r="71" spans="7:7">
-      <c r="G71" s="11"/>
+      <c r="G71" s="12"/>
     </row>
     <row r="72" spans="7:7">
       <c r="G72" s="10"/>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:10">
       <c r="B73" t="s">
-        <v>53</v>
-      </c>
-      <c r="G73" s="12"/>
-    </row>
-    <row r="74" spans="2:3">
+        <v>55</v>
+      </c>
+      <c r="G73" s="13"/>
+      <c r="J73" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10">
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7">
+        <v>57</v>
+      </c>
+      <c r="J74" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10">
       <c r="B75">
         <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>55</v>
-      </c>
-      <c r="G75" s="11"/>
+        <v>59</v>
+      </c>
+      <c r="G75" s="12"/>
+      <c r="J75" s="14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="76" spans="2:7">
       <c r="B76">
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G76" s="10"/>
     </row>
     <row r="77" spans="7:7">
-      <c r="G77" s="12"/>
+      <c r="G77" s="13"/>
     </row>
     <row r="79" spans="7:7">
-      <c r="G79" s="11"/>
+      <c r="G79" s="12"/>
     </row>
     <row r="80" spans="7:7">
       <c r="G80" s="10"/>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" t="s">
-        <v>57</v>
-      </c>
-      <c r="G81" s="12"/>
+        <v>62</v>
+      </c>
+      <c r="G81" s="13"/>
     </row>
     <row r="82" spans="7:7">
-      <c r="G82" s="12"/>
+      <c r="G82" s="13"/>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" t="s">
+        <v>66</v>
+      </c>
+      <c r="D101" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="167" spans="17:17">
+      <c r="Q167" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="201" spans="17:17">
+      <c r="Q201" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="211" spans="17:17">
+      <c r="Q211" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="243" spans="7:7">
+      <c r="G243" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="244" spans="8:18">
+      <c r="H244" t="s">
+        <v>74</v>
+      </c>
+      <c r="R244" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="245" spans="18:24">
+      <c r="R245" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S245" s="3"/>
+      <c r="T245" s="3"/>
+      <c r="U245" s="3"/>
+      <c r="V245" s="3"/>
+      <c r="W245" s="3"/>
+      <c r="X245" s="3"/>
+    </row>
+    <row r="252" spans="8:8">
+      <c r="H252" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="254" spans="8:8">
+      <c r="H254" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="280" spans="7:7">
+      <c r="G280" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="289" spans="16:19">
+      <c r="P289" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q289" s="3"/>
+      <c r="R289" s="3"/>
+      <c r="S289" s="3"/>
+    </row>
+    <row r="290" spans="16:19">
+      <c r="P290" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q290" s="3"/>
+      <c r="R290" s="3"/>
+      <c r="S290" s="3"/>
+    </row>
+    <row r="291" spans="16:19">
+      <c r="P291" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q291" s="3"/>
+      <c r="R291" s="3"/>
+      <c r="S291" s="3"/>
+    </row>
+    <row r="293" spans="16:16">
+      <c r="P293" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/造轮子.xlsx
+++ b/造轮子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="创建许可证文件" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
   <si>
     <t>github上选择Create new file</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;</t>
     </r>
     <r>
@@ -104,6 +110,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;</t>
     </r>
     <r>
@@ -128,6 +140,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    </t>
     </r>
     <r>
@@ -180,6 +199,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">        </t>
     </r>
     <r>
@@ -212,6 +237,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    </t>
     </r>
     <r>
@@ -226,6 +257,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;/</t>
     </r>
     <r>
@@ -253,6 +290,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Vue.</t>
     </r>
     <r>
@@ -294,6 +337,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -326,6 +375,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    &lt;button class="x-button"&gt;</t>
     </r>
     <r>
@@ -358,6 +413,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;</t>
     </r>
     <r>
@@ -400,6 +461,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    &lt;</t>
     </r>
     <r>
@@ -443,6 +510,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;/</t>
     </r>
     <r>
@@ -467,6 +540,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;</t>
     </r>
     <r>
@@ -537,6 +616,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>:</t>
     </r>
     <r>
@@ -561,6 +646,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    </t>
     </r>
     <r>
@@ -617,6 +708,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">body </t>
     </r>
     <r>
@@ -631,6 +729,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    </t>
     </r>
     <r>
@@ -704,6 +808,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">import </t>
     </r>
     <r>
@@ -746,6 +857,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;</t>
     </r>
     <r>
@@ -770,6 +887,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">import </t>
     </r>
     <r>
@@ -812,6 +936,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    &lt;</t>
     </r>
     <r>
@@ -891,6 +1021,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;/</t>
     </r>
     <r>
@@ -915,6 +1051,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">// </t>
     </r>
     <r>
@@ -947,6 +1089,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Vue.</t>
     </r>
     <r>
@@ -988,6 +1136,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    </t>
     </r>
     <r>
@@ -1012,6 +1167,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">let </t>
     </r>
     <r>
@@ -1054,6 +1216,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">        </t>
     </r>
     <r>
@@ -1086,6 +1254,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    </t>
     </r>
     <r>
@@ -1118,6 +1292,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    </t>
     </r>
     <r>
@@ -1135,6 +1315,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;</t>
     </r>
     <r>
@@ -1177,6 +1363,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;/</t>
     </r>
     <r>
@@ -1258,6 +1450,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">点击 </t>
     </r>
     <r>
@@ -1322,6 +1521,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;</t>
     </r>
     <r>
@@ -1392,6 +1597,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;</t>
     </r>
     <r>
@@ -1434,6 +1645,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    &lt;</t>
     </r>
     <r>
@@ -1504,6 +1721,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;/</t>
     </r>
     <r>
@@ -1528,6 +1751,404 @@
   </si>
   <si>
     <t>xlink:href="#x-setting" 引用的是上边&lt;symbol&gt;标签中的id</t>
+  </si>
+  <si>
+    <r>
+      <t>7.props中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>validator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方法</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>props</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>icon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>''</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>},</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>iconAlign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'left'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>属性检查器</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        validator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(val) {</t>
+    </r>
+  </si>
+  <si>
+    <t>validator：验证传过来的属性值</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规定只允许传</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，默认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">return false; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报错</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">val === </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">'left' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">|| val === </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'right'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>根据属性检查器，①与②经过属性检查器检查后，返回true，没报错</t>
+  </si>
+  <si>
+    <t>③经过属性检查器检查后，返回false，报错</t>
   </si>
 </sst>
 </file>
@@ -1535,12 +2156,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1608,38 +2229,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF859900"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7A7A43"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1652,40 +2264,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1700,7 +2280,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1720,6 +2300,14 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1745,6 +2333,44 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1752,14 +2378,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF458383"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF7A7A43"/>
+      <color rgb="FF458383"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
@@ -1787,8 +2415,22 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF660E7A"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF43EFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1809,31 +2451,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFDF6E3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1845,7 +2481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1869,25 +2505,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1899,43 +2535,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1953,7 +2571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1971,7 +2589,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1983,13 +2631,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2000,30 +2648,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2053,6 +2677,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2064,15 +2706,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2100,6 +2733,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2108,10 +2756,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2120,137 +2768,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2299,7 +2947,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3062,8 +3731,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>488315</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>172085</xdr:rowOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3081,7 +3750,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4114800" y="25717500"/>
-          <a:ext cx="3231515" cy="2229485"/>
+          <a:ext cx="3231515" cy="2228850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3104,8 +3773,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>262890</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>172085</xdr:rowOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3123,7 +3792,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4114800" y="21602700"/>
-          <a:ext cx="3691890" cy="3772535"/>
+          <a:ext cx="3691890" cy="3771900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3514,6 +4183,132 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="55219600"/>
+          <a:ext cx="6496050" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="56591200"/>
+          <a:ext cx="7239000" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7556500" y="55219600"/>
+          <a:ext cx="2495550" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3875,10 +4670,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:X293"/>
+  <dimension ref="B2:X330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="H299" sqref="H299"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="L323" sqref="L323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4531,7 +5326,7 @@
       <c r="S289" s="3"/>
     </row>
     <row r="290" spans="16:19">
-      <c r="P290" s="16" t="s">
+      <c r="P290" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q290" s="3"/>
@@ -4549,6 +5344,174 @@
     <row r="293" spans="16:16">
       <c r="P293" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="307" spans="2:7">
+      <c r="B307" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C307" s="18"/>
+      <c r="D307" s="18"/>
+      <c r="E307" s="18"/>
+      <c r="F307" s="18"/>
+      <c r="G307" s="18"/>
+    </row>
+    <row r="308" spans="2:7">
+      <c r="B308" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C308" s="18"/>
+      <c r="D308" s="18"/>
+      <c r="E308" s="18"/>
+      <c r="F308" s="18"/>
+      <c r="G308" s="18"/>
+    </row>
+    <row r="309" spans="2:7">
+      <c r="B309" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C309" s="18"/>
+      <c r="D309" s="18"/>
+      <c r="E309" s="18"/>
+      <c r="F309" s="18"/>
+      <c r="G309" s="18"/>
+    </row>
+    <row r="310" spans="2:7">
+      <c r="B310" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C310" s="18"/>
+      <c r="D310" s="18"/>
+      <c r="E310" s="18"/>
+      <c r="F310" s="18"/>
+      <c r="G310" s="18"/>
+    </row>
+    <row r="311" spans="2:7">
+      <c r="B311" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C311" s="18"/>
+      <c r="D311" s="18"/>
+      <c r="E311" s="18"/>
+      <c r="F311" s="18"/>
+      <c r="G311" s="18"/>
+    </row>
+    <row r="312" spans="2:7">
+      <c r="B312" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C312" s="18"/>
+      <c r="D312" s="18"/>
+      <c r="E312" s="18"/>
+      <c r="F312" s="18"/>
+      <c r="G312" s="18"/>
+    </row>
+    <row r="313" spans="2:7">
+      <c r="B313" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C313" s="18"/>
+      <c r="D313" s="18"/>
+      <c r="E313" s="18"/>
+      <c r="F313" s="18"/>
+      <c r="G313" s="18"/>
+    </row>
+    <row r="314" spans="2:7">
+      <c r="B314" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C314" s="18"/>
+      <c r="D314" s="18"/>
+      <c r="E314" s="18"/>
+      <c r="F314" s="18"/>
+      <c r="G314" s="18"/>
+    </row>
+    <row r="315" spans="2:7">
+      <c r="B315" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C315" s="18"/>
+      <c r="D315" s="18"/>
+      <c r="E315" s="18"/>
+      <c r="F315" s="18"/>
+      <c r="G315" s="18"/>
+    </row>
+    <row r="316" spans="2:9">
+      <c r="B316" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C316" s="18"/>
+      <c r="D316" s="18"/>
+      <c r="E316" s="18"/>
+      <c r="F316" s="18"/>
+      <c r="G316" s="18"/>
+      <c r="I316" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="317" spans="2:7">
+      <c r="B317" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C317" s="18"/>
+      <c r="D317" s="18"/>
+      <c r="E317" s="18"/>
+      <c r="F317" s="18"/>
+      <c r="G317" s="18"/>
+    </row>
+    <row r="318" spans="2:7">
+      <c r="B318" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C318" s="18"/>
+      <c r="D318" s="18"/>
+      <c r="E318" s="18"/>
+      <c r="F318" s="18"/>
+      <c r="G318" s="18"/>
+    </row>
+    <row r="319" spans="2:7">
+      <c r="B319" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C319" s="18"/>
+      <c r="D319" s="18"/>
+      <c r="E319" s="18"/>
+      <c r="F319" s="18"/>
+      <c r="G319" s="18"/>
+    </row>
+    <row r="320" spans="2:7">
+      <c r="B320" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C320" s="18"/>
+      <c r="D320" s="18"/>
+      <c r="E320" s="18"/>
+      <c r="F320" s="18"/>
+      <c r="G320" s="18"/>
+    </row>
+    <row r="321" spans="2:7">
+      <c r="B321" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C321" s="18"/>
+      <c r="D321" s="18"/>
+      <c r="E321" s="18"/>
+      <c r="F321" s="18"/>
+      <c r="G321" s="18"/>
+    </row>
+    <row r="329" spans="2:2">
+      <c r="B329" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/造轮子.xlsx
+++ b/造轮子.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
   <si>
     <t>github上选择Create new file</t>
   </si>
@@ -1754,6 +1754,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>7.props中的</t>
     </r>
     <r>
@@ -1780,6 +1787,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>props</t>
     </r>
     <r>
@@ -1794,6 +1807,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    </t>
     </r>
     <r>
@@ -1817,6 +1836,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">        </t>
     </r>
     <r>
@@ -1860,6 +1885,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">        </t>
     </r>
     <r>
@@ -1893,6 +1925,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    </t>
     </r>
     <r>
@@ -1907,6 +1945,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    </t>
     </r>
     <r>
@@ -1930,6 +1974,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">        </t>
     </r>
     <r>
@@ -1972,6 +2023,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">        </t>
     </r>
     <r>
@@ -1995,6 +2052,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A43"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">        validator</t>
     </r>
     <r>
@@ -2012,6 +2075,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">            // </t>
     </r>
     <r>
@@ -2080,6 +2149,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">            </t>
     </r>
     <r>
@@ -2149,6 +2225,42 @@
   </si>
   <si>
     <t>③经过属性检查器检查后，返回false，报错</t>
+  </si>
+  <si>
+    <t>8.svg颜色继承</t>
+  </si>
+  <si>
+    <r>
+      <t>fill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>currentColor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2156,10 +2268,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2242,6 +2354,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2264,6 +2383,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -2271,9 +2405,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2304,35 +2445,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -2348,7 +2460,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2365,22 +2493,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2430,7 +2542,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2451,25 +2563,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDF6E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2487,7 +2593,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2505,13 +2653,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2529,115 +2743,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2648,6 +2754,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2662,26 +2777,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2728,8 +2823,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2748,6 +2843,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2756,10 +2862,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2768,137 +2874,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2950,25 +3056,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4670,10 +4764,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:X330"/>
+  <dimension ref="B2:X338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="L323" sqref="L323"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="B338" sqref="B338:C338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5352,104 +5446,104 @@
       </c>
     </row>
     <row r="307" spans="2:7">
-      <c r="B307" s="17" t="s">
+      <c r="B307" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C307" s="18"/>
-      <c r="D307" s="18"/>
-      <c r="E307" s="18"/>
-      <c r="F307" s="18"/>
-      <c r="G307" s="18"/>
+      <c r="C307" s="3"/>
+      <c r="D307" s="3"/>
+      <c r="E307" s="3"/>
+      <c r="F307" s="3"/>
+      <c r="G307" s="3"/>
     </row>
     <row r="308" spans="2:7">
-      <c r="B308" s="17" t="s">
+      <c r="B308" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C308" s="18"/>
-      <c r="D308" s="18"/>
-      <c r="E308" s="18"/>
-      <c r="F308" s="18"/>
-      <c r="G308" s="18"/>
+      <c r="C308" s="3"/>
+      <c r="D308" s="3"/>
+      <c r="E308" s="3"/>
+      <c r="F308" s="3"/>
+      <c r="G308" s="3"/>
     </row>
     <row r="309" spans="2:7">
-      <c r="B309" s="17" t="s">
+      <c r="B309" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C309" s="18"/>
-      <c r="D309" s="18"/>
-      <c r="E309" s="18"/>
-      <c r="F309" s="18"/>
-      <c r="G309" s="18"/>
+      <c r="C309" s="3"/>
+      <c r="D309" s="3"/>
+      <c r="E309" s="3"/>
+      <c r="F309" s="3"/>
+      <c r="G309" s="3"/>
     </row>
     <row r="310" spans="2:7">
-      <c r="B310" s="19" t="s">
+      <c r="B310" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C310" s="18"/>
-      <c r="D310" s="18"/>
-      <c r="E310" s="18"/>
-      <c r="F310" s="18"/>
-      <c r="G310" s="18"/>
+      <c r="C310" s="3"/>
+      <c r="D310" s="3"/>
+      <c r="E310" s="3"/>
+      <c r="F310" s="3"/>
+      <c r="G310" s="3"/>
     </row>
     <row r="311" spans="2:7">
-      <c r="B311" s="20" t="s">
+      <c r="B311" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C311" s="18"/>
-      <c r="D311" s="18"/>
-      <c r="E311" s="18"/>
-      <c r="F311" s="18"/>
-      <c r="G311" s="18"/>
+      <c r="C311" s="3"/>
+      <c r="D311" s="3"/>
+      <c r="E311" s="3"/>
+      <c r="F311" s="3"/>
+      <c r="G311" s="3"/>
     </row>
     <row r="312" spans="2:7">
-      <c r="B312" s="17" t="s">
+      <c r="B312" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C312" s="18"/>
-      <c r="D312" s="18"/>
-      <c r="E312" s="18"/>
-      <c r="F312" s="18"/>
-      <c r="G312" s="18"/>
+      <c r="C312" s="3"/>
+      <c r="D312" s="3"/>
+      <c r="E312" s="3"/>
+      <c r="F312" s="3"/>
+      <c r="G312" s="3"/>
     </row>
     <row r="313" spans="2:7">
-      <c r="B313" s="17" t="s">
+      <c r="B313" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C313" s="18"/>
-      <c r="D313" s="18"/>
-      <c r="E313" s="18"/>
-      <c r="F313" s="18"/>
-      <c r="G313" s="18"/>
+      <c r="C313" s="3"/>
+      <c r="D313" s="3"/>
+      <c r="E313" s="3"/>
+      <c r="F313" s="3"/>
+      <c r="G313" s="3"/>
     </row>
     <row r="314" spans="2:7">
-      <c r="B314" s="19" t="s">
+      <c r="B314" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C314" s="18"/>
-      <c r="D314" s="18"/>
-      <c r="E314" s="18"/>
-      <c r="F314" s="18"/>
-      <c r="G314" s="18"/>
+      <c r="C314" s="3"/>
+      <c r="D314" s="3"/>
+      <c r="E314" s="3"/>
+      <c r="F314" s="3"/>
+      <c r="G314" s="3"/>
     </row>
     <row r="315" spans="2:7">
-      <c r="B315" s="21" t="s">
+      <c r="B315" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C315" s="18"/>
-      <c r="D315" s="18"/>
-      <c r="E315" s="18"/>
-      <c r="F315" s="18"/>
-      <c r="G315" s="18"/>
+      <c r="C315" s="3"/>
+      <c r="D315" s="3"/>
+      <c r="E315" s="3"/>
+      <c r="F315" s="3"/>
+      <c r="G315" s="3"/>
     </row>
     <row r="316" spans="2:9">
-      <c r="B316" s="22" t="s">
+      <c r="B316" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C316" s="18"/>
-      <c r="D316" s="18"/>
-      <c r="E316" s="18"/>
-      <c r="F316" s="18"/>
-      <c r="G316" s="18"/>
+      <c r="C316" s="3"/>
+      <c r="D316" s="3"/>
+      <c r="E316" s="3"/>
+      <c r="F316" s="3"/>
+      <c r="G316" s="3"/>
       <c r="I316" s="14" t="s">
         <v>94</v>
       </c>
@@ -5458,51 +5552,51 @@
       <c r="B317" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C317" s="18"/>
-      <c r="D317" s="18"/>
-      <c r="E317" s="18"/>
-      <c r="F317" s="18"/>
-      <c r="G317" s="18"/>
+      <c r="C317" s="3"/>
+      <c r="D317" s="3"/>
+      <c r="E317" s="3"/>
+      <c r="F317" s="3"/>
+      <c r="G317" s="3"/>
     </row>
     <row r="318" spans="2:7">
-      <c r="B318" s="23" t="s">
+      <c r="B318" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C318" s="18"/>
-      <c r="D318" s="18"/>
-      <c r="E318" s="18"/>
-      <c r="F318" s="18"/>
-      <c r="G318" s="18"/>
+      <c r="C318" s="3"/>
+      <c r="D318" s="3"/>
+      <c r="E318" s="3"/>
+      <c r="F318" s="3"/>
+      <c r="G318" s="3"/>
     </row>
     <row r="319" spans="2:7">
-      <c r="B319" s="20" t="s">
+      <c r="B319" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C319" s="18"/>
-      <c r="D319" s="18"/>
-      <c r="E319" s="18"/>
-      <c r="F319" s="18"/>
-      <c r="G319" s="18"/>
+      <c r="C319" s="3"/>
+      <c r="D319" s="3"/>
+      <c r="E319" s="3"/>
+      <c r="F319" s="3"/>
+      <c r="G319" s="3"/>
     </row>
     <row r="320" spans="2:7">
-      <c r="B320" s="20" t="s">
+      <c r="B320" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C320" s="18"/>
-      <c r="D320" s="18"/>
-      <c r="E320" s="18"/>
-      <c r="F320" s="18"/>
-      <c r="G320" s="18"/>
+      <c r="C320" s="3"/>
+      <c r="D320" s="3"/>
+      <c r="E320" s="3"/>
+      <c r="F320" s="3"/>
+      <c r="G320" s="3"/>
     </row>
     <row r="321" spans="2:7">
-      <c r="B321" s="20" t="s">
+      <c r="B321" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C321" s="18"/>
-      <c r="D321" s="18"/>
-      <c r="E321" s="18"/>
-      <c r="F321" s="18"/>
-      <c r="G321" s="18"/>
+      <c r="C321" s="3"/>
+      <c r="D321" s="3"/>
+      <c r="E321" s="3"/>
+      <c r="F321" s="3"/>
+      <c r="G321" s="3"/>
     </row>
     <row r="329" spans="2:2">
       <c r="B329" t="s">
@@ -5513,6 +5607,17 @@
       <c r="B330" t="s">
         <v>100</v>
       </c>
+    </row>
+    <row r="337" spans="2:2">
+      <c r="B337" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3">
+      <c r="B338" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C338" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/造轮子.xlsx
+++ b/造轮子.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
   <si>
     <t>github上选择Create new file</t>
   </si>
@@ -2231,6 +2231,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>fill</t>
     </r>
     <r>
@@ -2261,6 +2267,149 @@
       </rPr>
       <t>;</t>
     </r>
+  </si>
+  <si>
+    <t>9.通过&lt;slot&gt;传入的组件，获取组件name属性</t>
+  </si>
+  <si>
+    <r>
+      <t>mounted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A43"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$children</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6C71C4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$options</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>this.$children[0]是第一个组件对象，组件内部获取name的方法是this.$options.name</t>
   </si>
 </sst>
 </file>
@@ -2268,10 +2417,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2354,19 +2503,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF660E7A"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2383,38 +2525,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2444,6 +2556,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -2468,7 +2618,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2476,7 +2626,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2493,6 +2643,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2528,14 +2685,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FF660E7A"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FFF43EFF"/>
       <name val="宋体"/>
@@ -2563,78 +2712,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2647,31 +2724,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2689,7 +2778,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2701,13 +2850,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2720,30 +2893,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2760,23 +2909,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2805,26 +2965,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2846,11 +2997,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2862,10 +3011,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2874,137 +3023,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3062,7 +3211,13 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4764,10 +4919,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:X338"/>
+  <dimension ref="B2:X343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="B338" sqref="B338:C338"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="E349" sqref="E349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5614,10 +5769,45 @@
       </c>
     </row>
     <row r="338" spans="2:3">
-      <c r="B338" s="19" t="s">
+      <c r="B338" s="8" t="s">
         <v>102</v>
       </c>
       <c r="C338" s="3"/>
+    </row>
+    <row r="340" spans="2:2">
+      <c r="B340" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="341" spans="2:6">
+      <c r="B341" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C341" s="3"/>
+      <c r="D341" s="3"/>
+      <c r="E341" s="3"/>
+      <c r="F341" s="3"/>
+    </row>
+    <row r="342" spans="2:8">
+      <c r="B342" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C342" s="3"/>
+      <c r="D342" s="3"/>
+      <c r="E342" s="3"/>
+      <c r="F342" s="3"/>
+      <c r="H342" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="343" spans="2:6">
+      <c r="B343" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C343" s="3"/>
+      <c r="D343" s="3"/>
+      <c r="E343" s="3"/>
+      <c r="F343" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/造轮子.xlsx
+++ b/造轮子.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="创建许可证文件" sheetId="1" r:id="rId1"/>
     <sheet name="初始化node项目" sheetId="3" r:id="rId2"/>
     <sheet name="x-button" sheetId="4" r:id="rId3"/>
+    <sheet name="单元测试" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="116">
   <si>
     <t>github上选择Create new file</t>
   </si>
@@ -2410,6 +2411,33 @@
   </si>
   <si>
     <t>this.$children[0]是第一个组件对象，组件内部获取name的方法是this.$options.name</t>
+  </si>
+  <si>
+    <t>BDD</t>
+  </si>
+  <si>
+    <t>Behavior Driven Development</t>
+  </si>
+  <si>
+    <t>行为驱动开发</t>
+  </si>
+  <si>
+    <t>TDD</t>
+  </si>
+  <si>
+    <t>Test Driven Development</t>
+  </si>
+  <si>
+    <t>测试驱动开发</t>
+  </si>
+  <si>
+    <t>Assert</t>
+  </si>
+  <si>
+    <t>断言</t>
+  </si>
+  <si>
+    <t>主观认为(条件为true不报错，条件为false则报错)</t>
   </si>
 </sst>
 </file>
@@ -2424,6 +2452,14 @@
   </numFmts>
   <fonts count="38">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2454,14 +2490,6 @@
       <color rgb="FFDC322F"/>
       <name val="Consolas"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -3157,67 +3185,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4921,7 +4949,7 @@
   <sheetPr/>
   <dimension ref="B2:X343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+    <sheetView topLeftCell="A316" workbookViewId="0">
       <selection activeCell="E349" sqref="E349"/>
     </sheetView>
   </sheetViews>
@@ -4933,72 +4961,72 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
@@ -5006,44 +5034,44 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
@@ -5051,120 +5079,120 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" t="s">
@@ -5175,30 +5203,30 @@
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
@@ -5206,29 +5234,29 @@
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="44" s="1" customFormat="1"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="44" s="2" customFormat="1"/>
     <row r="46" spans="2:2">
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5248,147 +5276,147 @@
       </c>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="G52" s="2" t="s">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="G52" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="G53" s="2" t="s">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="G53" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="G54" s="2" t="s">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="G54" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="G56" s="2" t="s">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="G56" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="G57" s="4" t="s">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="G57" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="G58" s="5" t="s">
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="G58" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="G59" s="2" t="s">
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="G59" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3" t="s">
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
     </row>
     <row r="61" spans="7:10">
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
     </row>
     <row r="62" spans="7:10">
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
     </row>
     <row r="63" spans="7:10">
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
       <c r="J63" s="11" t="s">
         <v>53</v>
       </c>
@@ -5528,7 +5556,7 @@
       </c>
     </row>
     <row r="243" spans="7:7">
-      <c r="G243" s="7" t="s">
+      <c r="G243" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5541,15 +5569,15 @@
       </c>
     </row>
     <row r="245" spans="18:24">
-      <c r="R245" s="2" t="s">
+      <c r="R245" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="S245" s="3"/>
-      <c r="T245" s="3"/>
-      <c r="U245" s="3"/>
-      <c r="V245" s="3"/>
-      <c r="W245" s="3"/>
-      <c r="X245" s="3"/>
+      <c r="S245" s="4"/>
+      <c r="T245" s="4"/>
+      <c r="U245" s="4"/>
+      <c r="V245" s="4"/>
+      <c r="W245" s="4"/>
+      <c r="X245" s="4"/>
     </row>
     <row r="252" spans="8:8">
       <c r="H252" t="s">
@@ -5562,33 +5590,33 @@
       </c>
     </row>
     <row r="280" spans="7:7">
-      <c r="G280" s="7" t="s">
+      <c r="G280" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="289" spans="16:19">
-      <c r="P289" s="2" t="s">
+      <c r="P289" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q289" s="3"/>
-      <c r="R289" s="3"/>
-      <c r="S289" s="3"/>
+      <c r="Q289" s="4"/>
+      <c r="R289" s="4"/>
+      <c r="S289" s="4"/>
     </row>
     <row r="290" spans="16:19">
-      <c r="P290" s="2" t="s">
+      <c r="P290" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Q290" s="3"/>
-      <c r="R290" s="3"/>
-      <c r="S290" s="3"/>
+      <c r="Q290" s="4"/>
+      <c r="R290" s="4"/>
+      <c r="S290" s="4"/>
     </row>
     <row r="291" spans="16:19">
-      <c r="P291" s="2" t="s">
+      <c r="P291" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="Q291" s="3"/>
-      <c r="R291" s="3"/>
-      <c r="S291" s="3"/>
+      <c r="Q291" s="4"/>
+      <c r="R291" s="4"/>
+      <c r="S291" s="4"/>
     </row>
     <row r="293" spans="16:16">
       <c r="P293" t="s">
@@ -5601,104 +5629,104 @@
       </c>
     </row>
     <row r="307" spans="2:7">
-      <c r="B307" s="5" t="s">
+      <c r="B307" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C307" s="3"/>
-      <c r="D307" s="3"/>
-      <c r="E307" s="3"/>
-      <c r="F307" s="3"/>
-      <c r="G307" s="3"/>
+      <c r="C307" s="4"/>
+      <c r="D307" s="4"/>
+      <c r="E307" s="4"/>
+      <c r="F307" s="4"/>
+      <c r="G307" s="4"/>
     </row>
     <row r="308" spans="2:7">
-      <c r="B308" s="5" t="s">
+      <c r="B308" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C308" s="3"/>
-      <c r="D308" s="3"/>
-      <c r="E308" s="3"/>
-      <c r="F308" s="3"/>
-      <c r="G308" s="3"/>
+      <c r="C308" s="4"/>
+      <c r="D308" s="4"/>
+      <c r="E308" s="4"/>
+      <c r="F308" s="4"/>
+      <c r="G308" s="4"/>
     </row>
     <row r="309" spans="2:7">
-      <c r="B309" s="5" t="s">
+      <c r="B309" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C309" s="3"/>
-      <c r="D309" s="3"/>
-      <c r="E309" s="3"/>
-      <c r="F309" s="3"/>
-      <c r="G309" s="3"/>
+      <c r="C309" s="4"/>
+      <c r="D309" s="4"/>
+      <c r="E309" s="4"/>
+      <c r="F309" s="4"/>
+      <c r="G309" s="4"/>
     </row>
     <row r="310" spans="2:7">
       <c r="B310" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C310" s="3"/>
-      <c r="D310" s="3"/>
-      <c r="E310" s="3"/>
-      <c r="F310" s="3"/>
-      <c r="G310" s="3"/>
+      <c r="C310" s="4"/>
+      <c r="D310" s="4"/>
+      <c r="E310" s="4"/>
+      <c r="F310" s="4"/>
+      <c r="G310" s="4"/>
     </row>
     <row r="311" spans="2:7">
-      <c r="B311" s="2" t="s">
+      <c r="B311" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C311" s="3"/>
-      <c r="D311" s="3"/>
-      <c r="E311" s="3"/>
-      <c r="F311" s="3"/>
-      <c r="G311" s="3"/>
+      <c r="C311" s="4"/>
+      <c r="D311" s="4"/>
+      <c r="E311" s="4"/>
+      <c r="F311" s="4"/>
+      <c r="G311" s="4"/>
     </row>
     <row r="312" spans="2:7">
-      <c r="B312" s="5" t="s">
+      <c r="B312" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C312" s="3"/>
-      <c r="D312" s="3"/>
-      <c r="E312" s="3"/>
-      <c r="F312" s="3"/>
-      <c r="G312" s="3"/>
+      <c r="C312" s="4"/>
+      <c r="D312" s="4"/>
+      <c r="E312" s="4"/>
+      <c r="F312" s="4"/>
+      <c r="G312" s="4"/>
     </row>
     <row r="313" spans="2:7">
-      <c r="B313" s="5" t="s">
+      <c r="B313" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C313" s="3"/>
-      <c r="D313" s="3"/>
-      <c r="E313" s="3"/>
-      <c r="F313" s="3"/>
-      <c r="G313" s="3"/>
+      <c r="C313" s="4"/>
+      <c r="D313" s="4"/>
+      <c r="E313" s="4"/>
+      <c r="F313" s="4"/>
+      <c r="G313" s="4"/>
     </row>
     <row r="314" spans="2:7">
       <c r="B314" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C314" s="3"/>
-      <c r="D314" s="3"/>
-      <c r="E314" s="3"/>
-      <c r="F314" s="3"/>
-      <c r="G314" s="3"/>
+      <c r="C314" s="4"/>
+      <c r="D314" s="4"/>
+      <c r="E314" s="4"/>
+      <c r="F314" s="4"/>
+      <c r="G314" s="4"/>
     </row>
     <row r="315" spans="2:7">
       <c r="B315" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C315" s="3"/>
-      <c r="D315" s="3"/>
-      <c r="E315" s="3"/>
-      <c r="F315" s="3"/>
-      <c r="G315" s="3"/>
+      <c r="C315" s="4"/>
+      <c r="D315" s="4"/>
+      <c r="E315" s="4"/>
+      <c r="F315" s="4"/>
+      <c r="G315" s="4"/>
     </row>
     <row r="316" spans="2:9">
       <c r="B316" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C316" s="3"/>
-      <c r="D316" s="3"/>
-      <c r="E316" s="3"/>
-      <c r="F316" s="3"/>
-      <c r="G316" s="3"/>
+      <c r="C316" s="4"/>
+      <c r="D316" s="4"/>
+      <c r="E316" s="4"/>
+      <c r="F316" s="4"/>
+      <c r="G316" s="4"/>
       <c r="I316" s="14" t="s">
         <v>94</v>
       </c>
@@ -5707,51 +5735,51 @@
       <c r="B317" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C317" s="3"/>
-      <c r="D317" s="3"/>
-      <c r="E317" s="3"/>
-      <c r="F317" s="3"/>
-      <c r="G317" s="3"/>
+      <c r="C317" s="4"/>
+      <c r="D317" s="4"/>
+      <c r="E317" s="4"/>
+      <c r="F317" s="4"/>
+      <c r="G317" s="4"/>
     </row>
     <row r="318" spans="2:7">
-      <c r="B318" s="4" t="s">
+      <c r="B318" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C318" s="3"/>
-      <c r="D318" s="3"/>
-      <c r="E318" s="3"/>
-      <c r="F318" s="3"/>
-      <c r="G318" s="3"/>
+      <c r="C318" s="4"/>
+      <c r="D318" s="4"/>
+      <c r="E318" s="4"/>
+      <c r="F318" s="4"/>
+      <c r="G318" s="4"/>
     </row>
     <row r="319" spans="2:7">
-      <c r="B319" s="2" t="s">
+      <c r="B319" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C319" s="3"/>
-      <c r="D319" s="3"/>
-      <c r="E319" s="3"/>
-      <c r="F319" s="3"/>
-      <c r="G319" s="3"/>
+      <c r="C319" s="4"/>
+      <c r="D319" s="4"/>
+      <c r="E319" s="4"/>
+      <c r="F319" s="4"/>
+      <c r="G319" s="4"/>
     </row>
     <row r="320" spans="2:7">
-      <c r="B320" s="2" t="s">
+      <c r="B320" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C320" s="3"/>
-      <c r="D320" s="3"/>
-      <c r="E320" s="3"/>
-      <c r="F320" s="3"/>
-      <c r="G320" s="3"/>
+      <c r="C320" s="4"/>
+      <c r="D320" s="4"/>
+      <c r="E320" s="4"/>
+      <c r="F320" s="4"/>
+      <c r="G320" s="4"/>
     </row>
     <row r="321" spans="2:7">
-      <c r="B321" s="2" t="s">
+      <c r="B321" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C321" s="3"/>
-      <c r="D321" s="3"/>
-      <c r="E321" s="3"/>
-      <c r="F321" s="3"/>
-      <c r="G321" s="3"/>
+      <c r="C321" s="4"/>
+      <c r="D321" s="4"/>
+      <c r="E321" s="4"/>
+      <c r="F321" s="4"/>
+      <c r="G321" s="4"/>
     </row>
     <row r="329" spans="2:2">
       <c r="B329" t="s">
@@ -5772,7 +5800,7 @@
       <c r="B338" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C338" s="3"/>
+      <c r="C338" s="4"/>
     </row>
     <row r="340" spans="2:2">
       <c r="B340" t="s">
@@ -5783,19 +5811,19 @@
       <c r="B341" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C341" s="3"/>
-      <c r="D341" s="3"/>
-      <c r="E341" s="3"/>
-      <c r="F341" s="3"/>
+      <c r="C341" s="4"/>
+      <c r="D341" s="4"/>
+      <c r="E341" s="4"/>
+      <c r="F341" s="4"/>
     </row>
     <row r="342" spans="2:8">
       <c r="B342" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C342" s="3"/>
-      <c r="D342" s="3"/>
-      <c r="E342" s="3"/>
-      <c r="F342" s="3"/>
+      <c r="C342" s="4"/>
+      <c r="D342" s="4"/>
+      <c r="E342" s="4"/>
+      <c r="F342" s="4"/>
       <c r="H342" s="14" t="s">
         <v>106</v>
       </c>
@@ -5804,14 +5832,64 @@
       <c r="B343" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C343" s="3"/>
-      <c r="D343" s="3"/>
-      <c r="E343" s="3"/>
-      <c r="F343" s="3"/>
+      <c r="C343" s="4"/>
+      <c r="D343" s="4"/>
+      <c r="E343" s="4"/>
+      <c r="F343" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/造轮子.xlsx
+++ b/造轮子.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="创建许可证文件" sheetId="1" r:id="rId1"/>
     <sheet name="初始化node项目" sheetId="3" r:id="rId2"/>
     <sheet name="x-button" sheetId="4" r:id="rId3"/>
-    <sheet name="单元测试" sheetId="5" r:id="rId4"/>
+    <sheet name="Vue.extend()函数" sheetId="6" r:id="rId4"/>
+    <sheet name="单元测试" sheetId="5" r:id="rId5"/>
+    <sheet name="发送npm包" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="208">
   <si>
     <t>github上选择Create new file</t>
   </si>
@@ -2274,6 +2276,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A43"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>mounted</t>
     </r>
     <r>
@@ -2288,6 +2296,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    console</t>
     </r>
     <r>
@@ -2413,6 +2429,589 @@
     <t>this.$children[0]是第一个组件对象，组件内部获取name的方法是this.$options.name</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.Vue.extend()返回一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的构造函数</t>
+    </r>
+  </si>
+  <si>
+    <t>在index.html中创建div#test</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Constructor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>= Vue.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A43"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>extend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(xbutton);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">button </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Constructor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A43"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$mount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'#test'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>显示：</t>
+  </si>
+  <si>
+    <t>2.给按钮添加属性(props)及内容(slot)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">button </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Constructor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>({</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>propsData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+  </si>
+  <si>
+    <t>propsData对应props</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>icon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'setting'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>button.$slots.default对应默认slot(非具名插槽)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$slots</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.default = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>注：如果向插槽中插入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元素，则：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$slots</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.default = [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$createElement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(Vue.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A43"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>compile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'&lt;div&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/div&gt;'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>))];</t>
+    </r>
+  </si>
+  <si>
     <t>BDD</t>
   </si>
   <si>
@@ -2422,6 +3021,9 @@
     <t>行为驱动开发</t>
   </si>
   <si>
+    <t>用自然语言描述测试</t>
+  </si>
+  <si>
     <t>TDD</t>
   </si>
   <si>
@@ -2438,6 +3040,2149 @@
   </si>
   <si>
     <t>主观认为(条件为true不报错，条件为false则报错)</t>
+  </si>
+  <si>
+    <t>chai.js</t>
+  </si>
+  <si>
+    <t>npm i -D chai</t>
+  </si>
+  <si>
+    <t>2.进行单元测试</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">chai </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'chai'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">expect </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>= chai.expect;</t>
+    </r>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将组件写到页面的任意位置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Constructor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>= Vue.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A43"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>extend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(xbutton);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">button </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Constructor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>({</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>propsData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>icon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'setting'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    });</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$slots</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.default = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A43"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$mount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'#test'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">let </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">element </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$el</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A43"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>querySelector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'use'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">let </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">href </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>element</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A43"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>getAttribute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'xlink:href'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">// BDD, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用自然语言描述为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>期望</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> href </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 'setting'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'setting'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>断言报错，测试用例未通过</t>
+  </si>
+  <si>
+    <t xml:space="preserve">应该将 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'setting'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>修改为</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'#x-setting'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>则不报错，测试通过。</t>
+  </si>
+  <si>
+    <t>1.package.json</t>
+  </si>
+  <si>
+    <t>name：npm的包名</t>
+  </si>
+  <si>
+    <t>version：npm包的版本，要从0.0.1(非常初级的版本)开始发布，1.0.0为已经是写完的框架</t>
+  </si>
+  <si>
+    <t>main：npm包的入口文件(尽量为打包后生成的文件)</t>
+  </si>
+  <si>
+    <r>
+      <t>build-npm：以index.js文件为入口的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自定义打包命令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(yarn build-npm)，生成 dist文件夹</t>
+    </r>
+  </si>
+  <si>
+    <t>2.创建npm包的入口文件(index.js)，导出要发布的功能</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"./src/icon"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">;        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图标库</t>
+    </r>
+  </si>
+  <si>
+    <t>base.css</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"./src/base.css"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">;    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础样式</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">root </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--font-size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6C71C4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">XButton </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'./src/x-button'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--button-height</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6C71C4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">XButtonGroup </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'./src/x-button-group'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--button-bg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>white</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">XIcon </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'./src/x-icon'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--button-active-bg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>#eee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--border-radius</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6C71C4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>// Vue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>插件</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--border-color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>#999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">plugin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>= {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--border-color-hover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>#f00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A43"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>install</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">function </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(Vue) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFEFEFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>#333</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注册全局组件</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Vue.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A43"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>component</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'x-button'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, XButton);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Vue.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A43"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>component</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'x-button-group'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, XButtonGroup);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Vue.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A43"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>component</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'x-icon'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, XIcon);</t>
+    </r>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">export default </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>plugin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">export </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    XButton,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    XButtonGroup,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    XIcon</t>
+  </si>
+  <si>
+    <t>3.命令行执行 yarn build-npm</t>
+  </si>
+  <si>
+    <t>生成index.js与index.css(转义后的文件)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.命令行执行 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>npm adduser</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">输入 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用户名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱</t>
+    </r>
+  </si>
+  <si>
+    <t>注：npm不要指向淘宝源，要指向https://registry.npmjs.org/（不是cnpm）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5.命令行执行 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>npm publish</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>注：每次修改源码，发送npm包时，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>必须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更改version，否则报错。</t>
+    </r>
+  </si>
+  <si>
+    <t>登录到www.npmjs.com网站</t>
+  </si>
+  <si>
+    <t>6.在项目中使用</t>
+  </si>
+  <si>
+    <t>安装x-wheels</t>
+  </si>
+  <si>
+    <t>node_modules\x-wheels，import时用的都是dist文件夹中的文件</t>
+  </si>
+  <si>
+    <t>引入全部</t>
+  </si>
+  <si>
+    <t>引入单个</t>
+  </si>
+  <si>
+    <t>直接使用</t>
+  </si>
+  <si>
+    <t>单个引入</t>
   </si>
 </sst>
 </file>
@@ -2446,17 +5191,55 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFD33682"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF43EFF"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7A7A43"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF586E75"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF839496"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2467,17 +5250,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF586E75"/>
-      <name val="Consolas"/>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFD33682"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2487,19 +5265,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFDC322F"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF839496"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF43EFF"/>
+      <color rgb="FF458383"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
@@ -2512,21 +5278,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <color rgb="FFDC322F"/>
+      <name val="Consolas"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF859900"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF7A7A43"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
@@ -2547,14 +5306,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2585,14 +5382,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2600,23 +5390,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2632,29 +5406,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2676,6 +5427,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2684,13 +5443,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF458383"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFDC322F"/>
+      <color rgb="FFF43EFF"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -2702,13 +5455,41 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF586E75"/>
+      <color rgb="FF010101"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF010101"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFEFEFE"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFDC322F"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF43EFF"/>
+      <color rgb="FF586E75"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -2728,13 +5509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
+        <fgColor rgb="FFFDF6E3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDF6E3"/>
+        <fgColor theme="0" tint="-0.35"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2746,13 +5527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2764,37 +5539,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2812,37 +5605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2860,19 +5623,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2890,31 +5653,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2924,8 +5687,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2934,11 +5715,82 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2958,13 +5810,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2993,17 +5849,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3025,6 +5875,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -3039,10 +5900,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3051,201 +5912,240 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4589,6 +7489,819 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6870700" y="355600"/>
+          <a:ext cx="3028950" cy="2038350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="1727200"/>
+          <a:ext cx="2800350" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="4984750"/>
+          <a:ext cx="2800350" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384300" y="5861050"/>
+          <a:ext cx="14116050" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384300" y="10642600"/>
+          <a:ext cx="4419600" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384300" y="9099550"/>
+          <a:ext cx="4848225" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384300" y="13042900"/>
+          <a:ext cx="4638675" cy="4648200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>274955</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384300" y="18014950"/>
+          <a:ext cx="9863455" cy="3705225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="22301200"/>
+          <a:ext cx="3429000" cy="6038850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>650875</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6870700" y="13557250"/>
+          <a:ext cx="9553575" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>650875</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384300" y="28816300"/>
+          <a:ext cx="2695575" cy="2733675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384300" y="31902400"/>
+          <a:ext cx="5238750" cy="1533525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6870700" y="28816300"/>
+          <a:ext cx="3419475" cy="2457450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>422275</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6870700" y="31902400"/>
+          <a:ext cx="3152775" cy="3181350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6870700" y="35331400"/>
+          <a:ext cx="3162300" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384300" y="33616900"/>
+          <a:ext cx="3086100" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384300" y="355600"/>
+          <a:ext cx="4438650" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>631825</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384300" y="7556500"/>
+          <a:ext cx="1304925" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5499100" y="24530050"/>
+          <a:ext cx="1495425" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -4932,7 +8645,7 @@
       <c r="B45" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4961,72 +8674,72 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
@@ -5034,44 +8747,44 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
@@ -5079,120 +8792,120 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" t="s">
@@ -5203,30 +8916,30 @@
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
@@ -5234,29 +8947,29 @@
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="44" s="2" customFormat="1"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="44" s="25" customFormat="1"/>
     <row r="46" spans="2:2">
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5276,148 +8989,148 @@
       </c>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="G52" s="3" t="s">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="G52" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="G53" s="3" t="s">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="G53" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="G54" s="3" t="s">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="G54" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="G56" s="3" t="s">
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="G56" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="G57" s="5" t="s">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="G57" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="G58" s="6" t="s">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="G58" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="G59" s="3" t="s">
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="G59" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4" t="s">
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G60" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
     </row>
     <row r="61" spans="7:10">
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
     </row>
     <row r="62" spans="7:10">
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
     </row>
     <row r="63" spans="7:10">
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="11" t="s">
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="29" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5425,35 +9138,35 @@
       <c r="B64" t="s">
         <v>54</v>
       </c>
-      <c r="G64" s="10"/>
+      <c r="G64" s="28"/>
     </row>
     <row r="65" spans="7:7">
-      <c r="G65" s="10"/>
+      <c r="G65" s="28"/>
     </row>
     <row r="66" spans="7:7">
-      <c r="G66" s="10"/>
+      <c r="G66" s="28"/>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="10"/>
+      <c r="G67" s="28"/>
     </row>
     <row r="68" spans="7:7">
-      <c r="G68" s="10"/>
+      <c r="G68" s="28"/>
     </row>
     <row r="69" spans="7:7">
-      <c r="G69" s="10"/>
+      <c r="G69" s="28"/>
     </row>
     <row r="71" spans="7:7">
-      <c r="G71" s="12"/>
+      <c r="G71" s="30"/>
     </row>
     <row r="72" spans="7:7">
-      <c r="G72" s="10"/>
+      <c r="G72" s="28"/>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" t="s">
         <v>55</v>
       </c>
-      <c r="G73" s="13"/>
-      <c r="J73" s="14" t="s">
+      <c r="G73" s="31"/>
+      <c r="J73" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5464,7 +9177,7 @@
       <c r="C74" t="s">
         <v>57</v>
       </c>
-      <c r="J74" s="14" t="s">
+      <c r="J74" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5475,8 +9188,8 @@
       <c r="C75" t="s">
         <v>59</v>
       </c>
-      <c r="G75" s="12"/>
-      <c r="J75" s="14" t="s">
+      <c r="G75" s="30"/>
+      <c r="J75" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5487,25 +9200,25 @@
       <c r="C76" t="s">
         <v>61</v>
       </c>
-      <c r="G76" s="10"/>
+      <c r="G76" s="28"/>
     </row>
     <row r="77" spans="7:7">
-      <c r="G77" s="13"/>
+      <c r="G77" s="31"/>
     </row>
     <row r="79" spans="7:7">
-      <c r="G79" s="12"/>
+      <c r="G79" s="30"/>
     </row>
     <row r="80" spans="7:7">
-      <c r="G80" s="10"/>
+      <c r="G80" s="28"/>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" t="s">
         <v>62</v>
       </c>
-      <c r="G81" s="13"/>
+      <c r="G81" s="31"/>
     </row>
     <row r="82" spans="7:7">
-      <c r="G82" s="13"/>
+      <c r="G82" s="31"/>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
@@ -5541,22 +9254,22 @@
       </c>
     </row>
     <row r="167" spans="17:17">
-      <c r="Q167" s="14" t="s">
+      <c r="Q167" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="201" spans="17:17">
-      <c r="Q201" s="14" t="s">
+      <c r="Q201" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="211" spans="17:17">
-      <c r="Q211" s="15" t="s">
+      <c r="Q211" s="24" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="243" spans="7:7">
-      <c r="G243" s="1" t="s">
+      <c r="G243" s="9" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5569,15 +9282,15 @@
       </c>
     </row>
     <row r="245" spans="18:24">
-      <c r="R245" s="3" t="s">
+      <c r="R245" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="S245" s="4"/>
-      <c r="T245" s="4"/>
-      <c r="U245" s="4"/>
-      <c r="V245" s="4"/>
-      <c r="W245" s="4"/>
-      <c r="X245" s="4"/>
+      <c r="S245" s="3"/>
+      <c r="T245" s="3"/>
+      <c r="U245" s="3"/>
+      <c r="V245" s="3"/>
+      <c r="W245" s="3"/>
+      <c r="X245" s="3"/>
     </row>
     <row r="252" spans="8:8">
       <c r="H252" t="s">
@@ -5590,33 +9303,33 @@
       </c>
     </row>
     <row r="280" spans="7:7">
-      <c r="G280" s="1" t="s">
+      <c r="G280" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="289" spans="16:19">
-      <c r="P289" s="3" t="s">
+      <c r="P289" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="Q289" s="4"/>
-      <c r="R289" s="4"/>
-      <c r="S289" s="4"/>
+      <c r="Q289" s="3"/>
+      <c r="R289" s="3"/>
+      <c r="S289" s="3"/>
     </row>
     <row r="290" spans="16:19">
-      <c r="P290" s="3" t="s">
+      <c r="P290" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="Q290" s="4"/>
-      <c r="R290" s="4"/>
-      <c r="S290" s="4"/>
+      <c r="Q290" s="3"/>
+      <c r="R290" s="3"/>
+      <c r="S290" s="3"/>
     </row>
     <row r="291" spans="16:19">
-      <c r="P291" s="3" t="s">
+      <c r="P291" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="Q291" s="4"/>
-      <c r="R291" s="4"/>
-      <c r="S291" s="4"/>
+      <c r="Q291" s="3"/>
+      <c r="R291" s="3"/>
+      <c r="S291" s="3"/>
     </row>
     <row r="293" spans="16:16">
       <c r="P293" t="s">
@@ -5624,162 +9337,162 @@
       </c>
     </row>
     <row r="306" spans="2:2">
-      <c r="B306" s="16" t="s">
+      <c r="B306" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="307" spans="2:7">
-      <c r="B307" s="6" t="s">
+      <c r="B307" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C307" s="4"/>
-      <c r="D307" s="4"/>
-      <c r="E307" s="4"/>
-      <c r="F307" s="4"/>
-      <c r="G307" s="4"/>
+      <c r="C307" s="3"/>
+      <c r="D307" s="3"/>
+      <c r="E307" s="3"/>
+      <c r="F307" s="3"/>
+      <c r="G307" s="3"/>
     </row>
     <row r="308" spans="2:7">
-      <c r="B308" s="6" t="s">
+      <c r="B308" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C308" s="4"/>
-      <c r="D308" s="4"/>
-      <c r="E308" s="4"/>
-      <c r="F308" s="4"/>
-      <c r="G308" s="4"/>
+      <c r="C308" s="3"/>
+      <c r="D308" s="3"/>
+      <c r="E308" s="3"/>
+      <c r="F308" s="3"/>
+      <c r="G308" s="3"/>
     </row>
     <row r="309" spans="2:7">
-      <c r="B309" s="6" t="s">
+      <c r="B309" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C309" s="4"/>
-      <c r="D309" s="4"/>
-      <c r="E309" s="4"/>
-      <c r="F309" s="4"/>
-      <c r="G309" s="4"/>
+      <c r="C309" s="3"/>
+      <c r="D309" s="3"/>
+      <c r="E309" s="3"/>
+      <c r="F309" s="3"/>
+      <c r="G309" s="3"/>
     </row>
     <row r="310" spans="2:7">
-      <c r="B310" s="17" t="s">
+      <c r="B310" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C310" s="4"/>
-      <c r="D310" s="4"/>
-      <c r="E310" s="4"/>
-      <c r="F310" s="4"/>
-      <c r="G310" s="4"/>
+      <c r="C310" s="3"/>
+      <c r="D310" s="3"/>
+      <c r="E310" s="3"/>
+      <c r="F310" s="3"/>
+      <c r="G310" s="3"/>
     </row>
     <row r="311" spans="2:7">
-      <c r="B311" s="3" t="s">
+      <c r="B311" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C311" s="4"/>
-      <c r="D311" s="4"/>
-      <c r="E311" s="4"/>
-      <c r="F311" s="4"/>
-      <c r="G311" s="4"/>
+      <c r="C311" s="3"/>
+      <c r="D311" s="3"/>
+      <c r="E311" s="3"/>
+      <c r="F311" s="3"/>
+      <c r="G311" s="3"/>
     </row>
     <row r="312" spans="2:7">
-      <c r="B312" s="6" t="s">
+      <c r="B312" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C312" s="4"/>
-      <c r="D312" s="4"/>
-      <c r="E312" s="4"/>
-      <c r="F312" s="4"/>
-      <c r="G312" s="4"/>
+      <c r="C312" s="3"/>
+      <c r="D312" s="3"/>
+      <c r="E312" s="3"/>
+      <c r="F312" s="3"/>
+      <c r="G312" s="3"/>
     </row>
     <row r="313" spans="2:7">
-      <c r="B313" s="6" t="s">
+      <c r="B313" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C313" s="4"/>
-      <c r="D313" s="4"/>
-      <c r="E313" s="4"/>
-      <c r="F313" s="4"/>
-      <c r="G313" s="4"/>
+      <c r="C313" s="3"/>
+      <c r="D313" s="3"/>
+      <c r="E313" s="3"/>
+      <c r="F313" s="3"/>
+      <c r="G313" s="3"/>
     </row>
     <row r="314" spans="2:7">
-      <c r="B314" s="17" t="s">
+      <c r="B314" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C314" s="4"/>
-      <c r="D314" s="4"/>
-      <c r="E314" s="4"/>
-      <c r="F314" s="4"/>
-      <c r="G314" s="4"/>
+      <c r="C314" s="3"/>
+      <c r="D314" s="3"/>
+      <c r="E314" s="3"/>
+      <c r="F314" s="3"/>
+      <c r="G314" s="3"/>
     </row>
     <row r="315" spans="2:7">
-      <c r="B315" s="9" t="s">
+      <c r="B315" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C315" s="4"/>
-      <c r="D315" s="4"/>
-      <c r="E315" s="4"/>
-      <c r="F315" s="4"/>
-      <c r="G315" s="4"/>
+      <c r="C315" s="3"/>
+      <c r="D315" s="3"/>
+      <c r="E315" s="3"/>
+      <c r="F315" s="3"/>
+      <c r="G315" s="3"/>
     </row>
     <row r="316" spans="2:9">
-      <c r="B316" s="18" t="s">
+      <c r="B316" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C316" s="4"/>
-      <c r="D316" s="4"/>
-      <c r="E316" s="4"/>
-      <c r="F316" s="4"/>
-      <c r="G316" s="4"/>
-      <c r="I316" s="14" t="s">
+      <c r="C316" s="3"/>
+      <c r="D316" s="3"/>
+      <c r="E316" s="3"/>
+      <c r="F316" s="3"/>
+      <c r="G316" s="3"/>
+      <c r="I316" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="317" spans="2:7">
-      <c r="B317" s="9" t="s">
+      <c r="B317" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C317" s="4"/>
-      <c r="D317" s="4"/>
-      <c r="E317" s="4"/>
-      <c r="F317" s="4"/>
-      <c r="G317" s="4"/>
+      <c r="C317" s="3"/>
+      <c r="D317" s="3"/>
+      <c r="E317" s="3"/>
+      <c r="F317" s="3"/>
+      <c r="G317" s="3"/>
     </row>
     <row r="318" spans="2:7">
-      <c r="B318" s="5" t="s">
+      <c r="B318" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C318" s="4"/>
-      <c r="D318" s="4"/>
-      <c r="E318" s="4"/>
-      <c r="F318" s="4"/>
-      <c r="G318" s="4"/>
+      <c r="C318" s="3"/>
+      <c r="D318" s="3"/>
+      <c r="E318" s="3"/>
+      <c r="F318" s="3"/>
+      <c r="G318" s="3"/>
     </row>
     <row r="319" spans="2:7">
-      <c r="B319" s="3" t="s">
+      <c r="B319" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C319" s="4"/>
-      <c r="D319" s="4"/>
-      <c r="E319" s="4"/>
-      <c r="F319" s="4"/>
-      <c r="G319" s="4"/>
+      <c r="C319" s="3"/>
+      <c r="D319" s="3"/>
+      <c r="E319" s="3"/>
+      <c r="F319" s="3"/>
+      <c r="G319" s="3"/>
     </row>
     <row r="320" spans="2:7">
-      <c r="B320" s="3" t="s">
+      <c r="B320" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C320" s="4"/>
-      <c r="D320" s="4"/>
-      <c r="E320" s="4"/>
-      <c r="F320" s="4"/>
-      <c r="G320" s="4"/>
+      <c r="C320" s="3"/>
+      <c r="D320" s="3"/>
+      <c r="E320" s="3"/>
+      <c r="F320" s="3"/>
+      <c r="G320" s="3"/>
     </row>
     <row r="321" spans="2:7">
-      <c r="B321" s="3" t="s">
+      <c r="B321" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C321" s="4"/>
-      <c r="D321" s="4"/>
-      <c r="E321" s="4"/>
-      <c r="F321" s="4"/>
-      <c r="G321" s="4"/>
+      <c r="C321" s="3"/>
+      <c r="D321" s="3"/>
+      <c r="E321" s="3"/>
+      <c r="F321" s="3"/>
+      <c r="G321" s="3"/>
     </row>
     <row r="329" spans="2:2">
       <c r="B329" t="s">
@@ -5797,10 +9510,10 @@
       </c>
     </row>
     <row r="338" spans="2:3">
-      <c r="B338" s="8" t="s">
+      <c r="B338" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C338" s="4"/>
+      <c r="C338" s="3"/>
     </row>
     <row r="340" spans="2:2">
       <c r="B340" t="s">
@@ -5808,34 +9521,34 @@
       </c>
     </row>
     <row r="341" spans="2:6">
-      <c r="B341" s="19" t="s">
+      <c r="B341" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C341" s="4"/>
-      <c r="D341" s="4"/>
-      <c r="E341" s="4"/>
-      <c r="F341" s="4"/>
+      <c r="C341" s="3"/>
+      <c r="D341" s="3"/>
+      <c r="E341" s="3"/>
+      <c r="F341" s="3"/>
     </row>
     <row r="342" spans="2:8">
-      <c r="B342" s="20" t="s">
+      <c r="B342" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C342" s="4"/>
-      <c r="D342" s="4"/>
-      <c r="E342" s="4"/>
-      <c r="F342" s="4"/>
-      <c r="H342" s="14" t="s">
+      <c r="C342" s="3"/>
+      <c r="D342" s="3"/>
+      <c r="E342" s="3"/>
+      <c r="F342" s="3"/>
+      <c r="H342" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="343" spans="2:6">
-      <c r="B343" s="21" t="s">
+      <c r="B343" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C343" s="4"/>
-      <c r="D343" s="4"/>
-      <c r="E343" s="4"/>
-      <c r="F343" s="4"/>
+      <c r="C343" s="3"/>
+      <c r="D343" s="3"/>
+      <c r="E343" s="3"/>
+      <c r="F343" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5847,49 +9560,843 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:G4"/>
+  <dimension ref="B2:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:11">
       <c r="B2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K2" t="s">
         <v>108</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="11"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="1" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="1" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
         <v>113</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="14" t="s">
         <v>115</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="G22" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="G24" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="G26" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="G27" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:J47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="2:2">
+      <c r="B7" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" ht="14.25" spans="3:7">
+      <c r="C27" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" ht="14.25" spans="3:7">
+      <c r="C30" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6">
+      <c r="D44" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6">
+      <c r="D46" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:L186"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A171" sqref="A171"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12">
+      <c r="C19" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="J20" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12">
+      <c r="C21" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="J21" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12">
+      <c r="C22" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="J22" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12">
+      <c r="C23" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="J23" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="J24" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12">
+      <c r="C25" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="J25" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12">
+      <c r="C26" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="J26" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12">
+      <c r="C27" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="J27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12">
+      <c r="C28" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="J28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="C31" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="3:8">
+      <c r="C35" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="3:8">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="3:8">
+      <c r="C37" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="3:8">
+      <c r="C38" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="3:8">
+      <c r="C39" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="3:8">
+      <c r="C40" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="3:8">
+      <c r="C41" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="11:11">
+      <c r="K79" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="143" spans="9:9">
+      <c r="I143" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="168" spans="3:11">
+      <c r="C168" t="s">
+        <v>204</v>
+      </c>
+      <c r="K168" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="186" spans="3:11">
+      <c r="C186" t="s">
+        <v>206</v>
+      </c>
+      <c r="K186" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/造轮子.xlsx
+++ b/造轮子.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="209">
   <si>
     <t>github上选择Create new file</t>
   </si>
@@ -4117,6 +4117,32 @@
     <t>1.package.json</t>
   </si>
   <si>
+    <r>
+      <t>这里用的是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parcel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>打包工具</t>
+    </r>
+  </si>
+  <si>
     <t>name：npm的包名</t>
   </si>
   <si>
@@ -4148,7 +4174,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(yarn build-npm)，生成 dist文件夹</t>
+      <t>(yarn build-npm)，生成 dist文件夹。</t>
     </r>
   </si>
   <si>
@@ -5195,7 +5221,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5230,6 +5256,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5439,6 +5472,14 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5900,10 +5941,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5912,37 +5953,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5951,98 +5986,104 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6067,13 +6108,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -6085,10 +6129,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -6106,7 +6150,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
@@ -6115,22 +6159,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6139,13 +6183,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8674,7 +8718,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3"/>
@@ -8692,7 +8736,7 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3"/>
@@ -8702,7 +8746,7 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3"/>
@@ -8712,7 +8756,7 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="3"/>
@@ -8722,7 +8766,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="3"/>
@@ -8732,7 +8776,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="3"/>
@@ -8747,7 +8791,7 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="3"/>
@@ -8755,7 +8799,7 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="3"/>
@@ -8763,7 +8807,7 @@
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="3"/>
@@ -8771,7 +8815,7 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="3"/>
@@ -8779,7 +8823,7 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="3"/>
@@ -8792,7 +8836,7 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="3"/>
@@ -8802,7 +8846,7 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="3"/>
@@ -8812,7 +8856,7 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="3"/>
@@ -8830,7 +8874,7 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="3"/>
@@ -8840,7 +8884,7 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="3"/>
@@ -8858,7 +8902,7 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="3"/>
@@ -8868,7 +8912,7 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="3"/>
@@ -8878,7 +8922,7 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="3"/>
@@ -8888,7 +8932,7 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="3"/>
@@ -8898,7 +8942,7 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="3"/>
@@ -8916,26 +8960,26 @@
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="28" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C37" s="3"/>
@@ -8947,29 +8991,29 @@
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="28" t="s">
         <v>33</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="44" s="25" customFormat="1"/>
+    <row r="44" s="26" customFormat="1"/>
     <row r="46" spans="2:2">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8989,13 +9033,13 @@
       </c>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="G52" s="12" t="s">
+      <c r="G52" s="13" t="s">
         <v>39</v>
       </c>
       <c r="H52" s="3"/>
@@ -9003,13 +9047,13 @@
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="G53" s="12" t="s">
+      <c r="G53" s="13" t="s">
         <v>41</v>
       </c>
       <c r="H53" s="3"/>
@@ -9021,7 +9065,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="G54" s="12" t="s">
+      <c r="G54" s="13" t="s">
         <v>42</v>
       </c>
       <c r="H54" s="3"/>
@@ -9029,7 +9073,7 @@
       <c r="J54" s="3"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C55" s="3"/>
@@ -9041,13 +9085,13 @@
       <c r="J55" s="3"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="G56" s="12" t="s">
+      <c r="G56" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H56" s="3"/>
@@ -9059,7 +9103,7 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="G57" s="11" t="s">
+      <c r="G57" s="12" t="s">
         <v>45</v>
       </c>
       <c r="H57" s="3"/>
@@ -9067,13 +9111,13 @@
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="G58" s="14" t="s">
+      <c r="G58" s="15" t="s">
         <v>47</v>
       </c>
       <c r="H58" s="3"/>
@@ -9081,13 +9125,13 @@
       <c r="J58" s="3"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="G59" s="12" t="s">
+      <c r="G59" s="13" t="s">
         <v>49</v>
       </c>
       <c r="H59" s="3"/>
@@ -9095,7 +9139,7 @@
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C60" s="3"/>
@@ -9103,7 +9147,7 @@
       <c r="E60" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G60" s="12" t="s">
+      <c r="G60" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H60" s="3"/>
@@ -9117,7 +9161,7 @@
       <c r="J61" s="3"/>
     </row>
     <row r="62" spans="7:10">
-      <c r="G62" s="12" t="s">
+      <c r="G62" s="13" t="s">
         <v>51</v>
       </c>
       <c r="H62" s="3"/>
@@ -9125,12 +9169,12 @@
       <c r="J62" s="3"/>
     </row>
     <row r="63" spans="7:10">
-      <c r="G63" s="12" t="s">
+      <c r="G63" s="13" t="s">
         <v>52</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="29" t="s">
+      <c r="J63" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -9138,34 +9182,34 @@
       <c r="B64" t="s">
         <v>54</v>
       </c>
-      <c r="G64" s="28"/>
+      <c r="G64" s="29"/>
     </row>
     <row r="65" spans="7:7">
-      <c r="G65" s="28"/>
+      <c r="G65" s="29"/>
     </row>
     <row r="66" spans="7:7">
-      <c r="G66" s="28"/>
+      <c r="G66" s="29"/>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="28"/>
+      <c r="G67" s="29"/>
     </row>
     <row r="68" spans="7:7">
-      <c r="G68" s="28"/>
+      <c r="G68" s="29"/>
     </row>
     <row r="69" spans="7:7">
-      <c r="G69" s="28"/>
+      <c r="G69" s="29"/>
     </row>
     <row r="71" spans="7:7">
-      <c r="G71" s="30"/>
+      <c r="G71" s="31"/>
     </row>
     <row r="72" spans="7:7">
-      <c r="G72" s="28"/>
+      <c r="G72" s="29"/>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" t="s">
         <v>55</v>
       </c>
-      <c r="G73" s="31"/>
+      <c r="G73" s="32"/>
       <c r="J73" s="7" t="s">
         <v>56</v>
       </c>
@@ -9188,7 +9232,7 @@
       <c r="C75" t="s">
         <v>59</v>
       </c>
-      <c r="G75" s="30"/>
+      <c r="G75" s="31"/>
       <c r="J75" s="7" t="s">
         <v>60</v>
       </c>
@@ -9200,25 +9244,25 @@
       <c r="C76" t="s">
         <v>61</v>
       </c>
-      <c r="G76" s="28"/>
+      <c r="G76" s="29"/>
     </row>
     <row r="77" spans="7:7">
-      <c r="G77" s="31"/>
+      <c r="G77" s="32"/>
     </row>
     <row r="79" spans="7:7">
-      <c r="G79" s="30"/>
+      <c r="G79" s="31"/>
     </row>
     <row r="80" spans="7:7">
-      <c r="G80" s="28"/>
+      <c r="G80" s="29"/>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" t="s">
         <v>62</v>
       </c>
-      <c r="G81" s="31"/>
+      <c r="G81" s="32"/>
     </row>
     <row r="82" spans="7:7">
-      <c r="G82" s="31"/>
+      <c r="G82" s="32"/>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
@@ -9264,12 +9308,12 @@
       </c>
     </row>
     <row r="211" spans="17:17">
-      <c r="Q211" s="24" t="s">
+      <c r="Q211" s="25" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="243" spans="7:7">
-      <c r="G243" s="9" t="s">
+      <c r="G243" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -9282,7 +9326,7 @@
       </c>
     </row>
     <row r="245" spans="18:24">
-      <c r="R245" s="12" t="s">
+      <c r="R245" s="13" t="s">
         <v>76</v>
       </c>
       <c r="S245" s="3"/>
@@ -9303,12 +9347,12 @@
       </c>
     </row>
     <row r="280" spans="7:7">
-      <c r="G280" s="9" t="s">
+      <c r="G280" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="289" spans="16:19">
-      <c r="P289" s="12" t="s">
+      <c r="P289" s="13" t="s">
         <v>80</v>
       </c>
       <c r="Q289" s="3"/>
@@ -9316,7 +9360,7 @@
       <c r="S289" s="3"/>
     </row>
     <row r="290" spans="16:19">
-      <c r="P290" s="12" t="s">
+      <c r="P290" s="13" t="s">
         <v>81</v>
       </c>
       <c r="Q290" s="3"/>
@@ -9324,7 +9368,7 @@
       <c r="S290" s="3"/>
     </row>
     <row r="291" spans="16:19">
-      <c r="P291" s="12" t="s">
+      <c r="P291" s="13" t="s">
         <v>82</v>
       </c>
       <c r="Q291" s="3"/>
@@ -9342,7 +9386,7 @@
       </c>
     </row>
     <row r="307" spans="2:7">
-      <c r="B307" s="14" t="s">
+      <c r="B307" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C307" s="3"/>
@@ -9352,7 +9396,7 @@
       <c r="G307" s="3"/>
     </row>
     <row r="308" spans="2:7">
-      <c r="B308" s="14" t="s">
+      <c r="B308" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C308" s="3"/>
@@ -9362,7 +9406,7 @@
       <c r="G308" s="3"/>
     </row>
     <row r="309" spans="2:7">
-      <c r="B309" s="14" t="s">
+      <c r="B309" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C309" s="3"/>
@@ -9372,7 +9416,7 @@
       <c r="G309" s="3"/>
     </row>
     <row r="310" spans="2:7">
-      <c r="B310" s="32" t="s">
+      <c r="B310" s="33" t="s">
         <v>88</v>
       </c>
       <c r="C310" s="3"/>
@@ -9382,7 +9426,7 @@
       <c r="G310" s="3"/>
     </row>
     <row r="311" spans="2:7">
-      <c r="B311" s="12" t="s">
+      <c r="B311" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C311" s="3"/>
@@ -9392,7 +9436,7 @@
       <c r="G311" s="3"/>
     </row>
     <row r="312" spans="2:7">
-      <c r="B312" s="14" t="s">
+      <c r="B312" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C312" s="3"/>
@@ -9402,7 +9446,7 @@
       <c r="G312" s="3"/>
     </row>
     <row r="313" spans="2:7">
-      <c r="B313" s="14" t="s">
+      <c r="B313" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C313" s="3"/>
@@ -9412,7 +9456,7 @@
       <c r="G313" s="3"/>
     </row>
     <row r="314" spans="2:7">
-      <c r="B314" s="32" t="s">
+      <c r="B314" s="33" t="s">
         <v>91</v>
       </c>
       <c r="C314" s="3"/>
@@ -9422,7 +9466,7 @@
       <c r="G314" s="3"/>
     </row>
     <row r="315" spans="2:7">
-      <c r="B315" s="13" t="s">
+      <c r="B315" s="14" t="s">
         <v>92</v>
       </c>
       <c r="C315" s="3"/>
@@ -9432,7 +9476,7 @@
       <c r="G315" s="3"/>
     </row>
     <row r="316" spans="2:9">
-      <c r="B316" s="33" t="s">
+      <c r="B316" s="34" t="s">
         <v>93</v>
       </c>
       <c r="C316" s="3"/>
@@ -9445,7 +9489,7 @@
       </c>
     </row>
     <row r="317" spans="2:7">
-      <c r="B317" s="13" t="s">
+      <c r="B317" s="14" t="s">
         <v>95</v>
       </c>
       <c r="C317" s="3"/>
@@ -9455,7 +9499,7 @@
       <c r="G317" s="3"/>
     </row>
     <row r="318" spans="2:7">
-      <c r="B318" s="11" t="s">
+      <c r="B318" s="12" t="s">
         <v>96</v>
       </c>
       <c r="C318" s="3"/>
@@ -9465,7 +9509,7 @@
       <c r="G318" s="3"/>
     </row>
     <row r="319" spans="2:7">
-      <c r="B319" s="12" t="s">
+      <c r="B319" s="13" t="s">
         <v>97</v>
       </c>
       <c r="C319" s="3"/>
@@ -9475,7 +9519,7 @@
       <c r="G319" s="3"/>
     </row>
     <row r="320" spans="2:7">
-      <c r="B320" s="12" t="s">
+      <c r="B320" s="13" t="s">
         <v>98</v>
       </c>
       <c r="C320" s="3"/>
@@ -9485,7 +9529,7 @@
       <c r="G320" s="3"/>
     </row>
     <row r="321" spans="2:7">
-      <c r="B321" s="12" t="s">
+      <c r="B321" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C321" s="3"/>
@@ -9510,7 +9554,7 @@
       </c>
     </row>
     <row r="338" spans="2:3">
-      <c r="B338" s="27" t="s">
+      <c r="B338" s="28" t="s">
         <v>102</v>
       </c>
       <c r="C338" s="3"/>
@@ -9521,7 +9565,7 @@
       </c>
     </row>
     <row r="341" spans="2:6">
-      <c r="B341" s="33" t="s">
+      <c r="B341" s="34" t="s">
         <v>104</v>
       </c>
       <c r="C341" s="3"/>
@@ -9530,7 +9574,7 @@
       <c r="F341" s="3"/>
     </row>
     <row r="342" spans="2:8">
-      <c r="B342" s="34" t="s">
+      <c r="B342" s="35" t="s">
         <v>105</v>
       </c>
       <c r="C342" s="3"/>
@@ -9542,7 +9586,7 @@
       </c>
     </row>
     <row r="343" spans="2:6">
-      <c r="B343" s="12" t="s">
+      <c r="B343" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C343" s="3"/>
@@ -9577,7 +9621,7 @@
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="3"/>
@@ -9585,13 +9629,13 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="11"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>109</v>
       </c>
       <c r="C6" s="3"/>
@@ -9599,7 +9643,7 @@
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>110</v>
       </c>
       <c r="C7" s="3"/>
@@ -9607,7 +9651,7 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="3"/>
@@ -9625,7 +9669,7 @@
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>109</v>
       </c>
       <c r="C20" s="3"/>
@@ -9633,7 +9677,7 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>114</v>
       </c>
       <c r="C21" s="3"/>
@@ -9641,38 +9685,38 @@
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="25" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="15" t="s">
         <v>117</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="G23" s="24"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>118</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="25" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="3"/>
@@ -9680,7 +9724,7 @@
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="16" t="s">
         <v>120</v>
       </c>
       <c r="C26" s="3"/>
@@ -9691,13 +9735,13 @@
       </c>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>111</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="16" t="s">
         <v>122</v>
       </c>
       <c r="H27" s="3"/>
@@ -9732,7 +9776,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>123</v>
       </c>
       <c r="C2" t="s">
@@ -9746,7 +9790,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>127</v>
       </c>
       <c r="C3" t="s">
@@ -9757,7 +9801,7 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>130</v>
       </c>
       <c r="C4" t="s">
@@ -9768,7 +9812,7 @@
       </c>
     </row>
     <row r="7" ht="27" spans="2:2">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9788,7 +9832,7 @@
       </c>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>136</v>
       </c>
       <c r="D13" s="3"/>
@@ -9797,7 +9841,7 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>137</v>
       </c>
       <c r="D14" s="3"/>
@@ -9806,7 +9850,7 @@
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>138</v>
       </c>
       <c r="D15" s="3"/>
@@ -9815,7 +9859,7 @@
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>139</v>
       </c>
       <c r="D16" s="3"/>
@@ -9824,7 +9868,7 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>140</v>
       </c>
       <c r="D17" s="3"/>
@@ -9833,7 +9877,7 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>141</v>
       </c>
       <c r="D18" s="3"/>
@@ -9842,7 +9886,7 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>142</v>
       </c>
       <c r="D19" s="3"/>
@@ -9851,7 +9895,7 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>143</v>
       </c>
       <c r="D20" s="3"/>
@@ -9860,7 +9904,7 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="3:7">
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>144</v>
       </c>
       <c r="D21" s="3"/>
@@ -9869,7 +9913,7 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>145</v>
       </c>
       <c r="D22" s="3"/>
@@ -9878,7 +9922,7 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="3:7">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="16" t="s">
         <v>146</v>
       </c>
       <c r="D23" s="3"/>
@@ -9887,7 +9931,7 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="3:7">
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="16" t="s">
         <v>147</v>
       </c>
       <c r="D24" s="3"/>
@@ -9903,7 +9947,7 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="3:7">
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="12" t="s">
         <v>148</v>
       </c>
       <c r="D26" s="3"/>
@@ -9912,7 +9956,7 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" ht="14.25" spans="3:7">
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="12" t="s">
         <v>149</v>
       </c>
       <c r="D27" s="3"/>
@@ -9921,34 +9965,34 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="3:7">
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" spans="3:7">
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="20" t="s">
         <v>151</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="20"/>
+      <c r="G29" s="21"/>
     </row>
     <row r="30" ht="14.25" spans="3:7">
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="3:7">
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="3"/>
@@ -9967,7 +10011,7 @@
       </c>
     </row>
     <row r="44" spans="4:6">
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="16" t="s">
         <v>155</v>
       </c>
       <c r="E44" s="3"/>
@@ -9979,7 +10023,7 @@
       </c>
     </row>
     <row r="46" spans="4:6">
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="16" t="s">
         <v>157</v>
       </c>
       <c r="E46" s="3"/>
@@ -10002,8 +10046,8 @@
   <sheetPr/>
   <dimension ref="B2:L186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10013,34 +10057,39 @@
         <v>159</v>
       </c>
     </row>
+    <row r="9" spans="10:10">
+      <c r="J9" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="3:10">
       <c r="C18" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -10048,12 +10097,12 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="3:12">
       <c r="C19" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -10061,7 +10110,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="J19" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -10073,53 +10122,53 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="J20" s="8" t="s">
-        <v>169</v>
+      <c r="J20" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="3:12">
       <c r="C21" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="J21" s="8" t="s">
-        <v>171</v>
+      <c r="J21" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="3:12">
       <c r="C22" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="J22" s="8" t="s">
-        <v>173</v>
+      <c r="J22" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="3:12">
       <c r="C23" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="J23" s="8" t="s">
-        <v>175</v>
+      <c r="J23" s="9" t="s">
+        <v>176</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -10131,60 +10180,60 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="J24" s="8" t="s">
-        <v>176</v>
+      <c r="J24" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="3:12">
       <c r="C25" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="J25" s="8" t="s">
-        <v>178</v>
+      <c r="J25" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="3:12">
       <c r="C26" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="J26" s="8" t="s">
-        <v>180</v>
+      <c r="J26" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="3:12">
       <c r="C27" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="J27" s="8" t="s">
-        <v>182</v>
+      <c r="J27" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="3:12">
       <c r="C28" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -10199,7 +10248,7 @@
     </row>
     <row r="29" spans="3:8">
       <c r="C29" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -10209,7 +10258,7 @@
     </row>
     <row r="30" spans="3:8">
       <c r="C30" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -10219,7 +10268,7 @@
     </row>
     <row r="31" spans="3:8">
       <c r="C31" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -10239,7 +10288,7 @@
     </row>
     <row r="33" spans="3:8">
       <c r="C33" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -10257,7 +10306,7 @@
     </row>
     <row r="35" spans="3:8">
       <c r="C35" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -10275,7 +10324,7 @@
     </row>
     <row r="37" spans="3:8">
       <c r="C37" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -10285,7 +10334,7 @@
     </row>
     <row r="38" spans="3:8">
       <c r="C38" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -10295,7 +10344,7 @@
     </row>
     <row r="39" spans="3:8">
       <c r="C39" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -10305,7 +10354,7 @@
     </row>
     <row r="40" spans="3:8">
       <c r="C40" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -10315,7 +10364,7 @@
     </row>
     <row r="41" spans="3:8">
       <c r="C41" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -10325,73 +10374,73 @@
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="11:11">
       <c r="K79" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="3:3">
       <c r="C105" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="130" spans="3:3">
       <c r="C130" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="143" spans="9:9">
       <c r="I143" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="168" spans="3:11">
       <c r="C168" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K168" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="186" spans="3:11">
       <c r="C186" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/造轮子.xlsx
+++ b/造轮子.xlsx
@@ -12,7 +12,7 @@
     <sheet name="x-button" sheetId="4" r:id="rId3"/>
     <sheet name="Vue.extend()函数" sheetId="6" r:id="rId4"/>
     <sheet name="单元测试" sheetId="5" r:id="rId5"/>
-    <sheet name="发送npm包" sheetId="7" r:id="rId6"/>
+    <sheet name="发布npm包" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -4149,7 +4149,7 @@
     <t>version：npm包的版本，要从0.0.1(非常初级的版本)开始发布，1.0.0为已经是写完的框架</t>
   </si>
   <si>
-    <t>main：npm包的入口文件(尽量为打包后生成的文件)</t>
+    <t>main：npm包的入口文件(尽量为打包后生成的文件，如dist/index.js)</t>
   </si>
   <si>
     <r>
@@ -7717,13 +7717,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7741,7 +7741,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1384300" y="10642600"/>
+          <a:off x="1384300" y="10128250"/>
           <a:ext cx="4419600" cy="1981200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7759,13 +7759,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>60325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7783,7 +7783,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1384300" y="9099550"/>
+          <a:off x="1384300" y="8585200"/>
           <a:ext cx="4848225" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7801,13 +7801,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>536575</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7825,7 +7825,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1384300" y="13042900"/>
+          <a:off x="1384300" y="12528550"/>
           <a:ext cx="4638675" cy="4648200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7843,13 +7843,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>274955</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7867,7 +7867,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1384300" y="18014950"/>
+          <a:off x="1384300" y="17500600"/>
           <a:ext cx="9863455" cy="3705225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7885,13 +7885,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7909,7 +7909,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="22301200"/>
+          <a:off x="1371600" y="21786850"/>
           <a:ext cx="3429000" cy="6038850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7927,13 +7927,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>650875</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>136525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7951,7 +7951,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6870700" y="13557250"/>
+          <a:off x="6870700" y="13042900"/>
           <a:ext cx="9553575" cy="1323975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7969,13 +7969,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>650875</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7993,7 +7993,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1384300" y="28816300"/>
+          <a:off x="1384300" y="28301950"/>
           <a:ext cx="2695575" cy="2733675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8011,13 +8011,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8035,7 +8035,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1384300" y="31902400"/>
+          <a:off x="1384300" y="31388050"/>
           <a:ext cx="5238750" cy="1533525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8053,13 +8053,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8077,7 +8077,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6870700" y="28816300"/>
+          <a:off x="6870700" y="28301950"/>
           <a:ext cx="3419475" cy="2457450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8095,13 +8095,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>422275</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8119,7 +8119,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6870700" y="31902400"/>
+          <a:off x="6870700" y="31388050"/>
           <a:ext cx="3152775" cy="3181350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8137,13 +8137,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8161,7 +8161,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6870700" y="35331400"/>
+          <a:off x="6870700" y="34817050"/>
           <a:ext cx="3162300" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8179,13 +8179,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8203,7 +8203,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1384300" y="33616900"/>
+          <a:off x="1384300" y="33102550"/>
           <a:ext cx="3086100" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8305,13 +8305,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8329,7 +8329,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5499100" y="24530050"/>
+          <a:off x="5499100" y="24015700"/>
           <a:ext cx="1495425" cy="2095500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9607,7 +9607,7 @@
   <dimension ref="B2:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9769,7 +9769,7 @@
   <sheetPr/>
   <dimension ref="B2:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
@@ -10044,10 +10044,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:L186"/>
+  <dimension ref="B2:L183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10382,64 +10382,64 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="1" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="60" spans="3:3">
-      <c r="C60" s="1" t="s">
+    <row r="57" spans="3:3">
+      <c r="C57" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="62" spans="3:3">
-      <c r="C62" s="7" t="s">
+    <row r="59" spans="3:3">
+      <c r="C59" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="1" t="s">
+    <row r="73" spans="2:2">
+      <c r="B73" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="79" spans="11:11">
-      <c r="K79" s="7" t="s">
+    <row r="76" spans="11:11">
+      <c r="K76" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="3:3">
-      <c r="C105" t="s">
+    <row r="102" spans="3:3">
+      <c r="C102" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
-      <c r="B129" t="s">
+    <row r="126" spans="2:2">
+      <c r="B126" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="130" spans="3:3">
-      <c r="C130" t="s">
+    <row r="127" spans="3:3">
+      <c r="C127" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="143" spans="9:9">
-      <c r="I143" t="s">
+    <row r="140" spans="9:9">
+      <c r="I140" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="168" spans="3:11">
-      <c r="C168" t="s">
+    <row r="165" spans="3:11">
+      <c r="C165" t="s">
         <v>205</v>
       </c>
-      <c r="K168" t="s">
+      <c r="K165" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="186" spans="3:11">
-      <c r="C186" t="s">
+    <row r="183" spans="3:11">
+      <c r="C183" t="s">
         <v>207</v>
       </c>
-      <c r="K186" t="s">
+      <c r="K183" t="s">
         <v>208</v>
       </c>
     </row>

--- a/造轮子.xlsx
+++ b/造轮子.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="221">
   <si>
     <t>github上选择Create new file</t>
   </si>
@@ -4114,6 +4114,9 @@
     <t>则不报错，测试通过。</t>
   </si>
   <si>
+    <t>x-wheels：必须vue项目才能用</t>
+  </si>
+  <si>
     <t>1.package.json</t>
   </si>
   <si>
@@ -5193,22 +5196,127 @@
     <t>6.在项目中使用</t>
   </si>
   <si>
-    <t>安装x-wheels</t>
+    <t>6.1.安装x-wheels</t>
   </si>
   <si>
     <t>node_modules\x-wheels，import时用的都是dist文件夹中的文件</t>
   </si>
   <si>
-    <t>引入全部</t>
-  </si>
-  <si>
-    <t>引入单个</t>
+    <t>6.2.引入全部</t>
+  </si>
+  <si>
+    <t>6.3.引入单个</t>
   </si>
   <si>
     <t>直接使用</t>
   </si>
   <si>
     <t>单个引入</t>
+  </si>
+  <si>
+    <r>
+      <t>7.测试</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>未发布</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的npm包</t>
+    </r>
+  </si>
+  <si>
+    <t>现在每次改一行代码，都需要改version，再执行npm publish，才能看到效果，缺少本地测试的步骤。</t>
+  </si>
+  <si>
+    <t>7.1.在x-wheels的根目录下执行(发布方)：</t>
+  </si>
+  <si>
+    <t>yarn link</t>
+  </si>
+  <si>
+    <r>
+      <t>或者</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>npm link</t>
+    </r>
+  </si>
+  <si>
+    <t>7.2.在本机的其他vue项目中执行(使用方)：</t>
+  </si>
+  <si>
+    <t>yarn link x-wheels</t>
+  </si>
+  <si>
+    <r>
+      <t>或者</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>npm link x-wheels</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>注：x-wheels为package.json的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>之后，按照 引入全部(6.2) 与 引入单个(6.3) 的步骤测试即可。</t>
+  </si>
+  <si>
+    <t>测试完成后，再修改version，执行npm publish。</t>
   </si>
 </sst>
 </file>
@@ -5223,6 +5331,14 @@
   </numFmts>
   <fonts count="45">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -5273,14 +5389,6 @@
       <color rgb="FF839496"/>
       <name val="Consolas"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -6087,16 +6195,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -6105,28 +6213,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -6135,7 +6243,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -6144,7 +6252,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
@@ -6168,25 +6276,25 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -7717,13 +7825,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7741,7 +7849,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1384300" y="10128250"/>
+          <a:off x="1384300" y="10471150"/>
           <a:ext cx="4419600" cy="1981200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7759,13 +7867,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>60325</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7783,7 +7891,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1384300" y="8585200"/>
+          <a:off x="1384300" y="8928100"/>
           <a:ext cx="4848225" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7801,13 +7909,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>536575</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7825,7 +7933,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1384300" y="12528550"/>
+          <a:off x="1384300" y="12871450"/>
           <a:ext cx="4638675" cy="4648200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7843,13 +7951,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>274955</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7867,7 +7975,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1384300" y="17500600"/>
+          <a:off x="1384300" y="17843500"/>
           <a:ext cx="9863455" cy="3705225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7885,13 +7993,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7909,7 +8017,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="21786850"/>
+          <a:off x="1371600" y="22129750"/>
           <a:ext cx="3429000" cy="6038850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7927,13 +8035,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>650875</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>136525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7951,7 +8059,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6870700" y="13042900"/>
+          <a:off x="6870700" y="13385800"/>
           <a:ext cx="9553575" cy="1323975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7969,13 +8077,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>650875</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7993,7 +8101,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1384300" y="28301950"/>
+          <a:off x="1384300" y="28644850"/>
           <a:ext cx="2695575" cy="2733675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8011,13 +8119,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8035,7 +8143,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1384300" y="31388050"/>
+          <a:off x="1384300" y="31730950"/>
           <a:ext cx="5238750" cy="1533525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8051,15 +8159,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8077,7 +8185,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6870700" y="28301950"/>
+          <a:off x="8242300" y="28644850"/>
           <a:ext cx="3419475" cy="2457450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8093,15 +8201,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>422275</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8119,7 +8227,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6870700" y="31388050"/>
+          <a:off x="8242300" y="31730950"/>
           <a:ext cx="3152775" cy="3181350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8135,15 +8243,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8161,7 +8269,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6870700" y="34817050"/>
+          <a:off x="8242300" y="35159950"/>
           <a:ext cx="3162300" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8179,13 +8287,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8203,7 +8311,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1384300" y="33102550"/>
+          <a:off x="1384300" y="33445450"/>
           <a:ext cx="3086100" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8221,13 +8329,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8245,7 +8353,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1384300" y="355600"/>
+          <a:off x="1384300" y="698500"/>
           <a:ext cx="4438650" cy="1285875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8263,13 +8371,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>631825</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8287,7 +8395,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1384300" y="7556500"/>
+          <a:off x="1384300" y="7899400"/>
           <a:ext cx="1304925" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8305,13 +8413,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8329,8 +8437,92 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5499100" y="24015700"/>
+          <a:off x="5499100" y="24358600"/>
           <a:ext cx="1495425" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>498475</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2070100" y="38760400"/>
+          <a:ext cx="3228975" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2070100" y="37045900"/>
+          <a:ext cx="8343900" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8689,7 +8881,7 @@
       <c r="B45" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8721,69 +8913,69 @@
       <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
@@ -8794,41 +8986,41 @@
       <c r="B12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
@@ -8839,117 +9031,117 @@
       <c r="B19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" t="s">
@@ -8960,7 +9152,7 @@
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8968,22 +9160,22 @@
       <c r="B35" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
@@ -8994,26 +9186,26 @@
       <c r="B40" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
     </row>
     <row r="44" s="26" customFormat="1"/>
     <row r="46" spans="2:2">
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9036,144 +9228,144 @@
       <c r="B52" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
       <c r="G52" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
     </row>
     <row r="53" spans="2:10">
       <c r="B53" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
       <c r="G53" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
       <c r="G54" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
       <c r="G56" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
       <c r="G57" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
     </row>
     <row r="58" spans="2:10">
       <c r="B58" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
       <c r="G58" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
     </row>
     <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
       <c r="G59" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
     </row>
     <row r="60" spans="2:10">
       <c r="B60" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3" t="s">
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4" t="s">
         <v>50</v>
       </c>
       <c r="G60" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
     </row>
     <row r="61" spans="7:10">
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
     </row>
     <row r="62" spans="7:10">
       <c r="G62" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
     </row>
     <row r="63" spans="7:10">
       <c r="G63" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
       <c r="J63" s="30" t="s">
         <v>53</v>
       </c>
@@ -9210,7 +9402,7 @@
         <v>55</v>
       </c>
       <c r="G73" s="32"/>
-      <c r="J73" s="7" t="s">
+      <c r="J73" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9221,7 +9413,7 @@
       <c r="C74" t="s">
         <v>57</v>
       </c>
-      <c r="J74" s="7" t="s">
+      <c r="J74" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9233,7 +9425,7 @@
         <v>59</v>
       </c>
       <c r="G75" s="31"/>
-      <c r="J75" s="7" t="s">
+      <c r="J75" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9298,12 +9490,12 @@
       </c>
     </row>
     <row r="167" spans="17:17">
-      <c r="Q167" s="7" t="s">
+      <c r="Q167" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="201" spans="17:17">
-      <c r="Q201" s="7" t="s">
+      <c r="Q201" s="8" t="s">
         <v>71</v>
       </c>
     </row>
@@ -9313,7 +9505,7 @@
       </c>
     </row>
     <row r="243" spans="7:7">
-      <c r="G243" s="10" t="s">
+      <c r="G243" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -9329,12 +9521,12 @@
       <c r="R245" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="S245" s="3"/>
-      <c r="T245" s="3"/>
-      <c r="U245" s="3"/>
-      <c r="V245" s="3"/>
-      <c r="W245" s="3"/>
-      <c r="X245" s="3"/>
+      <c r="S245" s="4"/>
+      <c r="T245" s="4"/>
+      <c r="U245" s="4"/>
+      <c r="V245" s="4"/>
+      <c r="W245" s="4"/>
+      <c r="X245" s="4"/>
     </row>
     <row r="252" spans="8:8">
       <c r="H252" t="s">
@@ -9347,7 +9539,7 @@
       </c>
     </row>
     <row r="280" spans="7:7">
-      <c r="G280" s="10" t="s">
+      <c r="G280" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -9355,25 +9547,25 @@
       <c r="P289" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q289" s="3"/>
-      <c r="R289" s="3"/>
-      <c r="S289" s="3"/>
+      <c r="Q289" s="4"/>
+      <c r="R289" s="4"/>
+      <c r="S289" s="4"/>
     </row>
     <row r="290" spans="16:19">
       <c r="P290" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q290" s="3"/>
-      <c r="R290" s="3"/>
-      <c r="S290" s="3"/>
+      <c r="Q290" s="4"/>
+      <c r="R290" s="4"/>
+      <c r="S290" s="4"/>
     </row>
     <row r="291" spans="16:19">
       <c r="P291" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q291" s="3"/>
-      <c r="R291" s="3"/>
-      <c r="S291" s="3"/>
+      <c r="Q291" s="4"/>
+      <c r="R291" s="4"/>
+      <c r="S291" s="4"/>
     </row>
     <row r="293" spans="16:16">
       <c r="P293" t="s">
@@ -9381,7 +9573,7 @@
       </c>
     </row>
     <row r="306" spans="2:2">
-      <c r="B306" s="1" t="s">
+      <c r="B306" s="2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -9389,102 +9581,102 @@
       <c r="B307" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C307" s="3"/>
-      <c r="D307" s="3"/>
-      <c r="E307" s="3"/>
-      <c r="F307" s="3"/>
-      <c r="G307" s="3"/>
+      <c r="C307" s="4"/>
+      <c r="D307" s="4"/>
+      <c r="E307" s="4"/>
+      <c r="F307" s="4"/>
+      <c r="G307" s="4"/>
     </row>
     <row r="308" spans="2:7">
       <c r="B308" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C308" s="3"/>
-      <c r="D308" s="3"/>
-      <c r="E308" s="3"/>
-      <c r="F308" s="3"/>
-      <c r="G308" s="3"/>
+      <c r="C308" s="4"/>
+      <c r="D308" s="4"/>
+      <c r="E308" s="4"/>
+      <c r="F308" s="4"/>
+      <c r="G308" s="4"/>
     </row>
     <row r="309" spans="2:7">
       <c r="B309" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C309" s="3"/>
-      <c r="D309" s="3"/>
-      <c r="E309" s="3"/>
-      <c r="F309" s="3"/>
-      <c r="G309" s="3"/>
+      <c r="C309" s="4"/>
+      <c r="D309" s="4"/>
+      <c r="E309" s="4"/>
+      <c r="F309" s="4"/>
+      <c r="G309" s="4"/>
     </row>
     <row r="310" spans="2:7">
       <c r="B310" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C310" s="3"/>
-      <c r="D310" s="3"/>
-      <c r="E310" s="3"/>
-      <c r="F310" s="3"/>
-      <c r="G310" s="3"/>
+      <c r="C310" s="4"/>
+      <c r="D310" s="4"/>
+      <c r="E310" s="4"/>
+      <c r="F310" s="4"/>
+      <c r="G310" s="4"/>
     </row>
     <row r="311" spans="2:7">
       <c r="B311" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C311" s="3"/>
-      <c r="D311" s="3"/>
-      <c r="E311" s="3"/>
-      <c r="F311" s="3"/>
-      <c r="G311" s="3"/>
+      <c r="C311" s="4"/>
+      <c r="D311" s="4"/>
+      <c r="E311" s="4"/>
+      <c r="F311" s="4"/>
+      <c r="G311" s="4"/>
     </row>
     <row r="312" spans="2:7">
       <c r="B312" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C312" s="3"/>
-      <c r="D312" s="3"/>
-      <c r="E312" s="3"/>
-      <c r="F312" s="3"/>
-      <c r="G312" s="3"/>
+      <c r="C312" s="4"/>
+      <c r="D312" s="4"/>
+      <c r="E312" s="4"/>
+      <c r="F312" s="4"/>
+      <c r="G312" s="4"/>
     </row>
     <row r="313" spans="2:7">
       <c r="B313" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C313" s="3"/>
-      <c r="D313" s="3"/>
-      <c r="E313" s="3"/>
-      <c r="F313" s="3"/>
-      <c r="G313" s="3"/>
+      <c r="C313" s="4"/>
+      <c r="D313" s="4"/>
+      <c r="E313" s="4"/>
+      <c r="F313" s="4"/>
+      <c r="G313" s="4"/>
     </row>
     <row r="314" spans="2:7">
       <c r="B314" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="C314" s="3"/>
-      <c r="D314" s="3"/>
-      <c r="E314" s="3"/>
-      <c r="F314" s="3"/>
-      <c r="G314" s="3"/>
+      <c r="C314" s="4"/>
+      <c r="D314" s="4"/>
+      <c r="E314" s="4"/>
+      <c r="F314" s="4"/>
+      <c r="G314" s="4"/>
     </row>
     <row r="315" spans="2:7">
       <c r="B315" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C315" s="3"/>
-      <c r="D315" s="3"/>
-      <c r="E315" s="3"/>
-      <c r="F315" s="3"/>
-      <c r="G315" s="3"/>
+      <c r="C315" s="4"/>
+      <c r="D315" s="4"/>
+      <c r="E315" s="4"/>
+      <c r="F315" s="4"/>
+      <c r="G315" s="4"/>
     </row>
     <row r="316" spans="2:9">
       <c r="B316" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C316" s="3"/>
-      <c r="D316" s="3"/>
-      <c r="E316" s="3"/>
-      <c r="F316" s="3"/>
-      <c r="G316" s="3"/>
-      <c r="I316" s="7" t="s">
+      <c r="C316" s="4"/>
+      <c r="D316" s="4"/>
+      <c r="E316" s="4"/>
+      <c r="F316" s="4"/>
+      <c r="G316" s="4"/>
+      <c r="I316" s="8" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9492,51 +9684,51 @@
       <c r="B317" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C317" s="3"/>
-      <c r="D317" s="3"/>
-      <c r="E317" s="3"/>
-      <c r="F317" s="3"/>
-      <c r="G317" s="3"/>
+      <c r="C317" s="4"/>
+      <c r="D317" s="4"/>
+      <c r="E317" s="4"/>
+      <c r="F317" s="4"/>
+      <c r="G317" s="4"/>
     </row>
     <row r="318" spans="2:7">
       <c r="B318" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C318" s="3"/>
-      <c r="D318" s="3"/>
-      <c r="E318" s="3"/>
-      <c r="F318" s="3"/>
-      <c r="G318" s="3"/>
+      <c r="C318" s="4"/>
+      <c r="D318" s="4"/>
+      <c r="E318" s="4"/>
+      <c r="F318" s="4"/>
+      <c r="G318" s="4"/>
     </row>
     <row r="319" spans="2:7">
       <c r="B319" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C319" s="3"/>
-      <c r="D319" s="3"/>
-      <c r="E319" s="3"/>
-      <c r="F319" s="3"/>
-      <c r="G319" s="3"/>
+      <c r="C319" s="4"/>
+      <c r="D319" s="4"/>
+      <c r="E319" s="4"/>
+      <c r="F319" s="4"/>
+      <c r="G319" s="4"/>
     </row>
     <row r="320" spans="2:7">
       <c r="B320" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C320" s="3"/>
-      <c r="D320" s="3"/>
-      <c r="E320" s="3"/>
-      <c r="F320" s="3"/>
-      <c r="G320" s="3"/>
+      <c r="C320" s="4"/>
+      <c r="D320" s="4"/>
+      <c r="E320" s="4"/>
+      <c r="F320" s="4"/>
+      <c r="G320" s="4"/>
     </row>
     <row r="321" spans="2:7">
       <c r="B321" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C321" s="3"/>
-      <c r="D321" s="3"/>
-      <c r="E321" s="3"/>
-      <c r="F321" s="3"/>
-      <c r="G321" s="3"/>
+      <c r="C321" s="4"/>
+      <c r="D321" s="4"/>
+      <c r="E321" s="4"/>
+      <c r="F321" s="4"/>
+      <c r="G321" s="4"/>
     </row>
     <row r="329" spans="2:2">
       <c r="B329" t="s">
@@ -9557,7 +9749,7 @@
       <c r="B338" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C338" s="3"/>
+      <c r="C338" s="4"/>
     </row>
     <row r="340" spans="2:2">
       <c r="B340" t="s">
@@ -9568,20 +9760,20 @@
       <c r="B341" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C341" s="3"/>
-      <c r="D341" s="3"/>
-      <c r="E341" s="3"/>
-      <c r="F341" s="3"/>
+      <c r="C341" s="4"/>
+      <c r="D341" s="4"/>
+      <c r="E341" s="4"/>
+      <c r="F341" s="4"/>
     </row>
     <row r="342" spans="2:8">
       <c r="B342" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C342" s="3"/>
-      <c r="D342" s="3"/>
-      <c r="E342" s="3"/>
-      <c r="F342" s="3"/>
-      <c r="H342" s="7" t="s">
+      <c r="C342" s="4"/>
+      <c r="D342" s="4"/>
+      <c r="E342" s="4"/>
+      <c r="F342" s="4"/>
+      <c r="H342" s="8" t="s">
         <v>106</v>
       </c>
     </row>
@@ -9589,10 +9781,10 @@
       <c r="B343" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C343" s="3"/>
-      <c r="D343" s="3"/>
-      <c r="E343" s="3"/>
-      <c r="F343" s="3"/>
+      <c r="C343" s="4"/>
+      <c r="D343" s="4"/>
+      <c r="E343" s="4"/>
+      <c r="F343" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9613,7 +9805,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>107</v>
       </c>
       <c r="K2" t="s">
@@ -9624,39 +9816,39 @@
       <c r="B4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="12"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
@@ -9672,25 +9864,25 @@
       <c r="B20" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="G22" s="25" t="s">
         <v>116</v>
       </c>
@@ -9699,18 +9891,18 @@
       <c r="B23" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
       <c r="G23" s="25"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
       <c r="G24" s="25" t="s">
         <v>119</v>
       </c>
@@ -9719,18 +9911,18 @@
       <c r="B25" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="G26" s="7" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="G26" s="8" t="s">
         <v>121</v>
       </c>
     </row>
@@ -9738,19 +9930,19 @@
       <c r="B27" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
       <c r="G27" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
@@ -9776,7 +9968,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C2" t="s">
@@ -9790,7 +9982,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C3" t="s">
@@ -9801,7 +9993,7 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C4" t="s">
@@ -9835,134 +10027,134 @@
       <c r="C13" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="3:7">
       <c r="C14" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="3:7">
       <c r="C15" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="3:7">
       <c r="C16" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="3:7">
       <c r="C17" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="3:7">
       <c r="C18" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="3:7">
       <c r="C19" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="3:7">
       <c r="C20" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="3:7">
       <c r="C21" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="3:7">
       <c r="C22" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="3:7">
       <c r="C23" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="3:7">
       <c r="C24" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="3:7">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="3:7">
       <c r="C26" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" ht="14.25" spans="3:7">
       <c r="C27" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="3:7">
       <c r="C28" s="17" t="s">
@@ -9977,9 +10169,9 @@
       <c r="C29" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
       <c r="G29" s="21"/>
     </row>
     <row r="30" ht="14.25" spans="3:7">
@@ -9995,10 +10187,10 @@
       <c r="C31" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
@@ -10014,8 +10206,8 @@
       <c r="D44" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
@@ -10026,8 +10218,8 @@
       <c r="D46" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
@@ -10044,403 +10236,460 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:L183"/>
+  <dimension ref="B2:M235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="I198" sqref="I198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="10:10">
-      <c r="J9" s="8" t="s">
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
+    <row r="11" spans="10:10">
+      <c r="J11" s="9" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="1" t="s">
+    <row r="16" spans="3:3">
+      <c r="C16" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="17" spans="3:3">
+      <c r="C17" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="3:10">
-      <c r="C18" s="2" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="J18" t="s">
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="19" spans="3:12">
-      <c r="C19" s="2" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="J20" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="J19" s="6" t="s">
+    </row>
+    <row r="21" spans="3:12">
+      <c r="C21" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="J20" s="9" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="J21" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12">
-      <c r="C21" s="2" t="s">
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="3:12">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="J22" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="J21" s="9" t="s">
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="3:12">
+      <c r="C23" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12">
-      <c r="C22" s="2" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="J23" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="J22" s="9" t="s">
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="3:12">
+      <c r="C24" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12">
-      <c r="C23" s="2" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="J24" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="J23" s="9" t="s">
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="3:12">
+      <c r="C25" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="J24" s="9" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="J25" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12">
-      <c r="C25" s="4" t="s">
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="3:12">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="J26" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="J25" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12">
-      <c r="C26" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="J26" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
     </row>
     <row r="27" spans="3:12">
       <c r="C27" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="J27" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="3:12">
+      <c r="C28" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="J28" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="J27" s="9" t="s">
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="3:12">
+      <c r="C29" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12">
-      <c r="C28" s="4" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="J29" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="J28" s="6" t="s">
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="3:12">
+      <c r="C30" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="J30" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:8">
-      <c r="C29" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="3:8">
-      <c r="C30" s="6" t="s">
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="C31" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="3:8">
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="3:8">
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="C34" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="3:8">
-      <c r="C33" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="3:8">
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="3:8">
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="3:8">
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="3:8">
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="3:8">
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="3:8">
+      <c r="C39" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="3:8">
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="3:8">
+      <c r="C40" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="3:8">
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="3:8">
+      <c r="C41" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="3:8">
-      <c r="C41" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="3:8">
+      <c r="C42" s="7" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="44" spans="3:3">
-      <c r="C44" t="s">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="3:8">
+      <c r="C43" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="1" t="s">
+    <row r="46" spans="3:3">
+      <c r="C46" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="57" spans="3:3">
-      <c r="C57" s="1" t="s">
+    <row r="52" spans="2:2">
+      <c r="B52" s="2" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="59" spans="3:3">
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="1" t="s">
+    <row r="61" spans="3:3">
+      <c r="C61" s="8" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="76" spans="11:11">
-      <c r="K76" s="7" t="s">
+    <row r="75" spans="2:2">
+      <c r="B75" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:3">
-      <c r="C102" t="s">
+    <row r="78" spans="11:11">
+      <c r="K78" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
-      <c r="B126" t="s">
+    <row r="104" spans="3:3">
+      <c r="C104" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="127" spans="3:3">
-      <c r="C127" t="s">
+    <row r="128" spans="2:2">
+      <c r="B128" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="140" spans="9:9">
-      <c r="I140" t="s">
+    <row r="129" spans="3:3">
+      <c r="C129" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="165" spans="3:11">
-      <c r="C165" t="s">
+    <row r="142" spans="9:9">
+      <c r="I142" t="s">
         <v>205</v>
       </c>
-      <c r="K165" t="s">
+    </row>
+    <row r="167" spans="3:13">
+      <c r="C167" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="183" spans="3:11">
-      <c r="C183" t="s">
+      <c r="M167" t="s">
         <v>207</v>
       </c>
-      <c r="K183" t="s">
+    </row>
+    <row r="185" spans="3:13">
+      <c r="C185" t="s">
         <v>208</v>
+      </c>
+      <c r="M185" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3">
+      <c r="C212" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3">
+      <c r="C214" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="4:7">
+      <c r="D215" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="4:4">
+      <c r="D216" s="1"/>
+    </row>
+    <row r="224" spans="3:3">
+      <c r="C224" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="225" spans="4:11">
+      <c r="D225" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K225" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="233" spans="4:4">
+      <c r="D233" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="235" spans="4:4">
+      <c r="D235" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/造轮子.xlsx
+++ b/造轮子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="创建许可证文件" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="Vue.extend()函数" sheetId="6" r:id="rId4"/>
     <sheet name="单元测试" sheetId="5" r:id="rId5"/>
     <sheet name="发布npm包" sheetId="7" r:id="rId6"/>
+    <sheet name="README.md书写" sheetId="8" r:id="rId7"/>
+    <sheet name="npm install -g git-open" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="220">
   <si>
     <t>github上选择Create new file</t>
   </si>
@@ -2859,27 +2861,34 @@
   </si>
   <si>
     <r>
-      <t>注：如果向插槽中插入</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <rPr>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>html</t>
-    </r>
-    <r>
-      <rPr>
+      <t>注：如果向插槽中插入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>元素，则：</t>
     </r>
   </si>
@@ -4121,6 +4130,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这里用的是</t>
     </r>
     <r>
@@ -4156,6 +4172,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>build-npm：以index.js文件为入口的</t>
     </r>
     <r>
@@ -4185,6 +4208,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">import </t>
     </r>
     <r>
@@ -4229,6 +4259,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">import </t>
     </r>
     <r>
@@ -4270,9 +4307,6 @@
   </si>
   <si>
     <r>
-      <t>:</t>
-    </r>
-    <r>
       <rPr>
         <b/>
         <sz val="9"/>
@@ -4280,20 +4314,54 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">root </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF586E75"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">XButton </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'./src/x-button'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    </t>
     </r>
     <r>
@@ -4303,7 +4371,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>--font-size</t>
+      <t>--button-height</t>
     </r>
     <r>
       <rPr>
@@ -4321,7 +4389,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>14</t>
+      <t>32</t>
     </r>
     <r>
       <rPr>
@@ -4344,6 +4412,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">import </t>
     </r>
     <r>
@@ -4353,7 +4428,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">XButton </t>
+      <t xml:space="preserve">XButtonGroup </t>
     </r>
     <r>
       <rPr>
@@ -4372,7 +4447,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>'./src/x-button'</t>
+      <t>'./src/x-button-group'</t>
     </r>
     <r>
       <rPr>
@@ -4386,6 +4461,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    </t>
     </r>
     <r>
@@ -4395,7 +4476,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>--button-height</t>
+      <t>--button-bg</t>
     </r>
     <r>
       <rPr>
@@ -4409,11 +4490,155 @@
     <r>
       <rPr>
         <sz val="9"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>white</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">XIcon </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'./src/x-icon'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--button-active-bg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>#eee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--border-radius</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
         <color rgb="FF6C71C4"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>32</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -4436,223 +4661,12 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">import </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF586E75"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">XButtonGroup </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFD33682"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">from </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFDC322F"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'./src/x-button-group'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF586E75"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF839496"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>--button-bg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF586E75"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF010101"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>white</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF586E75"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">import </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF586E75"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">XIcon </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFD33682"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">from </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFDC322F"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'./src/x-icon'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF586E75"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF839496"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>--button-active-bg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF586E75"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF010101"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>#eee</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF586E75"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF839496"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>--border-radius</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF586E75"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF6C71C4"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFDC322F"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>px</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF586E75"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>// Vue</t>
     </r>
     <r>
@@ -4667,6 +4681,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    </t>
     </r>
     <r>
@@ -4709,6 +4729,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">const </t>
     </r>
     <r>
@@ -4734,6 +4761,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    </t>
     </r>
     <r>
@@ -4776,6 +4809,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A43"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    </t>
     </r>
     <r>
@@ -4818,6 +4857,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    </t>
     </r>
     <r>
@@ -4860,6 +4905,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">        </t>
     </r>
     <r>
@@ -4883,6 +4934,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">        </t>
     </r>
     <r>
@@ -4933,6 +4990,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">        Vue.</t>
     </r>
     <r>
@@ -4974,6 +5037,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">        Vue.</t>
     </r>
     <r>
@@ -5018,6 +5087,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">export default </t>
     </r>
     <r>
@@ -5043,6 +5119,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">export </t>
     </r>
     <r>
@@ -5072,6 +5155,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">4.命令行执行 </t>
     </r>
     <r>
@@ -5088,6 +5178,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">输入 </t>
     </r>
     <r>
@@ -5149,6 +5246,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">5.命令行执行 </t>
     </r>
     <r>
@@ -5165,27 +5269,34 @@
   </si>
   <si>
     <r>
-      <t>注：每次修改源码，发送npm包时，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <rPr>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>必须</t>
-    </r>
-    <r>
-      <rPr>
+      <t>注：每次修改源码，发送npm包时，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>必须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>更改version，否则报错。</t>
     </r>
   </si>
@@ -5215,6 +5326,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>7.测试</t>
     </r>
     <r>
@@ -5250,6 +5368,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>或者</t>
     </r>
     <r>
@@ -5272,6 +5397,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>或者</t>
     </r>
     <r>
@@ -5288,27 +5420,34 @@
   </si>
   <si>
     <r>
-      <t>注：x-wheels为package.json的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <rPr>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>name属性</t>
-    </r>
-    <r>
-      <rPr>
+      <t>注：x-wheels为package.json的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>name属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>。</t>
     </r>
   </si>
@@ -5317,6 +5456,32 @@
   </si>
   <si>
     <t>测试完成后，再修改version，执行npm publish。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">执行 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">git open </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可以直接打开github上的项目连接</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5324,10 +5489,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -5446,6 +5611,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -5453,9 +5633,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5468,26 +5647,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5523,30 +5687,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5569,6 +5710,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -5576,8 +5725,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5670,19 +5835,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5694,19 +5871,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5724,7 +5901,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5736,55 +5943,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5802,13 +5961,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5820,37 +6009,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5945,6 +6110,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -5978,6 +6158,24 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -6000,44 +6198,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6049,10 +6214,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6061,16 +6226,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6079,126 +6244,126 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -6226,15 +6391,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -6276,9 +6432,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -6292,9 +6445,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -8538,6 +8688,53 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>433705</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="355600"/>
+          <a:ext cx="12079605" cy="6096635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -8862,7 +9059,7 @@
   <dimension ref="B2:D45"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8910,7 +9107,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4"/>
@@ -8928,7 +9125,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4"/>
@@ -8938,7 +9135,7 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4"/>
@@ -8948,7 +9145,7 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4"/>
@@ -8958,7 +9155,7 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="4"/>
@@ -8968,7 +9165,7 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4"/>
@@ -8983,7 +9180,7 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="4"/>
@@ -8991,7 +9188,7 @@
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="4"/>
@@ -8999,7 +9196,7 @@
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="4"/>
@@ -9007,7 +9204,7 @@
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="4"/>
@@ -9015,7 +9212,7 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="4"/>
@@ -9028,7 +9225,7 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="4"/>
@@ -9038,7 +9235,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="4"/>
@@ -9048,7 +9245,7 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="4"/>
@@ -9066,7 +9263,7 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="4"/>
@@ -9076,7 +9273,7 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="4"/>
@@ -9094,7 +9291,7 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="4"/>
@@ -9104,7 +9301,7 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="4"/>
@@ -9114,7 +9311,7 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="4"/>
@@ -9124,7 +9321,7 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="4"/>
@@ -9134,7 +9331,7 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="4"/>
@@ -9152,26 +9349,26 @@
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C37" s="4"/>
@@ -9183,29 +9380,29 @@
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="44" s="26" customFormat="1"/>
+    <row r="44" s="23" customFormat="1"/>
     <row r="46" spans="2:2">
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9225,13 +9422,13 @@
       </c>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H52" s="4"/>
@@ -9239,13 +9436,13 @@
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="G53" s="13" t="s">
+      <c r="G53" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H53" s="4"/>
@@ -9257,7 +9454,7 @@
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="G54" s="13" t="s">
+      <c r="G54" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H54" s="4"/>
@@ -9265,7 +9462,7 @@
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C55" s="4"/>
@@ -9277,13 +9474,13 @@
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H56" s="4"/>
@@ -9295,7 +9492,7 @@
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="G57" s="12" t="s">
+      <c r="G57" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H57" s="4"/>
@@ -9303,13 +9500,13 @@
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="G58" s="15" t="s">
+      <c r="G58" s="12" t="s">
         <v>47</v>
       </c>
       <c r="H58" s="4"/>
@@ -9317,13 +9514,13 @@
       <c r="J58" s="4"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="G59" s="13" t="s">
+      <c r="G59" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H59" s="4"/>
@@ -9331,7 +9528,7 @@
       <c r="J59" s="4"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C60" s="4"/>
@@ -9339,7 +9536,7 @@
       <c r="E60" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G60" s="13" t="s">
+      <c r="G60" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H60" s="4"/>
@@ -9353,7 +9550,7 @@
       <c r="J61" s="4"/>
     </row>
     <row r="62" spans="7:10">
-      <c r="G62" s="13" t="s">
+      <c r="G62" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H62" s="4"/>
@@ -9361,12 +9558,12 @@
       <c r="J62" s="4"/>
     </row>
     <row r="63" spans="7:10">
-      <c r="G63" s="13" t="s">
+      <c r="G63" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
-      <c r="J63" s="30" t="s">
+      <c r="J63" s="26" t="s">
         <v>53</v>
       </c>
     </row>
@@ -9374,34 +9571,34 @@
       <c r="B64" t="s">
         <v>54</v>
       </c>
-      <c r="G64" s="29"/>
+      <c r="G64" s="25"/>
     </row>
     <row r="65" spans="7:7">
-      <c r="G65" s="29"/>
+      <c r="G65" s="25"/>
     </row>
     <row r="66" spans="7:7">
-      <c r="G66" s="29"/>
+      <c r="G66" s="25"/>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="29"/>
+      <c r="G67" s="25"/>
     </row>
     <row r="68" spans="7:7">
-      <c r="G68" s="29"/>
+      <c r="G68" s="25"/>
     </row>
     <row r="69" spans="7:7">
-      <c r="G69" s="29"/>
+      <c r="G69" s="25"/>
     </row>
     <row r="71" spans="7:7">
-      <c r="G71" s="31"/>
+      <c r="G71" s="27"/>
     </row>
     <row r="72" spans="7:7">
-      <c r="G72" s="29"/>
+      <c r="G72" s="25"/>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" t="s">
         <v>55</v>
       </c>
-      <c r="G73" s="32"/>
+      <c r="G73" s="28"/>
       <c r="J73" s="8" t="s">
         <v>56</v>
       </c>
@@ -9424,7 +9621,7 @@
       <c r="C75" t="s">
         <v>59</v>
       </c>
-      <c r="G75" s="31"/>
+      <c r="G75" s="27"/>
       <c r="J75" s="8" t="s">
         <v>60</v>
       </c>
@@ -9436,25 +9633,25 @@
       <c r="C76" t="s">
         <v>61</v>
       </c>
-      <c r="G76" s="29"/>
+      <c r="G76" s="25"/>
     </row>
     <row r="77" spans="7:7">
-      <c r="G77" s="32"/>
+      <c r="G77" s="28"/>
     </row>
     <row r="79" spans="7:7">
-      <c r="G79" s="31"/>
+      <c r="G79" s="27"/>
     </row>
     <row r="80" spans="7:7">
-      <c r="G80" s="29"/>
+      <c r="G80" s="25"/>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" t="s">
         <v>62</v>
       </c>
-      <c r="G81" s="32"/>
+      <c r="G81" s="28"/>
     </row>
     <row r="82" spans="7:7">
-      <c r="G82" s="32"/>
+      <c r="G82" s="28"/>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
@@ -9500,12 +9697,12 @@
       </c>
     </row>
     <row r="211" spans="17:17">
-      <c r="Q211" s="25" t="s">
+      <c r="Q211" s="22" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="243" spans="7:7">
-      <c r="G243" s="1" t="s">
+      <c r="G243" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -9518,7 +9715,7 @@
       </c>
     </row>
     <row r="245" spans="18:24">
-      <c r="R245" s="13" t="s">
+      <c r="R245" s="7" t="s">
         <v>76</v>
       </c>
       <c r="S245" s="4"/>
@@ -9539,12 +9736,12 @@
       </c>
     </row>
     <row r="280" spans="7:7">
-      <c r="G280" s="1" t="s">
+      <c r="G280" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="289" spans="16:19">
-      <c r="P289" s="13" t="s">
+      <c r="P289" s="7" t="s">
         <v>80</v>
       </c>
       <c r="Q289" s="4"/>
@@ -9552,7 +9749,7 @@
       <c r="S289" s="4"/>
     </row>
     <row r="290" spans="16:19">
-      <c r="P290" s="13" t="s">
+      <c r="P290" s="7" t="s">
         <v>81</v>
       </c>
       <c r="Q290" s="4"/>
@@ -9560,7 +9757,7 @@
       <c r="S290" s="4"/>
     </row>
     <row r="291" spans="16:19">
-      <c r="P291" s="13" t="s">
+      <c r="P291" s="7" t="s">
         <v>82</v>
       </c>
       <c r="Q291" s="4"/>
@@ -9573,12 +9770,12 @@
       </c>
     </row>
     <row r="306" spans="2:2">
-      <c r="B306" s="2" t="s">
+      <c r="B306" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="307" spans="2:7">
-      <c r="B307" s="15" t="s">
+      <c r="B307" s="12" t="s">
         <v>85</v>
       </c>
       <c r="C307" s="4"/>
@@ -9588,7 +9785,7 @@
       <c r="G307" s="4"/>
     </row>
     <row r="308" spans="2:7">
-      <c r="B308" s="15" t="s">
+      <c r="B308" s="12" t="s">
         <v>86</v>
       </c>
       <c r="C308" s="4"/>
@@ -9598,7 +9795,7 @@
       <c r="G308" s="4"/>
     </row>
     <row r="309" spans="2:7">
-      <c r="B309" s="15" t="s">
+      <c r="B309" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C309" s="4"/>
@@ -9608,7 +9805,7 @@
       <c r="G309" s="4"/>
     </row>
     <row r="310" spans="2:7">
-      <c r="B310" s="33" t="s">
+      <c r="B310" s="29" t="s">
         <v>88</v>
       </c>
       <c r="C310" s="4"/>
@@ -9618,7 +9815,7 @@
       <c r="G310" s="4"/>
     </row>
     <row r="311" spans="2:7">
-      <c r="B311" s="13" t="s">
+      <c r="B311" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C311" s="4"/>
@@ -9628,7 +9825,7 @@
       <c r="G311" s="4"/>
     </row>
     <row r="312" spans="2:7">
-      <c r="B312" s="15" t="s">
+      <c r="B312" s="12" t="s">
         <v>90</v>
       </c>
       <c r="C312" s="4"/>
@@ -9638,7 +9835,7 @@
       <c r="G312" s="4"/>
     </row>
     <row r="313" spans="2:7">
-      <c r="B313" s="15" t="s">
+      <c r="B313" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C313" s="4"/>
@@ -9648,7 +9845,7 @@
       <c r="G313" s="4"/>
     </row>
     <row r="314" spans="2:7">
-      <c r="B314" s="33" t="s">
+      <c r="B314" s="29" t="s">
         <v>91</v>
       </c>
       <c r="C314" s="4"/>
@@ -9658,7 +9855,7 @@
       <c r="G314" s="4"/>
     </row>
     <row r="315" spans="2:7">
-      <c r="B315" s="14" t="s">
+      <c r="B315" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C315" s="4"/>
@@ -9668,7 +9865,7 @@
       <c r="G315" s="4"/>
     </row>
     <row r="316" spans="2:9">
-      <c r="B316" s="34" t="s">
+      <c r="B316" s="6" t="s">
         <v>93</v>
       </c>
       <c r="C316" s="4"/>
@@ -9681,7 +9878,7 @@
       </c>
     </row>
     <row r="317" spans="2:7">
-      <c r="B317" s="14" t="s">
+      <c r="B317" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C317" s="4"/>
@@ -9691,7 +9888,7 @@
       <c r="G317" s="4"/>
     </row>
     <row r="318" spans="2:7">
-      <c r="B318" s="12" t="s">
+      <c r="B318" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C318" s="4"/>
@@ -9701,7 +9898,7 @@
       <c r="G318" s="4"/>
     </row>
     <row r="319" spans="2:7">
-      <c r="B319" s="13" t="s">
+      <c r="B319" s="7" t="s">
         <v>97</v>
       </c>
       <c r="C319" s="4"/>
@@ -9711,7 +9908,7 @@
       <c r="G319" s="4"/>
     </row>
     <row r="320" spans="2:7">
-      <c r="B320" s="13" t="s">
+      <c r="B320" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C320" s="4"/>
@@ -9721,7 +9918,7 @@
       <c r="G320" s="4"/>
     </row>
     <row r="321" spans="2:7">
-      <c r="B321" s="13" t="s">
+      <c r="B321" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C321" s="4"/>
@@ -9746,7 +9943,7 @@
       </c>
     </row>
     <row r="338" spans="2:3">
-      <c r="B338" s="28" t="s">
+      <c r="B338" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C338" s="4"/>
@@ -9757,7 +9954,7 @@
       </c>
     </row>
     <row r="341" spans="2:6">
-      <c r="B341" s="34" t="s">
+      <c r="B341" s="6" t="s">
         <v>104</v>
       </c>
       <c r="C341" s="4"/>
@@ -9766,7 +9963,7 @@
       <c r="F341" s="4"/>
     </row>
     <row r="342" spans="2:8">
-      <c r="B342" s="35" t="s">
+      <c r="B342" s="30" t="s">
         <v>105</v>
       </c>
       <c r="C342" s="4"/>
@@ -9778,7 +9975,7 @@
       </c>
     </row>
     <row r="343" spans="2:6">
-      <c r="B343" s="13" t="s">
+      <c r="B343" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C343" s="4"/>
@@ -9805,7 +10002,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>107</v>
       </c>
       <c r="K2" t="s">
@@ -9813,7 +10010,7 @@
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="4"/>
@@ -9821,13 +10018,13 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="12"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C6" s="4"/>
@@ -9835,7 +10032,7 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C7" s="4"/>
@@ -9843,7 +10040,7 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="4"/>
@@ -9861,7 +10058,7 @@
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C20" s="4"/>
@@ -9869,7 +10066,7 @@
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C21" s="4"/>
@@ -9877,38 +10074,38 @@
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="12" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="22" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="12" t="s">
         <v>117</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="G23" s="25"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="7" t="s">
         <v>118</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="22" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="4"/>
@@ -9916,7 +10113,7 @@
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="13" t="s">
         <v>120</v>
       </c>
       <c r="C26" s="4"/>
@@ -9927,13 +10124,13 @@
       </c>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="13" t="s">
         <v>111</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="13" t="s">
         <v>122</v>
       </c>
       <c r="H27" s="4"/>
@@ -9968,7 +10165,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C2" t="s">
@@ -9982,7 +10179,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C3" t="s">
@@ -9993,7 +10190,7 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C4" t="s">
@@ -10024,7 +10221,7 @@
       </c>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D13" s="4"/>
@@ -10033,7 +10230,7 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="3" t="s">
         <v>137</v>
       </c>
       <c r="D14" s="4"/>
@@ -10042,7 +10239,7 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="7" t="s">
         <v>138</v>
       </c>
       <c r="D15" s="4"/>
@@ -10051,7 +10248,7 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="5" t="s">
         <v>139</v>
       </c>
       <c r="D16" s="4"/>
@@ -10060,7 +10257,7 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D17" s="4"/>
@@ -10069,7 +10266,7 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="3" t="s">
         <v>141</v>
       </c>
       <c r="D18" s="4"/>
@@ -10078,7 +10275,7 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="12" t="s">
         <v>142</v>
       </c>
       <c r="D19" s="4"/>
@@ -10087,7 +10284,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="12" t="s">
         <v>143</v>
       </c>
       <c r="D20" s="4"/>
@@ -10096,7 +10293,7 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="3:7">
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="7" t="s">
         <v>144</v>
       </c>
       <c r="D21" s="4"/>
@@ -10105,7 +10302,7 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="7" t="s">
         <v>145</v>
       </c>
       <c r="D22" s="4"/>
@@ -10114,7 +10311,7 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="3:7">
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="13" t="s">
         <v>146</v>
       </c>
       <c r="D23" s="4"/>
@@ -10123,7 +10320,7 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="3:7">
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="13" t="s">
         <v>147</v>
       </c>
       <c r="D24" s="4"/>
@@ -10139,7 +10336,7 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="3:7">
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="3" t="s">
         <v>148</v>
       </c>
       <c r="D26" s="4"/>
@@ -10148,7 +10345,7 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" ht="14.25" spans="3:7">
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="3" t="s">
         <v>149</v>
       </c>
       <c r="D27" s="4"/>
@@ -10157,34 +10354,34 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="3:7">
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="3:7">
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="17" t="s">
         <v>151</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="21"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" ht="14.25" spans="3:7">
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
     </row>
     <row r="31" spans="3:7">
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="4"/>
@@ -10203,7 +10400,7 @@
       </c>
     </row>
     <row r="44" spans="4:6">
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="13" t="s">
         <v>155</v>
       </c>
       <c r="E44" s="4"/>
@@ -10215,7 +10412,7 @@
       </c>
     </row>
     <row r="46" spans="4:6">
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="13" t="s">
         <v>157</v>
       </c>
       <c r="E46" s="4"/>
@@ -10238,14 +10435,14 @@
   <sheetPr/>
   <dimension ref="B2:M235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="I198" sqref="I198"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>159</v>
       </c>
     </row>
@@ -10275,7 +10472,7 @@
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>165</v>
       </c>
     </row>
@@ -10307,7 +10504,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="J21" s="7" t="s">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -10320,14 +10517,14 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="J22" s="10" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="3:12">
       <c r="C23" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -10335,14 +10532,14 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="J23" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="3:12">
       <c r="C24" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -10350,14 +10547,14 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="J24" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="3:12">
       <c r="C25" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -10365,7 +10562,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="J25" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -10378,14 +10575,14 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="J26" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="3:12">
       <c r="C27" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -10393,14 +10590,14 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="J27" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="3:12">
       <c r="C28" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -10408,14 +10605,14 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="J28" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="3:12">
       <c r="C29" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -10423,14 +10620,14 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="J29" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="3:12">
       <c r="C30" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -10445,7 +10642,7 @@
     </row>
     <row r="31" spans="3:8">
       <c r="C31" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -10455,7 +10652,7 @@
     </row>
     <row r="32" spans="3:8">
       <c r="C32" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -10465,7 +10662,7 @@
     </row>
     <row r="33" spans="3:8">
       <c r="C33" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -10485,7 +10682,7 @@
     </row>
     <row r="35" spans="3:8">
       <c r="C35" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -10503,7 +10700,7 @@
     </row>
     <row r="37" spans="3:8">
       <c r="C37" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -10521,7 +10718,7 @@
     </row>
     <row r="39" spans="3:8">
       <c r="C39" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -10531,7 +10728,7 @@
     </row>
     <row r="40" spans="3:8">
       <c r="C40" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -10541,7 +10738,7 @@
     </row>
     <row r="41" spans="3:8">
       <c r="C41" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -10551,7 +10748,7 @@
     </row>
     <row r="42" spans="3:8">
       <c r="C42" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -10561,7 +10758,7 @@
     </row>
     <row r="43" spans="3:8">
       <c r="C43" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -10571,125 +10768,164 @@
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="1" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3">
-      <c r="C59" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="2" t="s">
-        <v>200</v>
+      <c r="B75" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="78" spans="11:11">
       <c r="K78" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="129" spans="3:3">
       <c r="C129" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="142" spans="9:9">
       <c r="I142" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="167" spans="3:13">
       <c r="C167" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M167" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="185" spans="3:13">
       <c r="C185" t="s">
+        <v>206</v>
+      </c>
+      <c r="M185" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="M185" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211" spans="2:2">
-      <c r="B211" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="212" spans="3:3">
       <c r="C212" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="214" spans="3:3">
       <c r="C214" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="215" spans="4:7">
+      <c r="D215" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G215" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="4:7">
-      <c r="D215" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
     <row r="216" spans="4:4">
-      <c r="D216" s="1"/>
+      <c r="D216" s="2"/>
     </row>
     <row r="224" spans="3:3">
       <c r="C224" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="225" spans="4:11">
+      <c r="D225" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G225" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="225" spans="4:11">
-      <c r="D225" s="1" t="s">
+      <c r="K225" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="K225" s="8" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="233" spans="4:4">
       <c r="D233" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="235" spans="4:4">
       <c r="D235" t="s">
-        <v>220</v>
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/造轮子.xlsx
+++ b/造轮子.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="7"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="创建许可证文件" sheetId="1" r:id="rId1"/>
     <sheet name="初始化node项目" sheetId="3" r:id="rId2"/>
-    <sheet name="x-button" sheetId="4" r:id="rId3"/>
-    <sheet name="Vue.extend()函数" sheetId="6" r:id="rId4"/>
-    <sheet name="单元测试" sheetId="5" r:id="rId5"/>
-    <sheet name="发布npm包" sheetId="7" r:id="rId6"/>
-    <sheet name="README.md书写" sheetId="8" r:id="rId7"/>
-    <sheet name="npm install -g git-open" sheetId="9" r:id="rId8"/>
+    <sheet name="引入图标库" sheetId="10" r:id="rId3"/>
+    <sheet name="parcel打包工具" sheetId="4" r:id="rId4"/>
+    <sheet name="Vue.extend()函数" sheetId="6" r:id="rId5"/>
+    <sheet name="单元测试" sheetId="5" r:id="rId6"/>
+    <sheet name="发布npm包" sheetId="7" r:id="rId7"/>
+    <sheet name="README.md书写" sheetId="8" r:id="rId8"/>
+    <sheet name="npm install -g git-open" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -44,6 +45,328 @@
     <t>注：从npm v6开始，默认--save</t>
   </si>
   <si>
+    <t>1.下载图标</t>
+  </si>
+  <si>
+    <t>https://www.iconfont.cn</t>
+  </si>
+  <si>
+    <t>选择好图标后，点击购物车</t>
+  </si>
+  <si>
+    <t>点击添加至项目，新建项目，添加项目名称，确定</t>
+  </si>
+  <si>
+    <t>将图标"左"通过编辑图标，旋转后保存为副本，即可生成"右"</t>
+  </si>
+  <si>
+    <t>图标的名称会变成 x-good</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">点击 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>批量操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全选</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>批量去色</t>
+    </r>
+  </si>
+  <si>
+    <t>代码中引入</t>
+  </si>
+  <si>
+    <t>将复制的连接放到搜索栏中，复制下方的代码</t>
+  </si>
+  <si>
+    <t>或者直接引入</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">script </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>src</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>="//at.alicdn.com/t/font_2291729_lob12za91fh.js"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>script</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>在src中创建icon.js文件，放入复制的代码</t>
+  </si>
+  <si>
+    <t>在index.html中引入icon.js文件</t>
+  </si>
+  <si>
+    <t>使用</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">svg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>="x-icon"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xlink</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>="#x-setting"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>use</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>svg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>xlink:href="#x-setting" 引用的是上边&lt;symbol&gt;标签中的id</t>
+  </si>
+  <si>
     <t>1.创建index.html，引入vue.js</t>
   </si>
   <si>
@@ -800,7 +1123,7 @@
     </r>
   </si>
   <si>
-    <t>使用parcel创建x-button组件</t>
+    <t>使用parcel工具</t>
   </si>
   <si>
     <t>1.安装</t>
@@ -1424,349 +1747,20 @@
     <t>package.json中配置scripts，执行npm start</t>
   </si>
   <si>
-    <t>发现代码警告</t>
-  </si>
-  <si>
     <t>5.配置package.json</t>
   </si>
   <si>
+    <t>运行代码后，发现代码警告</t>
+  </si>
+  <si>
     <t>声明alias，配置vue文件</t>
   </si>
   <si>
     <t>再次执行npm start</t>
   </si>
   <si>
-    <t>6.下载图标</t>
-  </si>
-  <si>
-    <t>https://www.iconfont.cn</t>
-  </si>
-  <si>
-    <t>选择好图标后，点击购物车</t>
-  </si>
-  <si>
-    <t>点击添加至项目，新建项目，添加项目名称，确定</t>
-  </si>
-  <si>
-    <t>将图标"左"通过编辑图标，旋转后保存为副本，即可生成"右"</t>
-  </si>
-  <si>
-    <t>图标的名称会变成 x-good</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">点击 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>批量操作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>全选</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>批量去色</t>
-    </r>
-  </si>
-  <si>
-    <t>代码中引入</t>
-  </si>
-  <si>
-    <t>将复制的连接放到搜索栏中，复制下方的代码</t>
-  </si>
-  <si>
-    <t>或者直接引入</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF586E75"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFD33682"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">script </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF839496"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>src</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFDC322F"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>="//at.alicdn.com/t/font_2291729_lob12za91fh.js"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF586E75"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&gt;&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFD33682"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>script</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF586E75"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>在src中创建icon.js文件，放入复制的代码</t>
-  </si>
-  <si>
-    <t>在index.html中引入icon.js文件</t>
-  </si>
-  <si>
-    <t>使用</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF586E75"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFD33682"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">svg </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF839496"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFDC322F"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>="x-icon"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF586E75"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF586E75"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">    &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFD33682"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">use </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF859900"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>xlink</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF839496"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:href</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFDC322F"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>="#x-setting"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF586E75"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&gt;&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFD33682"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>use</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF586E75"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF586E75"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFD33682"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>svg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF586E75"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>xlink:href="#x-setting" 引用的是上边&lt;symbol&gt;标签中的id</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7.props中的</t>
+    <r>
+      <t>6.props中的</t>
     </r>
     <r>
       <rPr>
@@ -5459,6 +5453,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">执行 </t>
     </r>
     <r>
@@ -5489,9 +5490,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="45">
@@ -5604,6 +5605,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -5613,16 +5660,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5640,6 +5680,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -5647,40 +5695,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5710,14 +5726,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -5727,22 +5735,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5835,7 +5836,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5847,25 +5908,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5877,31 +5950,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5914,108 +6017,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6109,69 +6110,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -6196,6 +6134,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -6203,6 +6165,45 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6214,10 +6215,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6226,133 +6227,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6868,6 +6869,599 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="527050"/>
+          <a:ext cx="11687175" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="1384300"/>
+          <a:ext cx="2876550" cy="9220200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4127500" y="1555750"/>
+          <a:ext cx="8915400" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>488315</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="8743950"/>
+          <a:ext cx="3231515" cy="2228850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>262890</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="4629150"/>
+          <a:ext cx="3691890" cy="3771900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>684530</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4127500" y="11156950"/>
+          <a:ext cx="6158230" cy="2372360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12065</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>31115</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="13716000"/>
+          <a:ext cx="6184265" cy="4660265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>432435</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4127500" y="18700750"/>
+          <a:ext cx="6591935" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>459740</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4127500" y="21101050"/>
+          <a:ext cx="6619240" cy="3000375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4813300" y="24872950"/>
+          <a:ext cx="6381750" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4813300" y="26587450"/>
+          <a:ext cx="2867025" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>422275</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4813300" y="27959050"/>
+          <a:ext cx="5210175" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4813300" y="31045150"/>
+          <a:ext cx="5257800" cy="2933700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4813300" y="34131250"/>
+          <a:ext cx="1276350" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
@@ -6952,18 +7546,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>669925</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="7" name="图片 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6976,49 +7570,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="698500" y="13900150"/>
-          <a:ext cx="10420350" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>669925</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="698500" y="15100300"/>
+          <a:off x="698500" y="15271750"/>
           <a:ext cx="3400425" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7036,13 +7588,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>403225</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7053,14 +7605,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="698500" y="15957550"/>
+          <a:off x="698500" y="16129000"/>
           <a:ext cx="2447925" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7078,601 +7630,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>41275</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="698500" y="17500600"/>
-          <a:ext cx="11687175" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="698500" y="18357850"/>
-          <a:ext cx="2876550" cy="9220200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4127500" y="18529300"/>
-          <a:ext cx="8915400" cy="2819400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>488315</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4114800" y="25717500"/>
-          <a:ext cx="3231515" cy="2228850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>262890</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4114800" y="21602700"/>
-          <a:ext cx="3691890" cy="3771900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>684530</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="图片 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4127500" y="28130500"/>
-          <a:ext cx="6158230" cy="2372360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>12065</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>31115</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="图片 18"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4114800" y="30689550"/>
-          <a:ext cx="6184265" cy="4660265"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>432435</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="图片 19"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4127500" y="35674300"/>
-          <a:ext cx="6591935" cy="2143125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>459740</xdr:colOff>
-      <xdr:row>239</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="图片 20"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4127500" y="38074600"/>
-          <a:ext cx="6619240" cy="3000375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>244</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="图片 22"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4813300" y="41846500"/>
-          <a:ext cx="6381750" cy="1047750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>254</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>261</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="图片 23"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4813300" y="43561000"/>
-          <a:ext cx="2867025" cy="1209675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>262</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>422275</xdr:colOff>
-      <xdr:row>278</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="图片 24"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4813300" y="44932600"/>
-          <a:ext cx="5210175" cy="2781300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>280</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>297</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="图片 25"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4813300" y="48018700"/>
-          <a:ext cx="5257800" cy="2933700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>298</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>302</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="图片 27"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4813300" y="51104800"/>
-          <a:ext cx="1276350" cy="838200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>322</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>327</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7683,14 +7647,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="698500" y="55219600"/>
+          <a:off x="698500" y="20243800"/>
           <a:ext cx="6496050" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7708,13 +7672,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>330</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>335</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7725,14 +7689,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="698500" y="56591200"/>
+          <a:off x="698500" y="21615400"/>
           <a:ext cx="7239000" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7750,13 +7714,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>322</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>324</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7767,15 +7731,57 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7556500" y="55219600"/>
+          <a:off x="7556500" y="20243800"/>
           <a:ext cx="2495550" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="14243050"/>
+          <a:ext cx="10420350" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7791,7 +7797,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7922,7 +7928,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7969,7 +7975,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8688,7 +8694,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -9093,895 +9099,114 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:X343"/>
+  <dimension ref="B2:X194"/>
   <sheetViews>
-    <sheetView topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="E349" sqref="E349"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="7" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="7" t="s">
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="12" t="s">
+    </row>
+    <row r="68" spans="17:17">
+      <c r="Q68" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="7" t="s">
+    </row>
+    <row r="102" spans="17:17">
+      <c r="Q102" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="7" t="s">
+    </row>
+    <row r="112" spans="17:17">
+      <c r="Q112" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
+    </row>
+    <row r="144" spans="7:7">
+      <c r="G144" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="7" t="s">
+    <row r="145" spans="8:18">
+      <c r="H145" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="12" t="s">
+      <c r="R145" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="24" t="s">
+    </row>
+    <row r="146" spans="18:24">
+      <c r="R146" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="24" t="s">
+      <c r="S146" s="4"/>
+      <c r="T146" s="4"/>
+      <c r="U146" s="4"/>
+      <c r="V146" s="4"/>
+      <c r="W146" s="4"/>
+      <c r="X146" s="4"/>
+    </row>
+    <row r="153" spans="8:8">
+      <c r="H153" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="7" t="s">
+    </row>
+    <row r="155" spans="8:8">
+      <c r="H155" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    </row>
+    <row r="181" spans="7:7">
+      <c r="G181" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="7" t="s">
+    <row r="190" spans="16:19">
+      <c r="P190" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="7" t="s">
+      <c r="Q190" s="4"/>
+      <c r="R190" s="4"/>
+      <c r="S190" s="4"/>
+    </row>
+    <row r="191" spans="16:19">
+      <c r="P191" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="7" t="s">
+      <c r="Q191" s="4"/>
+      <c r="R191" s="4"/>
+      <c r="S191" s="4"/>
+    </row>
+    <row r="192" spans="16:19">
+      <c r="P192" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="7" t="s">
+      <c r="Q192" s="4"/>
+      <c r="R192" s="4"/>
+      <c r="S192" s="4"/>
+    </row>
+    <row r="194" spans="16:16">
+      <c r="P194" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="44" s="23" customFormat="1"/>
-    <row r="46" spans="2:2">
-      <c r="B46" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10">
-      <c r="B52" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="G52" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-    </row>
-    <row r="53" spans="2:10">
-      <c r="B53" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="G53" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="2:10">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="G54" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-    </row>
-    <row r="56" spans="2:10">
-      <c r="B56" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="G56" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="G57" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-    </row>
-    <row r="58" spans="2:10">
-      <c r="B58" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="G58" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-    </row>
-    <row r="59" spans="2:10">
-      <c r="B59" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="G59" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-    </row>
-    <row r="60" spans="2:10">
-      <c r="B60" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-    </row>
-    <row r="61" spans="7:10">
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-    </row>
-    <row r="62" spans="7:10">
-      <c r="G62" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-    </row>
-    <row r="63" spans="7:10">
-      <c r="G63" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7">
-      <c r="B64" t="s">
-        <v>54</v>
-      </c>
-      <c r="G64" s="25"/>
-    </row>
-    <row r="65" spans="7:7">
-      <c r="G65" s="25"/>
-    </row>
-    <row r="66" spans="7:7">
-      <c r="G66" s="25"/>
-    </row>
-    <row r="67" spans="7:7">
-      <c r="G67" s="25"/>
-    </row>
-    <row r="68" spans="7:7">
-      <c r="G68" s="25"/>
-    </row>
-    <row r="69" spans="7:7">
-      <c r="G69" s="25"/>
-    </row>
-    <row r="71" spans="7:7">
-      <c r="G71" s="27"/>
-    </row>
-    <row r="72" spans="7:7">
-      <c r="G72" s="25"/>
-    </row>
-    <row r="73" spans="2:10">
-      <c r="B73" t="s">
-        <v>55</v>
-      </c>
-      <c r="G73" s="28"/>
-      <c r="J73" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10">
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s">
-        <v>57</v>
-      </c>
-      <c r="J74" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10">
-      <c r="B75">
-        <v>2</v>
-      </c>
-      <c r="C75" t="s">
-        <v>59</v>
-      </c>
-      <c r="G75" s="27"/>
-      <c r="J75" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7">
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>61</v>
-      </c>
-      <c r="G76" s="25"/>
-    </row>
-    <row r="77" spans="7:7">
-      <c r="G77" s="28"/>
-    </row>
-    <row r="79" spans="7:7">
-      <c r="G79" s="27"/>
-    </row>
-    <row r="80" spans="7:7">
-      <c r="G80" s="25"/>
-    </row>
-    <row r="81" spans="2:7">
-      <c r="B81" t="s">
-        <v>62</v>
-      </c>
-      <c r="G81" s="28"/>
-    </row>
-    <row r="82" spans="7:7">
-      <c r="G82" s="28"/>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4">
-      <c r="B101" t="s">
-        <v>66</v>
-      </c>
-      <c r="D101" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="167" spans="17:17">
-      <c r="Q167" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="201" spans="17:17">
-      <c r="Q201" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="211" spans="17:17">
-      <c r="Q211" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="243" spans="7:7">
-      <c r="G243" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="244" spans="8:18">
-      <c r="H244" t="s">
-        <v>74</v>
-      </c>
-      <c r="R244" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="245" spans="18:24">
-      <c r="R245" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="S245" s="4"/>
-      <c r="T245" s="4"/>
-      <c r="U245" s="4"/>
-      <c r="V245" s="4"/>
-      <c r="W245" s="4"/>
-      <c r="X245" s="4"/>
-    </row>
-    <row r="252" spans="8:8">
-      <c r="H252" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="254" spans="8:8">
-      <c r="H254" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="280" spans="7:7">
-      <c r="G280" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="289" spans="16:19">
-      <c r="P289" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q289" s="4"/>
-      <c r="R289" s="4"/>
-      <c r="S289" s="4"/>
-    </row>
-    <row r="290" spans="16:19">
-      <c r="P290" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q290" s="4"/>
-      <c r="R290" s="4"/>
-      <c r="S290" s="4"/>
-    </row>
-    <row r="291" spans="16:19">
-      <c r="P291" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q291" s="4"/>
-      <c r="R291" s="4"/>
-      <c r="S291" s="4"/>
-    </row>
-    <row r="293" spans="16:16">
-      <c r="P293" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="306" spans="2:2">
-      <c r="B306" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="307" spans="2:7">
-      <c r="B307" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C307" s="4"/>
-      <c r="D307" s="4"/>
-      <c r="E307" s="4"/>
-      <c r="F307" s="4"/>
-      <c r="G307" s="4"/>
-    </row>
-    <row r="308" spans="2:7">
-      <c r="B308" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C308" s="4"/>
-      <c r="D308" s="4"/>
-      <c r="E308" s="4"/>
-      <c r="F308" s="4"/>
-      <c r="G308" s="4"/>
-    </row>
-    <row r="309" spans="2:7">
-      <c r="B309" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C309" s="4"/>
-      <c r="D309" s="4"/>
-      <c r="E309" s="4"/>
-      <c r="F309" s="4"/>
-      <c r="G309" s="4"/>
-    </row>
-    <row r="310" spans="2:7">
-      <c r="B310" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C310" s="4"/>
-      <c r="D310" s="4"/>
-      <c r="E310" s="4"/>
-      <c r="F310" s="4"/>
-      <c r="G310" s="4"/>
-    </row>
-    <row r="311" spans="2:7">
-      <c r="B311" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C311" s="4"/>
-      <c r="D311" s="4"/>
-      <c r="E311" s="4"/>
-      <c r="F311" s="4"/>
-      <c r="G311" s="4"/>
-    </row>
-    <row r="312" spans="2:7">
-      <c r="B312" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C312" s="4"/>
-      <c r="D312" s="4"/>
-      <c r="E312" s="4"/>
-      <c r="F312" s="4"/>
-      <c r="G312" s="4"/>
-    </row>
-    <row r="313" spans="2:7">
-      <c r="B313" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C313" s="4"/>
-      <c r="D313" s="4"/>
-      <c r="E313" s="4"/>
-      <c r="F313" s="4"/>
-      <c r="G313" s="4"/>
-    </row>
-    <row r="314" spans="2:7">
-      <c r="B314" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C314" s="4"/>
-      <c r="D314" s="4"/>
-      <c r="E314" s="4"/>
-      <c r="F314" s="4"/>
-      <c r="G314" s="4"/>
-    </row>
-    <row r="315" spans="2:7">
-      <c r="B315" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C315" s="4"/>
-      <c r="D315" s="4"/>
-      <c r="E315" s="4"/>
-      <c r="F315" s="4"/>
-      <c r="G315" s="4"/>
-    </row>
-    <row r="316" spans="2:9">
-      <c r="B316" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C316" s="4"/>
-      <c r="D316" s="4"/>
-      <c r="E316" s="4"/>
-      <c r="F316" s="4"/>
-      <c r="G316" s="4"/>
-      <c r="I316" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="317" spans="2:7">
-      <c r="B317" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C317" s="4"/>
-      <c r="D317" s="4"/>
-      <c r="E317" s="4"/>
-      <c r="F317" s="4"/>
-      <c r="G317" s="4"/>
-    </row>
-    <row r="318" spans="2:7">
-      <c r="B318" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C318" s="4"/>
-      <c r="D318" s="4"/>
-      <c r="E318" s="4"/>
-      <c r="F318" s="4"/>
-      <c r="G318" s="4"/>
-    </row>
-    <row r="319" spans="2:7">
-      <c r="B319" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C319" s="4"/>
-      <c r="D319" s="4"/>
-      <c r="E319" s="4"/>
-      <c r="F319" s="4"/>
-      <c r="G319" s="4"/>
-    </row>
-    <row r="320" spans="2:7">
-      <c r="B320" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C320" s="4"/>
-      <c r="D320" s="4"/>
-      <c r="E320" s="4"/>
-      <c r="F320" s="4"/>
-      <c r="G320" s="4"/>
-    </row>
-    <row r="321" spans="2:7">
-      <c r="B321" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C321" s="4"/>
-      <c r="D321" s="4"/>
-      <c r="E321" s="4"/>
-      <c r="F321" s="4"/>
-      <c r="G321" s="4"/>
-    </row>
-    <row r="329" spans="2:2">
-      <c r="B329" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="330" spans="2:2">
-      <c r="B330" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="337" spans="2:2">
-      <c r="B337" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="338" spans="2:3">
-      <c r="B338" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C338" s="4"/>
-    </row>
-    <row r="340" spans="2:2">
-      <c r="B340" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="341" spans="2:6">
-      <c r="B341" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C341" s="4"/>
-      <c r="D341" s="4"/>
-      <c r="E341" s="4"/>
-      <c r="F341" s="4"/>
-    </row>
-    <row r="342" spans="2:8">
-      <c r="B342" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C342" s="4"/>
-      <c r="D342" s="4"/>
-      <c r="E342" s="4"/>
-      <c r="F342" s="4"/>
-      <c r="H342" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="343" spans="2:6">
-      <c r="B343" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C343" s="4"/>
-      <c r="D343" s="4"/>
-      <c r="E343" s="4"/>
-      <c r="F343" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9993,158 +9218,795 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:N29"/>
+  <dimension ref="B2:J139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:11">
-      <c r="B2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="3" t="s">
-        <v>40</v>
-      </c>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="3" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="3" t="s">
-        <v>110</v>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="13" t="s">
-        <v>111</v>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="3" t="s">
-        <v>109</v>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="3" t="s">
-        <v>114</v>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="12" t="s">
-        <v>115</v>
-      </c>
+      <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="G22" s="22" t="s">
-        <v>116</v>
-      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="12" t="s">
-        <v>117</v>
+      <c r="B23" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="G23" s="22"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="7" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="G24" s="22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="13" t="s">
-        <v>120</v>
+      <c r="B26" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="G26" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14">
-      <c r="B27" s="13" t="s">
-        <v>111</v>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="G27" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
-        <v>112</v>
-      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="44" s="23" customFormat="1"/>
+    <row r="46" spans="2:2">
+      <c r="B46" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="G52" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="G53" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="G54" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="G56" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="G57" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="G58" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="G59" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="7:10">
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="7:10">
+      <c r="G62" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="7:10">
+      <c r="G63" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" t="s">
+        <v>72</v>
+      </c>
+      <c r="G64" s="25"/>
+    </row>
+    <row r="65" spans="7:7">
+      <c r="G65" s="25"/>
+    </row>
+    <row r="66" spans="7:7">
+      <c r="G66" s="25"/>
+    </row>
+    <row r="67" spans="7:7">
+      <c r="G67" s="25"/>
+    </row>
+    <row r="68" spans="7:7">
+      <c r="G68" s="25"/>
+    </row>
+    <row r="69" spans="7:7">
+      <c r="G69" s="25"/>
+    </row>
+    <row r="71" spans="7:7">
+      <c r="G71" s="27"/>
+    </row>
+    <row r="72" spans="7:7">
+      <c r="G72" s="25"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="G73" s="28"/>
+      <c r="J73" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>75</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>77</v>
+      </c>
+      <c r="G75" s="27"/>
+      <c r="J75" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>79</v>
+      </c>
+      <c r="G76" s="25"/>
+    </row>
+    <row r="77" spans="7:7">
+      <c r="G77" s="28"/>
+    </row>
+    <row r="79" spans="7:7">
+      <c r="G79" s="27"/>
+    </row>
+    <row r="80" spans="7:7">
+      <c r="G80" s="27"/>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="G81" s="25"/>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+      <c r="G83" s="28"/>
+    </row>
+    <row r="84" spans="7:7">
+      <c r="G84" s="28"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+    </row>
+    <row r="112" spans="2:9">
+      <c r="B112" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="I112" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3">
+      <c r="B134" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C134" s="4"/>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6">
+      <c r="B137" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+    </row>
+    <row r="138" spans="2:8">
+      <c r="B138" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="H138" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6">
+      <c r="B139" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10154,6 +10016,169 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:N29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:11">
+      <c r="B2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="G22" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="G24" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="G26" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="G27" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:J47"/>
@@ -10207,7 +10232,7 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="3:3">
@@ -10382,7 +10407,7 @@
     </row>
     <row r="31" spans="3:7">
       <c r="C31" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -10430,7 +10455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:M235"/>
@@ -10504,7 +10529,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -10517,7 +10542,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="J22" s="10" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -10635,7 +10660,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -10896,7 +10921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -10912,12 +10937,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>

--- a/造轮子.xlsx
+++ b/造轮子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="创建许可证文件" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="发布npm包" sheetId="7" r:id="rId7"/>
     <sheet name="README.md书写" sheetId="8" r:id="rId8"/>
     <sheet name="npm install -g git-open" sheetId="9" r:id="rId9"/>
+    <sheet name="组件实现v-model" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="231">
   <si>
     <t>github上选择Create new file</t>
   </si>
@@ -1760,6 +1761,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>6.props中的</t>
     </r>
     <r>
@@ -5482,6 +5490,440 @@
         <scheme val="minor"/>
       </rPr>
       <t>可以直接打开github上的项目连接</t>
+    </r>
+  </si>
+  <si>
+    <t>v-model -&gt; 视觉上的双向绑定</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">v-model是 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-bind:value="val"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 与 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@input="val = $event.target.value"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>语法糖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>因此，</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">input </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>v-model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>等价</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">input </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">message </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$event</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>所以在封装组件时，组件内部只需实现:value的绑定与@input事件即可</t>
+  </si>
+  <si>
+    <r>
+      <t>注：组件内部的@input事件</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>触发$emit的事件名称必须为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="7"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这样在组件使用v-model时，才等于v-bind:value 与 @input</t>
+    </r>
+  </si>
+  <si>
+    <t>使用组件时,直接用v-model</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">x-input </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF839496"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>v-model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x-input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}}</t>
     </r>
   </si>
 </sst>
@@ -5490,12 +5932,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5507,6 +5949,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF586E75"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5529,19 +5984,6 @@
       <color rgb="FF7A7A43"/>
       <name val="Consolas"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF586E75"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5605,6 +6047,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -5621,7 +6084,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5645,14 +6116,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5660,52 +6124,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5725,17 +6154,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5749,9 +6176,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="7"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5787,14 +6245,6 @@
       <color rgb="FFFEFEFE"/>
       <name val="Consolas"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -5836,25 +6286,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5866,19 +6334,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5896,13 +6364,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5914,37 +6430,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5956,67 +6460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6120,21 +6570,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -6152,19 +6587,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6180,6 +6604,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6201,9 +6649,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6215,10 +6665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6227,144 +6677,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -6373,7 +6823,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -6382,7 +6832,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6400,7 +6853,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -6409,7 +6862,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
@@ -6439,10 +6892,10 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -8741,6 +9194,53 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384300" y="1898650"/>
+          <a:ext cx="4791075" cy="2457450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -9059,6 +9559,93 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:K29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="11:11">
+      <c r="K19" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -9084,7 +9671,7 @@
       <c r="B45" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9126,22 +9713,22 @@
       </c>
     </row>
     <row r="68" spans="17:17">
-      <c r="Q68" s="8" t="s">
+      <c r="Q68" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="102" spans="17:17">
-      <c r="Q102" s="8" t="s">
+      <c r="Q102" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="112" spans="17:17">
-      <c r="Q112" s="22" t="s">
+      <c r="Q112" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="144" spans="7:7">
-      <c r="G144" s="2" t="s">
+      <c r="G144" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9154,7 +9741,7 @@
       </c>
     </row>
     <row r="146" spans="18:24">
-      <c r="R146" s="7" t="s">
+      <c r="R146" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S146" s="4"/>
@@ -9175,12 +9762,12 @@
       </c>
     </row>
     <row r="181" spans="7:7">
-      <c r="G181" s="2" t="s">
+      <c r="G181" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="190" spans="16:19">
-      <c r="P190" s="7" t="s">
+      <c r="P190" s="9" t="s">
         <v>21</v>
       </c>
       <c r="Q190" s="4"/>
@@ -9188,7 +9775,7 @@
       <c r="S190" s="4"/>
     </row>
     <row r="191" spans="16:19">
-      <c r="P191" s="7" t="s">
+      <c r="P191" s="9" t="s">
         <v>22</v>
       </c>
       <c r="Q191" s="4"/>
@@ -9196,7 +9783,7 @@
       <c r="S191" s="4"/>
     </row>
     <row r="192" spans="16:19">
-      <c r="P192" s="7" t="s">
+      <c r="P192" s="9" t="s">
         <v>23</v>
       </c>
       <c r="Q192" s="4"/>
@@ -9220,7 +9807,7 @@
   <sheetPr/>
   <dimension ref="B2:J139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
@@ -9232,7 +9819,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="4"/>
@@ -9250,7 +9837,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="4"/>
@@ -9260,7 +9847,7 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="4"/>
@@ -9270,7 +9857,7 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="4"/>
@@ -9280,7 +9867,7 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="4"/>
@@ -9290,7 +9877,7 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="4"/>
@@ -9305,7 +9892,7 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="4"/>
@@ -9313,7 +9900,7 @@
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="4"/>
@@ -9321,7 +9908,7 @@
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="4"/>
@@ -9329,7 +9916,7 @@
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="4"/>
@@ -9337,7 +9924,7 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="4"/>
@@ -9350,7 +9937,7 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="4"/>
@@ -9360,7 +9947,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="4"/>
@@ -9370,7 +9957,7 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="4"/>
@@ -9388,7 +9975,7 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="4"/>
@@ -9398,7 +9985,7 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="4"/>
@@ -9416,7 +10003,7 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="4"/>
@@ -9426,7 +10013,7 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="4"/>
@@ -9436,7 +10023,7 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="4"/>
@@ -9446,7 +10033,7 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="4"/>
@@ -9456,7 +10043,7 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="4"/>
@@ -9474,26 +10061,26 @@
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C37" s="4"/>
@@ -9505,29 +10092,29 @@
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="44" s="23" customFormat="1"/>
+    <row r="44" s="24" customFormat="1"/>
     <row r="46" spans="2:2">
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9547,13 +10134,13 @@
       </c>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="9" t="s">
         <v>57</v>
       </c>
       <c r="H52" s="4"/>
@@ -9561,13 +10148,13 @@
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H53" s="4"/>
@@ -9579,7 +10166,7 @@
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="9" t="s">
         <v>60</v>
       </c>
       <c r="H54" s="4"/>
@@ -9587,7 +10174,7 @@
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C55" s="4"/>
@@ -9599,13 +10186,13 @@
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H56" s="4"/>
@@ -9617,7 +10204,7 @@
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="6" t="s">
         <v>63</v>
       </c>
       <c r="H57" s="4"/>
@@ -9625,13 +10212,13 @@
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="G58" s="12" t="s">
+      <c r="G58" s="13" t="s">
         <v>65</v>
       </c>
       <c r="H58" s="4"/>
@@ -9639,13 +10226,13 @@
       <c r="J58" s="4"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="13" t="s">
         <v>66</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="G59" s="7" t="s">
+      <c r="G59" s="9" t="s">
         <v>67</v>
       </c>
       <c r="H59" s="4"/>
@@ -9653,7 +10240,7 @@
       <c r="J59" s="4"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C60" s="4"/>
@@ -9661,7 +10248,7 @@
       <c r="E60" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H60" s="4"/>
@@ -9675,7 +10262,7 @@
       <c r="J61" s="4"/>
     </row>
     <row r="62" spans="7:10">
-      <c r="G62" s="7" t="s">
+      <c r="G62" s="9" t="s">
         <v>69</v>
       </c>
       <c r="H62" s="4"/>
@@ -9683,12 +10270,12 @@
       <c r="J62" s="4"/>
     </row>
     <row r="63" spans="7:10">
-      <c r="G63" s="7" t="s">
+      <c r="G63" s="9" t="s">
         <v>70</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
-      <c r="J63" s="26" t="s">
+      <c r="J63" s="27" t="s">
         <v>71</v>
       </c>
     </row>
@@ -9696,35 +10283,35 @@
       <c r="B64" t="s">
         <v>72</v>
       </c>
-      <c r="G64" s="25"/>
+      <c r="G64" s="26"/>
     </row>
     <row r="65" spans="7:7">
-      <c r="G65" s="25"/>
+      <c r="G65" s="26"/>
     </row>
     <row r="66" spans="7:7">
-      <c r="G66" s="25"/>
+      <c r="G66" s="26"/>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="25"/>
+      <c r="G67" s="26"/>
     </row>
     <row r="68" spans="7:7">
-      <c r="G68" s="25"/>
+      <c r="G68" s="26"/>
     </row>
     <row r="69" spans="7:7">
-      <c r="G69" s="25"/>
+      <c r="G69" s="26"/>
     </row>
     <row r="71" spans="7:7">
-      <c r="G71" s="27"/>
+      <c r="G71" s="28"/>
     </row>
     <row r="72" spans="7:7">
-      <c r="G72" s="25"/>
+      <c r="G72" s="26"/>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" t="s">
         <v>73</v>
       </c>
-      <c r="G73" s="28"/>
-      <c r="J73" s="8" t="s">
+      <c r="G73" s="29"/>
+      <c r="J73" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -9735,7 +10322,7 @@
       <c r="C74" t="s">
         <v>75</v>
       </c>
-      <c r="J74" s="8" t="s">
+      <c r="J74" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -9746,8 +10333,8 @@
       <c r="C75" t="s">
         <v>77</v>
       </c>
-      <c r="G75" s="27"/>
-      <c r="J75" s="8" t="s">
+      <c r="G75" s="28"/>
+      <c r="J75" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -9758,31 +10345,31 @@
       <c r="C76" t="s">
         <v>79</v>
       </c>
-      <c r="G76" s="25"/>
+      <c r="G76" s="26"/>
     </row>
     <row r="77" spans="7:7">
-      <c r="G77" s="28"/>
+      <c r="G77" s="29"/>
     </row>
     <row r="79" spans="7:7">
-      <c r="G79" s="27"/>
+      <c r="G79" s="28"/>
     </row>
     <row r="80" spans="7:7">
-      <c r="G80" s="27"/>
+      <c r="G80" s="28"/>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" t="s">
         <v>80</v>
       </c>
-      <c r="G81" s="25"/>
+      <c r="G81" s="26"/>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" t="s">
         <v>81</v>
       </c>
-      <c r="G83" s="28"/>
+      <c r="G83" s="29"/>
     </row>
     <row r="84" spans="7:7">
-      <c r="G84" s="28"/>
+      <c r="G84" s="29"/>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
@@ -9795,12 +10382,12 @@
       </c>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="13" t="s">
         <v>85</v>
       </c>
       <c r="C103" s="4"/>
@@ -9810,7 +10397,7 @@
       <c r="G103" s="4"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="13" t="s">
         <v>86</v>
       </c>
       <c r="C104" s="4"/>
@@ -9820,7 +10407,7 @@
       <c r="G104" s="4"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="13" t="s">
         <v>87</v>
       </c>
       <c r="C105" s="4"/>
@@ -9830,7 +10417,7 @@
       <c r="G105" s="4"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="29" t="s">
+      <c r="B106" s="30" t="s">
         <v>88</v>
       </c>
       <c r="C106" s="4"/>
@@ -9840,7 +10427,7 @@
       <c r="G106" s="4"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C107" s="4"/>
@@ -9850,7 +10437,7 @@
       <c r="G107" s="4"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C108" s="4"/>
@@ -9860,7 +10447,7 @@
       <c r="G108" s="4"/>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="13" t="s">
         <v>87</v>
       </c>
       <c r="C109" s="4"/>
@@ -9870,7 +10457,7 @@
       <c r="G109" s="4"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="29" t="s">
+      <c r="B110" s="30" t="s">
         <v>91</v>
       </c>
       <c r="C110" s="4"/>
@@ -9880,7 +10467,7 @@
       <c r="G110" s="4"/>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C111" s="4"/>
@@ -9890,7 +10477,7 @@
       <c r="G111" s="4"/>
     </row>
     <row r="112" spans="2:9">
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C112" s="4"/>
@@ -9898,12 +10485,12 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
-      <c r="I112" s="8" t="s">
+      <c r="I112" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C113" s="4"/>
@@ -9913,7 +10500,7 @@
       <c r="G113" s="4"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C114" s="4"/>
@@ -9923,7 +10510,7 @@
       <c r="G114" s="4"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C115" s="4"/>
@@ -9933,7 +10520,7 @@
       <c r="G115" s="4"/>
     </row>
     <row r="116" spans="2:7">
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C116" s="4"/>
@@ -9943,7 +10530,7 @@
       <c r="G116" s="4"/>
     </row>
     <row r="117" spans="2:7">
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C117" s="4"/>
@@ -9968,7 +10555,7 @@
       </c>
     </row>
     <row r="134" spans="2:3">
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="11" t="s">
         <v>102</v>
       </c>
       <c r="C134" s="4"/>
@@ -9979,7 +10566,7 @@
       </c>
     </row>
     <row r="137" spans="2:6">
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C137" s="4"/>
@@ -9988,19 +10575,19 @@
       <c r="F137" s="4"/>
     </row>
     <row r="138" spans="2:8">
-      <c r="B138" s="30" t="s">
+      <c r="B138" s="31" t="s">
         <v>105</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
-      <c r="H138" s="8" t="s">
+      <c r="H138" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="139" spans="2:6">
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C139" s="4"/>
@@ -10027,7 +10614,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>107</v>
       </c>
       <c r="K2" t="s">
@@ -10035,7 +10622,7 @@
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="4"/>
@@ -10043,13 +10630,13 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="3"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C6" s="4"/>
@@ -10057,7 +10644,7 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>110</v>
       </c>
       <c r="C7" s="4"/>
@@ -10065,7 +10652,7 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="4"/>
@@ -10083,7 +10670,7 @@
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C20" s="4"/>
@@ -10091,7 +10678,7 @@
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C21" s="4"/>
@@ -10099,38 +10686,38 @@
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="23" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>117</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="G23" s="22"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="23" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="4"/>
@@ -10138,24 +10725,24 @@
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>120</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>111</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="14" t="s">
         <v>122</v>
       </c>
       <c r="H27" s="4"/>
@@ -10190,7 +10777,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C2" t="s">
@@ -10204,7 +10791,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C3" t="s">
@@ -10215,7 +10802,7 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C4" t="s">
@@ -10226,7 +10813,7 @@
       </c>
     </row>
     <row r="7" ht="27" spans="2:2">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -10246,7 +10833,7 @@
       </c>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>136</v>
       </c>
       <c r="D13" s="4"/>
@@ -10255,7 +10842,7 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>137</v>
       </c>
       <c r="D14" s="4"/>
@@ -10264,7 +10851,7 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="9" t="s">
         <v>138</v>
       </c>
       <c r="D15" s="4"/>
@@ -10273,7 +10860,7 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>139</v>
       </c>
       <c r="D16" s="4"/>
@@ -10282,7 +10869,7 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D17" s="4"/>
@@ -10291,7 +10878,7 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="6" t="s">
         <v>141</v>
       </c>
       <c r="D18" s="4"/>
@@ -10300,7 +10887,7 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>142</v>
       </c>
       <c r="D19" s="4"/>
@@ -10309,7 +10896,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>143</v>
       </c>
       <c r="D20" s="4"/>
@@ -10318,7 +10905,7 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="3:7">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="9" t="s">
         <v>144</v>
       </c>
       <c r="D21" s="4"/>
@@ -10327,7 +10914,7 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="9" t="s">
         <v>145</v>
       </c>
       <c r="D22" s="4"/>
@@ -10336,7 +10923,7 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="3:7">
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="14" t="s">
         <v>146</v>
       </c>
       <c r="D23" s="4"/>
@@ -10345,7 +10932,7 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="3:7">
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="14" t="s">
         <v>147</v>
       </c>
       <c r="D24" s="4"/>
@@ -10361,7 +10948,7 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="3:7">
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="6" t="s">
         <v>148</v>
       </c>
       <c r="D26" s="4"/>
@@ -10370,7 +10957,7 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" ht="14.25" spans="3:7">
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="6" t="s">
         <v>149</v>
       </c>
       <c r="D27" s="4"/>
@@ -10379,34 +10966,34 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="3:7">
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="3:7">
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>151</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="18"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" ht="14.25" spans="3:7">
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
     </row>
     <row r="31" spans="3:7">
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="4"/>
@@ -10425,7 +11012,7 @@
       </c>
     </row>
     <row r="44" spans="4:6">
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="14" t="s">
         <v>155</v>
       </c>
       <c r="E44" s="4"/>
@@ -10437,7 +11024,7 @@
       </c>
     </row>
     <row r="46" spans="4:6">
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="14" t="s">
         <v>157</v>
       </c>
       <c r="E46" s="4"/>
@@ -10467,7 +11054,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -10477,7 +11064,7 @@
       </c>
     </row>
     <row r="11" spans="10:10">
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>161</v>
       </c>
     </row>
@@ -10497,7 +11084,7 @@
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>165</v>
       </c>
     </row>
@@ -10507,7 +11094,7 @@
       </c>
     </row>
     <row r="20" spans="3:10">
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="6" t="s">
         <v>167</v>
       </c>
       <c r="D20" s="4"/>
@@ -10520,7 +11107,7 @@
       </c>
     </row>
     <row r="21" spans="3:12">
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="6" t="s">
         <v>169</v>
       </c>
       <c r="D21" s="4"/>
@@ -10528,7 +11115,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="9" t="s">
         <v>46</v>
       </c>
       <c r="K21" s="4"/>
@@ -10541,14 +11128,14 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="11" t="s">
         <v>47</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="3:12">
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="6" t="s">
         <v>170</v>
       </c>
       <c r="D23" s="4"/>
@@ -10556,14 +11143,14 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="11" t="s">
         <v>171</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="3:12">
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="6" t="s">
         <v>172</v>
       </c>
       <c r="D24" s="4"/>
@@ -10571,14 +11158,14 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="11" t="s">
         <v>173</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="3:12">
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="6" t="s">
         <v>174</v>
       </c>
       <c r="D25" s="4"/>
@@ -10586,7 +11173,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="11" t="s">
         <v>175</v>
       </c>
       <c r="K25" s="4"/>
@@ -10599,14 +11186,14 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="11" t="s">
         <v>176</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="3:12">
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>177</v>
       </c>
       <c r="D27" s="4"/>
@@ -10614,14 +11201,14 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="11" t="s">
         <v>178</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="3:12">
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="6" t="s">
         <v>179</v>
       </c>
       <c r="D28" s="4"/>
@@ -10629,14 +11216,14 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="11" t="s">
         <v>180</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="3:12">
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="8" t="s">
         <v>181</v>
       </c>
       <c r="D29" s="4"/>
@@ -10644,14 +11231,14 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="11" t="s">
         <v>182</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="3:12">
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="7" t="s">
         <v>183</v>
       </c>
       <c r="D30" s="4"/>
@@ -10659,14 +11246,14 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="9" t="s">
         <v>48</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="9" t="s">
         <v>184</v>
       </c>
       <c r="D31" s="4"/>
@@ -10676,7 +11263,7 @@
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="9" t="s">
         <v>185</v>
       </c>
       <c r="D32" s="4"/>
@@ -10686,7 +11273,7 @@
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="9" t="s">
         <v>186</v>
       </c>
       <c r="D33" s="4"/>
@@ -10696,7 +11283,7 @@
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="9" t="s">
         <v>98</v>
       </c>
       <c r="D34" s="4"/>
@@ -10706,7 +11293,7 @@
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="3:8">
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="9" t="s">
         <v>187</v>
       </c>
       <c r="D35" s="4"/>
@@ -10724,7 +11311,7 @@
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="3:8">
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="6" t="s">
         <v>188</v>
       </c>
       <c r="D37" s="4"/>
@@ -10742,7 +11329,7 @@
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="3:8">
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="6" t="s">
         <v>189</v>
       </c>
       <c r="D39" s="4"/>
@@ -10752,7 +11339,7 @@
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="3:8">
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="9" t="s">
         <v>190</v>
       </c>
       <c r="D40" s="4"/>
@@ -10762,7 +11349,7 @@
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="3:8">
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="9" t="s">
         <v>191</v>
       </c>
       <c r="D41" s="4"/>
@@ -10772,7 +11359,7 @@
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="3:8">
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="9" t="s">
         <v>192</v>
       </c>
       <c r="D42" s="4"/>
@@ -10782,7 +11369,7 @@
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="3:8">
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="9" t="s">
         <v>187</v>
       </c>
       <c r="D43" s="4"/>
@@ -10802,27 +11389,27 @@
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="59" spans="3:3">
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="61" spans="3:3">
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="5" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="78" spans="11:11">
-      <c r="K78" s="8" t="s">
+      <c r="K78" s="5" t="s">
         <v>199</v>
       </c>
     </row>
@@ -10863,7 +11450,7 @@
       </c>
     </row>
     <row r="211" spans="2:2">
-      <c r="B211" s="1" t="s">
+      <c r="B211" s="2" t="s">
         <v>208</v>
       </c>
     </row>
@@ -10878,15 +11465,15 @@
       </c>
     </row>
     <row r="215" spans="4:7">
-      <c r="D215" s="2" t="s">
+      <c r="D215" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G215" s="1" t="s">
+      <c r="G215" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="216" spans="4:4">
-      <c r="D216" s="2"/>
+      <c r="D216" s="1"/>
     </row>
     <row r="224" spans="3:3">
       <c r="C224" t="s">
@@ -10894,13 +11481,13 @@
       </c>
     </row>
     <row r="225" spans="4:11">
-      <c r="D225" s="2" t="s">
+      <c r="D225" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G225" s="1" t="s">
+      <c r="G225" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="K225" s="8" t="s">
+      <c r="K225" s="5" t="s">
         <v>216</v>
       </c>
     </row>
@@ -10949,7 +11536,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>219</v>
       </c>
     </row>

--- a/造轮子.xlsx
+++ b/造轮子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="2" activeTab="9"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="创建许可证文件" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,16 @@
     <sheet name="README.md书写" sheetId="8" r:id="rId8"/>
     <sheet name="npm install -g git-open" sheetId="9" r:id="rId9"/>
     <sheet name="组件实现v-model" sheetId="11" r:id="rId10"/>
+    <sheet name="git log --oneline" sheetId="12" r:id="rId11"/>
+    <sheet name="从git本地 创建&amp;删除 远程分支" sheetId="13" r:id="rId12"/>
+    <sheet name="Webstorm中删除一大段" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="243">
   <si>
     <t>github上选择Create new file</t>
   </si>
@@ -5568,6 +5571,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;</t>
     </r>
     <r>
@@ -5631,6 +5640,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;</t>
     </r>
     <r>
@@ -5786,7 +5801,7 @@
   </si>
   <si>
     <r>
-      <t>注：组件内部的@input事件</t>
+      <t>组件内部的@input事件</t>
     </r>
     <r>
       <rPr>
@@ -5822,10 +5837,32 @@
     </r>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">并且$emit事件的参数为 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$event.target.value</t>
+    </r>
+  </si>
+  <si>
     <t>使用组件时,直接用v-model</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;</t>
     </r>
     <r>
@@ -5905,6 +5942,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>{{</t>
     </r>
     <r>
@@ -5925,6 +5968,65 @@
       </rPr>
       <t>}}</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>git log --oneline</t>
+  </si>
+  <si>
+    <t>单行输出log与详细</t>
+  </si>
+  <si>
+    <t>1.创建本地分支(从目前的分支复制代码到创建的分支)</t>
+  </si>
+  <si>
+    <t>git branch branch-name</t>
+  </si>
+  <si>
+    <r>
+      <t>2.从本地分支</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创建远程分支</t>
+    </r>
+  </si>
+  <si>
+    <t>git push origin branch-name:branch-xxx</t>
+  </si>
+  <si>
+    <t>branch-name：本地分支名</t>
+  </si>
+  <si>
+    <t>branch-xxx：远程分支名</t>
+  </si>
+  <si>
+    <r>
+      <t>3.本地</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删除远程分支</t>
+    </r>
+  </si>
+  <si>
+    <t>git push origin --delete branch-1</t>
   </si>
 </sst>
 </file>
@@ -5932,12 +6034,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5955,16 +6057,24 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF586E75"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF586E75"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -6047,47 +6157,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6116,7 +6190,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6124,17 +6248,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6154,23 +6270,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6185,7 +6287,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6286,7 +6396,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6304,13 +6474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6328,97 +6498,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6436,25 +6522,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6466,7 +6558,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6570,45 +6680,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -6626,8 +6697,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6657,6 +6752,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6665,10 +6775,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6677,137 +6787,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6817,10 +6927,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6829,31 +6939,34 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -6862,13 +6975,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
@@ -6877,31 +6990,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7254,6 +7367,226 @@
         <a:xfrm>
           <a:off x="698500" y="29673550"/>
           <a:ext cx="8982075" cy="2686050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="422275"/>
+          <a:ext cx="6934200" cy="4267200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384300" y="6184900"/>
+          <a:ext cx="2400300" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>441325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384300" y="1555750"/>
+          <a:ext cx="4543425" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384300" y="2755900"/>
+          <a:ext cx="2990850" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384300" y="6870700"/>
+          <a:ext cx="2905125" cy="2190750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9564,8 +9897,8 @@
   <sheetPr/>
   <dimension ref="B2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9586,11 +9919,11 @@
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
@@ -9598,51 +9931,173 @@
       </c>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
         <v>226</v>
       </c>
     </row>
+    <row r="18" spans="11:11">
+      <c r="K18" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="19" spans="11:11">
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="3" t="s">
         <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="11:11">
+      <c r="K20" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="C28" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="C29" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" spans="2:6">
+      <c r="B2" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -9671,7 +10126,7 @@
       <c r="B45" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9713,17 +10168,17 @@
       </c>
     </row>
     <row r="68" spans="17:17">
-      <c r="Q68" s="5" t="s">
+      <c r="Q68" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="102" spans="17:17">
-      <c r="Q102" s="5" t="s">
+      <c r="Q102" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="112" spans="17:17">
-      <c r="Q112" s="23" t="s">
+      <c r="Q112" s="24" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9741,15 +10196,15 @@
       </c>
     </row>
     <row r="146" spans="18:24">
-      <c r="R146" s="9" t="s">
+      <c r="R146" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S146" s="4"/>
-      <c r="T146" s="4"/>
-      <c r="U146" s="4"/>
-      <c r="V146" s="4"/>
-      <c r="W146" s="4"/>
-      <c r="X146" s="4"/>
+      <c r="S146" s="7"/>
+      <c r="T146" s="7"/>
+      <c r="U146" s="7"/>
+      <c r="V146" s="7"/>
+      <c r="W146" s="7"/>
+      <c r="X146" s="7"/>
     </row>
     <row r="153" spans="8:8">
       <c r="H153" t="s">
@@ -9767,28 +10222,28 @@
       </c>
     </row>
     <row r="190" spans="16:19">
-      <c r="P190" s="9" t="s">
+      <c r="P190" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q190" s="4"/>
-      <c r="R190" s="4"/>
-      <c r="S190" s="4"/>
+      <c r="Q190" s="7"/>
+      <c r="R190" s="7"/>
+      <c r="S190" s="7"/>
     </row>
     <row r="191" spans="16:19">
-      <c r="P191" s="9" t="s">
+      <c r="P191" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Q191" s="4"/>
-      <c r="R191" s="4"/>
-      <c r="S191" s="4"/>
+      <c r="Q191" s="7"/>
+      <c r="R191" s="7"/>
+      <c r="S191" s="7"/>
     </row>
     <row r="192" spans="16:19">
-      <c r="P192" s="9" t="s">
+      <c r="P192" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q192" s="4"/>
-      <c r="R192" s="4"/>
-      <c r="S192" s="4"/>
+      <c r="Q192" s="7"/>
+      <c r="R192" s="7"/>
+      <c r="S192" s="7"/>
     </row>
     <row r="194" spans="16:16">
       <c r="P194" t="s">
@@ -9819,72 +10274,72 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
@@ -9892,44 +10347,44 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
@@ -9937,120 +10392,120 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" t="s">
@@ -10066,25 +10521,25 @@
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
@@ -10092,27 +10547,27 @@
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="44" s="24" customFormat="1"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="44" s="25" customFormat="1"/>
     <row r="46" spans="2:2">
       <c r="B46" s="1" t="s">
         <v>52</v>
@@ -10134,148 +10589,148 @@
       </c>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="G52" s="9" t="s">
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="G52" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="G53" s="9" t="s">
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="G53" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="G54" s="9" t="s">
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="G54" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="G56" s="9" t="s">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="G56" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="G57" s="6" t="s">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="G57" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="G58" s="13" t="s">
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="G58" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="G59" s="9" t="s">
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="G59" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4" t="s">
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="G60" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
     </row>
     <row r="61" spans="7:10">
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
     </row>
     <row r="62" spans="7:10">
-      <c r="G62" s="9" t="s">
+      <c r="G62" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
     </row>
     <row r="63" spans="7:10">
-      <c r="G63" s="9" t="s">
+      <c r="G63" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="27" t="s">
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="28" t="s">
         <v>71</v>
       </c>
     </row>
@@ -10283,35 +10738,35 @@
       <c r="B64" t="s">
         <v>72</v>
       </c>
-      <c r="G64" s="26"/>
+      <c r="G64" s="27"/>
     </row>
     <row r="65" spans="7:7">
-      <c r="G65" s="26"/>
+      <c r="G65" s="27"/>
     </row>
     <row r="66" spans="7:7">
-      <c r="G66" s="26"/>
+      <c r="G66" s="27"/>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="26"/>
+      <c r="G67" s="27"/>
     </row>
     <row r="68" spans="7:7">
-      <c r="G68" s="26"/>
+      <c r="G68" s="27"/>
     </row>
     <row r="69" spans="7:7">
-      <c r="G69" s="26"/>
+      <c r="G69" s="27"/>
     </row>
     <row r="71" spans="7:7">
-      <c r="G71" s="28"/>
+      <c r="G71" s="29"/>
     </row>
     <row r="72" spans="7:7">
-      <c r="G72" s="26"/>
+      <c r="G72" s="27"/>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" t="s">
         <v>73</v>
       </c>
-      <c r="G73" s="29"/>
-      <c r="J73" s="5" t="s">
+      <c r="G73" s="30"/>
+      <c r="J73" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -10322,7 +10777,7 @@
       <c r="C74" t="s">
         <v>75</v>
       </c>
-      <c r="J74" s="5" t="s">
+      <c r="J74" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -10333,8 +10788,8 @@
       <c r="C75" t="s">
         <v>77</v>
       </c>
-      <c r="G75" s="28"/>
-      <c r="J75" s="5" t="s">
+      <c r="G75" s="29"/>
+      <c r="J75" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -10345,31 +10800,31 @@
       <c r="C76" t="s">
         <v>79</v>
       </c>
-      <c r="G76" s="26"/>
+      <c r="G76" s="27"/>
     </row>
     <row r="77" spans="7:7">
-      <c r="G77" s="29"/>
+      <c r="G77" s="30"/>
     </row>
     <row r="79" spans="7:7">
-      <c r="G79" s="28"/>
+      <c r="G79" s="29"/>
     </row>
     <row r="80" spans="7:7">
-      <c r="G80" s="28"/>
+      <c r="G80" s="29"/>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" t="s">
         <v>80</v>
       </c>
-      <c r="G81" s="26"/>
+      <c r="G81" s="27"/>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" t="s">
         <v>81</v>
       </c>
-      <c r="G83" s="29"/>
+      <c r="G83" s="30"/>
     </row>
     <row r="84" spans="7:7">
-      <c r="G84" s="29"/>
+      <c r="G84" s="30"/>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
@@ -10387,157 +10842,157 @@
       </c>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="30" t="s">
+      <c r="B106" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="30" t="s">
+      <c r="B110" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
     </row>
     <row r="112" spans="2:9">
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="I112" s="5" t="s">
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="I112" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
     </row>
     <row r="116" spans="2:7">
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
     </row>
     <row r="117" spans="2:7">
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
@@ -10555,10 +11010,10 @@
       </c>
     </row>
     <row r="134" spans="2:3">
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C134" s="4"/>
+      <c r="C134" s="7"/>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
@@ -10566,34 +11021,34 @@
       </c>
     </row>
     <row r="137" spans="2:6">
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
     </row>
     <row r="138" spans="2:8">
-      <c r="B138" s="31" t="s">
+      <c r="B138" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="H138" s="5" t="s">
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="H138" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="139" spans="2:6">
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10622,42 +11077,42 @@
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
@@ -10670,88 +11125,88 @@
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="G22" s="23" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="G22" s="24" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="G23" s="23"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="G24" s="23" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="G24" s="24" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="G26" s="5" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="G26" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="G27" s="14" t="s">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="G27" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
@@ -10813,7 +11268,7 @@
       </c>
     </row>
     <row r="7" ht="27" spans="2:2">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>133</v>
       </c>
     </row>
@@ -10833,173 +11288,173 @@
       </c>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="3:7">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="3:7">
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="3:7">
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="3:7">
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="3:7">
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" ht="14.25" spans="3:7">
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="3:7">
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="3:7">
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="19"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" ht="14.25" spans="3:7">
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="3:7">
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
@@ -11012,11 +11467,11 @@
       </c>
     </row>
     <row r="44" spans="4:6">
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
@@ -11024,11 +11479,11 @@
       </c>
     </row>
     <row r="46" spans="4:6">
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
@@ -11064,7 +11519,7 @@
       </c>
     </row>
     <row r="11" spans="10:10">
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="11" t="s">
         <v>161</v>
       </c>
     </row>
@@ -11094,289 +11549,289 @@
       </c>
     </row>
     <row r="20" spans="3:10">
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
       <c r="J20" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="21" spans="3:12">
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="J21" s="9" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="J21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="3:12">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="J22" s="11" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="J22" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="3:12">
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="J23" s="11" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="J23" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="3:12">
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="J24" s="11" t="s">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="J24" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="3:12">
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="J25" s="11" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="J25" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="3:12">
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="J26" s="11" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="J26" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="3:12">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="J27" s="11" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="J27" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="3:12">
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="J28" s="11" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="J28" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="3:12">
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="J29" s="11" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="J29" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="3:12">
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="J30" s="9" t="s">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="J30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="3:8">
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" spans="3:8">
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="3:8">
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="3:8">
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="3:8">
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="3:8">
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="3:8">
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
     </row>
     <row r="42" spans="3:8">
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" spans="3:8">
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
@@ -11399,7 +11854,7 @@
       </c>
     </row>
     <row r="61" spans="3:3">
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="3" t="s">
         <v>197</v>
       </c>
     </row>
@@ -11409,7 +11864,7 @@
       </c>
     </row>
     <row r="78" spans="11:11">
-      <c r="K78" s="5" t="s">
+      <c r="K78" s="3" t="s">
         <v>199</v>
       </c>
     </row>
@@ -11487,7 +11942,7 @@
       <c r="G225" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="K225" s="5" t="s">
+      <c r="K225" s="3" t="s">
         <v>216</v>
       </c>
     </row>
@@ -11513,8 +11968,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/造轮子.xlsx
+++ b/造轮子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="7"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="创建许可证文件" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="git log --oneline" sheetId="12" r:id="rId11"/>
     <sheet name="从git本地 创建&amp;删除 远程分支" sheetId="13" r:id="rId12"/>
     <sheet name="Webstorm中删除一大段" sheetId="14" r:id="rId13"/>
+    <sheet name="scss中使用 循环" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="247">
   <si>
     <t>github上选择Create new file</t>
   </si>
@@ -6027,6 +6028,73 @@
   </si>
   <si>
     <t>git push origin --delete branch-1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">关键字 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>through</t>
+    </r>
+  </si>
+  <si>
+    <t>$n：循环变量</t>
+  </si>
+  <si>
+    <t>$start：从哪个数开始</t>
+  </si>
+  <si>
+    <t>$end：从哪个数结束</t>
   </si>
 </sst>
 </file>
@@ -6039,9 +6107,16 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="48">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6127,13 +6202,6 @@
       <color rgb="FF458383"/>
       <name val="Consolas"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -6298,6 +6366,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6917,32 +6993,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -6951,22 +7030,25 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -6975,13 +7057,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
@@ -6990,25 +7072,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -7587,6 +7666,95 @@
         <a:xfrm>
           <a:off x="1384300" y="6870700"/>
           <a:ext cx="2905125" cy="2190750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="184150"/>
+          <a:ext cx="2857500" cy="2038350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4813300" y="184150"/>
+          <a:ext cx="2085975" cy="6600825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9904,12 +10072,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>221</v>
       </c>
     </row>
@@ -9919,11 +10087,11 @@
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
@@ -9931,15 +10099,15 @@
       </c>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
@@ -9947,17 +10115,17 @@
       </c>
     </row>
     <row r="18" spans="11:11">
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="11:11">
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="20" spans="11:11">
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -9967,20 +10135,20 @@
       </c>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10006,7 +10174,7 @@
       </c>
     </row>
     <row r="2" ht="18.75" spans="2:6">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>233</v>
       </c>
       <c r="F2" t="s">
@@ -10037,44 +10205,44 @@
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="4:5">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="4:5">
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="4" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="3" t="s">
         <v>242</v>
       </c>
     </row>
@@ -10101,6 +10269,52 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B15:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="15" spans="2:4">
+      <c r="B15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -10126,7 +10340,7 @@
       <c r="B45" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10168,22 +10382,22 @@
       </c>
     </row>
     <row r="68" spans="17:17">
-      <c r="Q68" s="3" t="s">
+      <c r="Q68" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="102" spans="17:17">
-      <c r="Q102" s="3" t="s">
+      <c r="Q102" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="112" spans="17:17">
-      <c r="Q112" s="24" t="s">
+      <c r="Q112" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="144" spans="7:7">
-      <c r="G144" s="1" t="s">
+      <c r="G144" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10196,15 +10410,15 @@
       </c>
     </row>
     <row r="146" spans="18:24">
-      <c r="R146" s="6" t="s">
+      <c r="R146" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S146" s="7"/>
-      <c r="T146" s="7"/>
-      <c r="U146" s="7"/>
-      <c r="V146" s="7"/>
-      <c r="W146" s="7"/>
-      <c r="X146" s="7"/>
+      <c r="S146" s="9"/>
+      <c r="T146" s="9"/>
+      <c r="U146" s="9"/>
+      <c r="V146" s="9"/>
+      <c r="W146" s="9"/>
+      <c r="X146" s="9"/>
     </row>
     <row r="153" spans="8:8">
       <c r="H153" t="s">
@@ -10217,33 +10431,33 @@
       </c>
     </row>
     <row r="181" spans="7:7">
-      <c r="G181" s="1" t="s">
+      <c r="G181" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="190" spans="16:19">
-      <c r="P190" s="6" t="s">
+      <c r="P190" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Q190" s="7"/>
-      <c r="R190" s="7"/>
-      <c r="S190" s="7"/>
+      <c r="Q190" s="9"/>
+      <c r="R190" s="9"/>
+      <c r="S190" s="9"/>
     </row>
     <row r="191" spans="16:19">
-      <c r="P191" s="6" t="s">
+      <c r="P191" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Q191" s="7"/>
-      <c r="R191" s="7"/>
-      <c r="S191" s="7"/>
+      <c r="Q191" s="9"/>
+      <c r="R191" s="9"/>
+      <c r="S191" s="9"/>
     </row>
     <row r="192" spans="16:19">
-      <c r="P192" s="6" t="s">
+      <c r="P192" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q192" s="7"/>
-      <c r="R192" s="7"/>
-      <c r="S192" s="7"/>
+      <c r="Q192" s="9"/>
+      <c r="R192" s="9"/>
+      <c r="S192" s="9"/>
     </row>
     <row r="194" spans="16:16">
       <c r="P194" t="s">
@@ -10274,72 +10488,72 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
@@ -10347,44 +10561,44 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
@@ -10392,120 +10606,120 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" t="s">
@@ -10516,30 +10730,30 @@
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
@@ -10547,29 +10761,29 @@
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="44" s="25" customFormat="1"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="44" s="26" customFormat="1"/>
     <row r="46" spans="2:2">
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -10589,148 +10803,148 @@
       </c>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="G52" s="6" t="s">
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="G52" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="G53" s="6" t="s">
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="G53" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="G54" s="6" t="s">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="G54" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="G56" s="6" t="s">
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="G56" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="G57" s="8" t="s">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="G57" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="G58" s="14" t="s">
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="G58" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="G59" s="6" t="s">
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="G59" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7" t="s">
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G60" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
     </row>
     <row r="61" spans="7:10">
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
     </row>
     <row r="62" spans="7:10">
-      <c r="G62" s="6" t="s">
+      <c r="G62" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
     </row>
     <row r="63" spans="7:10">
-      <c r="G63" s="6" t="s">
+      <c r="G63" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="28" t="s">
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="29" t="s">
         <v>71</v>
       </c>
     </row>
@@ -10738,35 +10952,35 @@
       <c r="B64" t="s">
         <v>72</v>
       </c>
-      <c r="G64" s="27"/>
+      <c r="G64" s="28"/>
     </row>
     <row r="65" spans="7:7">
-      <c r="G65" s="27"/>
+      <c r="G65" s="28"/>
     </row>
     <row r="66" spans="7:7">
-      <c r="G66" s="27"/>
+      <c r="G66" s="28"/>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="27"/>
+      <c r="G67" s="28"/>
     </row>
     <row r="68" spans="7:7">
-      <c r="G68" s="27"/>
+      <c r="G68" s="28"/>
     </row>
     <row r="69" spans="7:7">
-      <c r="G69" s="27"/>
+      <c r="G69" s="28"/>
     </row>
     <row r="71" spans="7:7">
-      <c r="G71" s="29"/>
+      <c r="G71" s="30"/>
     </row>
     <row r="72" spans="7:7">
-      <c r="G72" s="27"/>
+      <c r="G72" s="28"/>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" t="s">
         <v>73</v>
       </c>
-      <c r="G73" s="30"/>
-      <c r="J73" s="3" t="s">
+      <c r="G73" s="31"/>
+      <c r="J73" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -10777,7 +10991,7 @@
       <c r="C74" t="s">
         <v>75</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J74" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -10788,8 +11002,8 @@
       <c r="C75" t="s">
         <v>77</v>
       </c>
-      <c r="G75" s="29"/>
-      <c r="J75" s="3" t="s">
+      <c r="G75" s="30"/>
+      <c r="J75" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -10800,31 +11014,31 @@
       <c r="C76" t="s">
         <v>79</v>
       </c>
-      <c r="G76" s="27"/>
+      <c r="G76" s="28"/>
     </row>
     <row r="77" spans="7:7">
-      <c r="G77" s="30"/>
+      <c r="G77" s="31"/>
     </row>
     <row r="79" spans="7:7">
-      <c r="G79" s="29"/>
+      <c r="G79" s="30"/>
     </row>
     <row r="80" spans="7:7">
-      <c r="G80" s="29"/>
+      <c r="G80" s="30"/>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" t="s">
         <v>80</v>
       </c>
-      <c r="G81" s="27"/>
+      <c r="G81" s="28"/>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" t="s">
         <v>81</v>
       </c>
-      <c r="G83" s="30"/>
+      <c r="G83" s="31"/>
     </row>
     <row r="84" spans="7:7">
-      <c r="G84" s="30"/>
+      <c r="G84" s="31"/>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
@@ -10837,162 +11051,162 @@
       </c>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="31" t="s">
+      <c r="B106" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="14" t="s">
+      <c r="B109" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="31" t="s">
+      <c r="B110" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
     </row>
     <row r="112" spans="2:9">
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="I112" s="3" t="s">
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="I112" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
     </row>
     <row r="116" spans="2:7">
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
     </row>
     <row r="117" spans="2:7">
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
@@ -11010,10 +11224,10 @@
       </c>
     </row>
     <row r="134" spans="2:3">
-      <c r="B134" s="12" t="s">
+      <c r="B134" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C134" s="7"/>
+      <c r="C134" s="9"/>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
@@ -11021,34 +11235,34 @@
       </c>
     </row>
     <row r="137" spans="2:6">
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
     </row>
     <row r="138" spans="2:8">
-      <c r="B138" s="32" t="s">
+      <c r="B138" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="H138" s="3" t="s">
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="H138" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="139" spans="2:6">
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11069,7 +11283,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>107</v>
       </c>
       <c r="K2" t="s">
@@ -11077,42 +11291,42 @@
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="8"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
@@ -11125,88 +11339,88 @@
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="G22" s="24" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="G22" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="G23" s="24"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="G24" s="24" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="G24" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="G26" s="3" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="G26" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="G27" s="15" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="G27" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
@@ -11232,7 +11446,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C2" t="s">
@@ -11246,7 +11460,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C3" t="s">
@@ -11257,7 +11471,7 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C4" t="s">
@@ -11268,7 +11482,7 @@
       </c>
     </row>
     <row r="7" ht="27" spans="2:2">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>133</v>
       </c>
     </row>
@@ -11288,173 +11502,173 @@
       </c>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="3:7">
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="3:7">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="3:7">
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="3:7">
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="3:7">
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" ht="14.25" spans="3:7">
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="3:7">
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="3:7">
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="20"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="22"/>
     </row>
     <row r="30" ht="14.25" spans="3:7">
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
     </row>
     <row r="31" spans="3:7">
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
@@ -11467,11 +11681,11 @@
       </c>
     </row>
     <row r="44" spans="4:6">
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
@@ -11479,11 +11693,11 @@
       </c>
     </row>
     <row r="46" spans="4:6">
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
@@ -11509,7 +11723,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>159</v>
       </c>
     </row>
@@ -11519,7 +11733,7 @@
       </c>
     </row>
     <row r="11" spans="10:10">
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="13" t="s">
         <v>161</v>
       </c>
     </row>
@@ -11539,7 +11753,7 @@
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>165</v>
       </c>
     </row>
@@ -11549,289 +11763,289 @@
       </c>
     </row>
     <row r="20" spans="3:10">
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
       <c r="J20" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="21" spans="3:12">
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="J21" s="6" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="J21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" spans="3:12">
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="J22" s="12" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="J22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
     </row>
     <row r="23" spans="3:12">
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="J23" s="12" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="J23" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
     </row>
     <row r="24" spans="3:12">
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="J24" s="12" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="J24" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
     </row>
     <row r="25" spans="3:12">
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="J25" s="12" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="J25" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
     </row>
     <row r="26" spans="3:12">
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="J26" s="12" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="J26" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
     </row>
     <row r="27" spans="3:12">
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="J27" s="12" t="s">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="J27" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
     </row>
     <row r="28" spans="3:12">
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="J28" s="12" t="s">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="J28" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
     </row>
     <row r="29" spans="3:12">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="J29" s="12" t="s">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="J29" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
     </row>
     <row r="30" spans="3:12">
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="J30" s="6" t="s">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="J30" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="3:8">
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="3:8">
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="3:8">
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="3:8">
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="3:8">
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="3:8">
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="3:8">
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="3:8">
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="3:8">
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
@@ -11844,27 +12058,27 @@
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="59" spans="3:3">
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="4" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="61" spans="3:3">
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="5" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="4" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="78" spans="11:11">
-      <c r="K78" s="3" t="s">
+      <c r="K78" s="5" t="s">
         <v>199</v>
       </c>
     </row>
@@ -11905,7 +12119,7 @@
       </c>
     </row>
     <row r="211" spans="2:2">
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="4" t="s">
         <v>208</v>
       </c>
     </row>
@@ -11920,15 +12134,15 @@
       </c>
     </row>
     <row r="215" spans="4:7">
-      <c r="D215" s="1" t="s">
+      <c r="D215" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="G215" s="2" t="s">
+      <c r="G215" s="4" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="216" spans="4:4">
-      <c r="D216" s="1"/>
+      <c r="D216" s="3"/>
     </row>
     <row r="224" spans="3:3">
       <c r="C224" t="s">
@@ -11936,13 +12150,13 @@
       </c>
     </row>
     <row r="225" spans="4:11">
-      <c r="D225" s="1" t="s">
+      <c r="D225" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="G225" s="2" t="s">
+      <c r="G225" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="K225" s="3" t="s">
+      <c r="K225" s="5" t="s">
         <v>216</v>
       </c>
     </row>
@@ -11968,7 +12182,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -11991,7 +12205,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>219</v>
       </c>
     </row>

--- a/造轮子.xlsx
+++ b/造轮子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="8" activeTab="13"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="创建许可证文件" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="251">
   <si>
     <t>github上选择Create new file</t>
   </si>
@@ -5501,6 +5501,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">v-model是 </t>
     </r>
     <r>
@@ -5802,17 +5809,24 @@
   </si>
   <si>
     <r>
-      <t>组件内部的@input事件</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <rPr>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>组件内部的@input事件</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>触发$emit的事件名称必须为</t>
     </r>
     <r>
@@ -5839,17 +5853,24 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">并且$emit事件的参数为 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <rPr>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">并且$emit事件的参数为 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>$event.target.value</t>
     </r>
   </si>
@@ -5987,6 +6008,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2.从本地分支</t>
     </r>
     <r>
@@ -6002,17 +6030,8 @@
     </r>
   </si>
   <si>
-    <t>git push origin branch-name:branch-xxx</t>
-  </si>
-  <si>
-    <t>branch-name：本地分支名</t>
-  </si>
-  <si>
-    <t>branch-xxx：远程分支名</t>
-  </si>
-  <si>
-    <r>
-      <t>3.本地</t>
+    <r>
+      <t xml:space="preserve">git push </t>
     </r>
     <r>
       <rPr>
@@ -6023,6 +6042,138 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>-u</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> origin branch-name:branch-xxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>注：如果未加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>则创建的本地分支在更改代码</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时会失败。</t>
+    </r>
+  </si>
+  <si>
+    <t>branch-name：本地分支名</t>
+  </si>
+  <si>
+    <t>branch-xxx：远程分支名</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：本地分支关联远程分支</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.本地</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>删除远程分支</t>
     </r>
   </si>
@@ -6030,7 +6181,20 @@
     <t>git push origin --delete branch-1</t>
   </si>
   <si>
-    <r>
+    <t xml:space="preserve"> --delete 可简写为 -d</t>
+  </si>
+  <si>
+    <t>git push origin -d branch-1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">关键字 </t>
     </r>
     <r>
@@ -6103,9 +6267,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="48">
     <font>
@@ -6225,11 +6389,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6249,16 +6442,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6280,67 +6512,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6353,17 +6525,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6472,6 +6636,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6490,13 +6732,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6508,97 +6750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6616,13 +6768,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6634,13 +6780,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6652,7 +6804,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6749,23 +6913,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6775,15 +6944,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6818,13 +6978,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6851,10 +7015,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6863,141 +7027,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -7514,13 +7675,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7538,7 +7699,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1384300" y="6184900"/>
+          <a:off x="1384300" y="6699250"/>
           <a:ext cx="2400300" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7556,18 +7717,18 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>441325</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="6" name="图片 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7580,49 +7741,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1384300" y="1555750"/>
-          <a:ext cx="4543425" cy="1114425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1384300" y="2755900"/>
+          <a:off x="1384300" y="3270250"/>
           <a:ext cx="2990850" cy="2505075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7640,18 +7759,60 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>174625</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384300" y="7385050"/>
+          <a:ext cx="2905125" cy="2190750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7664,8 +7825,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1384300" y="6870700"/>
-          <a:ext cx="2905125" cy="2190750"/>
+          <a:off x="1384300" y="1727200"/>
+          <a:ext cx="4981575" cy="1276350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10072,12 +10233,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>221</v>
       </c>
     </row>
@@ -10087,11 +10248,11 @@
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
@@ -10099,15 +10260,15 @@
       </c>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
@@ -10115,17 +10276,17 @@
       </c>
     </row>
     <row r="18" spans="11:11">
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="11:11">
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="20" spans="11:11">
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -10135,20 +10296,20 @@
       </c>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10174,7 +10335,7 @@
       </c>
     </row>
     <row r="2" ht="18.75" spans="2:6">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>233</v>
       </c>
       <c r="F2" t="s">
@@ -10191,13 +10352,13 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E36"/>
+  <dimension ref="B2:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -10205,45 +10366,83 @@
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
-      <c r="C6" s="3" t="s">
+    <row r="6" spans="3:10">
+      <c r="C6" s="2" t="s">
         <v>238</v>
       </c>
+      <c r="J6" s="4" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="4:5">
-      <c r="D8" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E8" s="6"/>
+      <c r="D8" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="4:5">
-      <c r="D9" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="3" t="s">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" s="4" t="s">
         <v>242</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10">
+      <c r="C39" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="8:10">
+      <c r="H40" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="8:8">
+      <c r="H41" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -10274,7 +10473,7 @@
   <sheetPr/>
   <dimension ref="B15:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
@@ -10282,31 +10481,31 @@
   <sheetData>
     <row r="15" spans="2:4">
       <c r="B15" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10340,7 +10539,7 @@
       <c r="B45" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10382,12 +10581,12 @@
       </c>
     </row>
     <row r="68" spans="17:17">
-      <c r="Q68" s="5" t="s">
+      <c r="Q68" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="102" spans="17:17">
-      <c r="Q102" s="5" t="s">
+      <c r="Q102" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10397,7 +10596,7 @@
       </c>
     </row>
     <row r="144" spans="7:7">
-      <c r="G144" s="3" t="s">
+      <c r="G144" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10410,15 +10609,15 @@
       </c>
     </row>
     <row r="146" spans="18:24">
-      <c r="R146" s="8" t="s">
+      <c r="R146" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S146" s="9"/>
-      <c r="T146" s="9"/>
-      <c r="U146" s="9"/>
-      <c r="V146" s="9"/>
-      <c r="W146" s="9"/>
-      <c r="X146" s="9"/>
+      <c r="S146" s="8"/>
+      <c r="T146" s="8"/>
+      <c r="U146" s="8"/>
+      <c r="V146" s="8"/>
+      <c r="W146" s="8"/>
+      <c r="X146" s="8"/>
     </row>
     <row r="153" spans="8:8">
       <c r="H153" t="s">
@@ -10431,33 +10630,33 @@
       </c>
     </row>
     <row r="181" spans="7:7">
-      <c r="G181" s="3" t="s">
+      <c r="G181" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="190" spans="16:19">
-      <c r="P190" s="8" t="s">
+      <c r="P190" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q190" s="9"/>
-      <c r="R190" s="9"/>
-      <c r="S190" s="9"/>
+      <c r="Q190" s="8"/>
+      <c r="R190" s="8"/>
+      <c r="S190" s="8"/>
     </row>
     <row r="191" spans="16:19">
-      <c r="P191" s="8" t="s">
+      <c r="P191" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Q191" s="9"/>
-      <c r="R191" s="9"/>
-      <c r="S191" s="9"/>
+      <c r="Q191" s="8"/>
+      <c r="R191" s="8"/>
+      <c r="S191" s="8"/>
     </row>
     <row r="192" spans="16:19">
-      <c r="P192" s="8" t="s">
+      <c r="P192" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q192" s="9"/>
-      <c r="R192" s="9"/>
-      <c r="S192" s="9"/>
+      <c r="Q192" s="8"/>
+      <c r="R192" s="8"/>
+      <c r="S192" s="8"/>
     </row>
     <row r="194" spans="16:16">
       <c r="P194" t="s">
@@ -10488,72 +10687,72 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
@@ -10561,44 +10760,44 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
@@ -10606,120 +10805,120 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" t="s">
@@ -10730,30 +10929,30 @@
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
@@ -10761,29 +10960,29 @@
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-    </row>
-    <row r="44" s="26" customFormat="1"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="44" s="25" customFormat="1"/>
     <row r="46" spans="2:2">
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -10803,148 +11002,148 @@
       </c>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="G52" s="8" t="s">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="G52" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="G53" s="8" t="s">
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="G53" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="G54" s="8" t="s">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="G54" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="G56" s="8" t="s">
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="G56" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="G57" s="10" t="s">
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="G57" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="G58" s="16" t="s">
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="G58" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="G59" s="8" t="s">
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="G59" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9" t="s">
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G60" s="8" t="s">
+      <c r="G60" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
     </row>
     <row r="61" spans="7:10">
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
     </row>
     <row r="62" spans="7:10">
-      <c r="G62" s="8" t="s">
+      <c r="G62" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
     </row>
     <row r="63" spans="7:10">
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="29" t="s">
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="28" t="s">
         <v>71</v>
       </c>
     </row>
@@ -10952,35 +11151,35 @@
       <c r="B64" t="s">
         <v>72</v>
       </c>
-      <c r="G64" s="28"/>
+      <c r="G64" s="27"/>
     </row>
     <row r="65" spans="7:7">
-      <c r="G65" s="28"/>
+      <c r="G65" s="27"/>
     </row>
     <row r="66" spans="7:7">
-      <c r="G66" s="28"/>
+      <c r="G66" s="27"/>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="28"/>
+      <c r="G67" s="27"/>
     </row>
     <row r="68" spans="7:7">
-      <c r="G68" s="28"/>
+      <c r="G68" s="27"/>
     </row>
     <row r="69" spans="7:7">
-      <c r="G69" s="28"/>
+      <c r="G69" s="27"/>
     </row>
     <row r="71" spans="7:7">
-      <c r="G71" s="30"/>
+      <c r="G71" s="29"/>
     </row>
     <row r="72" spans="7:7">
-      <c r="G72" s="28"/>
+      <c r="G72" s="27"/>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" t="s">
         <v>73</v>
       </c>
-      <c r="G73" s="31"/>
-      <c r="J73" s="5" t="s">
+      <c r="G73" s="30"/>
+      <c r="J73" s="4" t="s">
         <v>74</v>
       </c>
     </row>
@@ -10991,7 +11190,7 @@
       <c r="C74" t="s">
         <v>75</v>
       </c>
-      <c r="J74" s="5" t="s">
+      <c r="J74" s="4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -11002,8 +11201,8 @@
       <c r="C75" t="s">
         <v>77</v>
       </c>
-      <c r="G75" s="30"/>
-      <c r="J75" s="5" t="s">
+      <c r="G75" s="29"/>
+      <c r="J75" s="4" t="s">
         <v>78</v>
       </c>
     </row>
@@ -11014,31 +11213,31 @@
       <c r="C76" t="s">
         <v>79</v>
       </c>
-      <c r="G76" s="28"/>
+      <c r="G76" s="27"/>
     </row>
     <row r="77" spans="7:7">
-      <c r="G77" s="31"/>
+      <c r="G77" s="30"/>
     </row>
     <row r="79" spans="7:7">
-      <c r="G79" s="30"/>
+      <c r="G79" s="29"/>
     </row>
     <row r="80" spans="7:7">
-      <c r="G80" s="30"/>
+      <c r="G80" s="29"/>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" t="s">
         <v>80</v>
       </c>
-      <c r="G81" s="28"/>
+      <c r="G81" s="27"/>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" t="s">
         <v>81</v>
       </c>
-      <c r="G83" s="31"/>
+      <c r="G83" s="30"/>
     </row>
     <row r="84" spans="7:7">
-      <c r="G84" s="31"/>
+      <c r="G84" s="30"/>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
@@ -11051,162 +11250,162 @@
       </c>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="32" t="s">
+      <c r="B106" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="32" t="s">
+      <c r="B110" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
     </row>
     <row r="112" spans="2:9">
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="I112" s="5" t="s">
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="I112" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
     </row>
     <row r="116" spans="2:7">
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
     </row>
     <row r="117" spans="2:7">
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
@@ -11224,10 +11423,10 @@
       </c>
     </row>
     <row r="134" spans="2:3">
-      <c r="B134" s="14" t="s">
+      <c r="B134" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C134" s="9"/>
+      <c r="C134" s="8"/>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
@@ -11235,34 +11434,34 @@
       </c>
     </row>
     <row r="137" spans="2:6">
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
     </row>
     <row r="138" spans="2:8">
-      <c r="B138" s="33" t="s">
+      <c r="B138" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="H138" s="5" t="s">
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="H138" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="139" spans="2:6">
-      <c r="B139" s="8" t="s">
+      <c r="B139" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11283,7 +11482,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>107</v>
       </c>
       <c r="K2" t="s">
@@ -11291,42 +11490,42 @@
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="10"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
@@ -11339,88 +11538,88 @@
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
       <c r="G22" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
       <c r="G24" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="G26" s="5" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="G26" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="G27" s="17" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="G27" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
@@ -11446,7 +11645,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C2" t="s">
@@ -11460,7 +11659,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C3" t="s">
@@ -11471,7 +11670,7 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C4" t="s">
@@ -11482,7 +11681,7 @@
       </c>
     </row>
     <row r="7" ht="27" spans="2:2">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>133</v>
       </c>
     </row>
@@ -11502,173 +11701,173 @@
       </c>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="3:7">
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="3:7">
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="3:7">
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="3:7">
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="3:7">
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" ht="14.25" spans="3:7">
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="3:7">
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" spans="3:7">
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="22"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="21"/>
     </row>
     <row r="30" ht="14.25" spans="3:7">
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="25"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="3:7">
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
@@ -11681,11 +11880,11 @@
       </c>
     </row>
     <row r="44" spans="4:6">
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
@@ -11693,11 +11892,11 @@
       </c>
     </row>
     <row r="46" spans="4:6">
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
@@ -11723,7 +11922,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>159</v>
       </c>
     </row>
@@ -11733,7 +11932,7 @@
       </c>
     </row>
     <row r="11" spans="10:10">
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="12" t="s">
         <v>161</v>
       </c>
     </row>
@@ -11753,7 +11952,7 @@
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>165</v>
       </c>
     </row>
@@ -11763,289 +11962,289 @@
       </c>
     </row>
     <row r="20" spans="3:10">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
       <c r="J20" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="21" spans="3:12">
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="J21" s="8" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="J21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="3:12">
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="J22" s="14" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="J22" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
     </row>
     <row r="23" spans="3:12">
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="J23" s="14" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="J23" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
     </row>
     <row r="24" spans="3:12">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="J24" s="14" t="s">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="J24" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
     </row>
     <row r="25" spans="3:12">
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="J25" s="14" t="s">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="J25" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
     </row>
     <row r="26" spans="3:12">
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="J26" s="14" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="J26" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
     </row>
     <row r="27" spans="3:12">
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="J27" s="14" t="s">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="J27" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
     </row>
     <row r="28" spans="3:12">
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="J28" s="14" t="s">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="J28" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
     </row>
     <row r="29" spans="3:12">
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="J29" s="14" t="s">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="J29" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
     </row>
     <row r="30" spans="3:12">
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="J30" s="8" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="J30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="3:8">
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="3:8">
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="3:8">
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="3:8">
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" spans="3:8">
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="3:8">
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="3:8">
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42" spans="3:8">
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="3:8">
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
@@ -12058,27 +12257,27 @@
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="59" spans="3:3">
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="61" spans="3:3">
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="4" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="78" spans="11:11">
-      <c r="K78" s="5" t="s">
+      <c r="K78" s="4" t="s">
         <v>199</v>
       </c>
     </row>
@@ -12119,7 +12318,7 @@
       </c>
     </row>
     <row r="211" spans="2:2">
-      <c r="B211" s="4" t="s">
+      <c r="B211" s="3" t="s">
         <v>208</v>
       </c>
     </row>
@@ -12134,15 +12333,15 @@
       </c>
     </row>
     <row r="215" spans="4:7">
-      <c r="D215" s="3" t="s">
+      <c r="D215" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G215" s="4" t="s">
+      <c r="G215" s="3" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="216" spans="4:4">
-      <c r="D216" s="3"/>
+      <c r="D216" s="2"/>
     </row>
     <row r="224" spans="3:3">
       <c r="C224" t="s">
@@ -12150,13 +12349,13 @@
       </c>
     </row>
     <row r="225" spans="4:11">
-      <c r="D225" s="3" t="s">
+      <c r="D225" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G225" s="4" t="s">
+      <c r="G225" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="K225" s="5" t="s">
+      <c r="K225" s="4" t="s">
         <v>216</v>
       </c>
     </row>
@@ -12205,7 +12404,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>219</v>
       </c>
     </row>

--- a/造轮子.xlsx
+++ b/造轮子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="8" activeTab="11"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="创建许可证文件" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,16 @@
     <sheet name="组件实现v-model" sheetId="11" r:id="rId10"/>
     <sheet name="git log --oneline" sheetId="12" r:id="rId11"/>
     <sheet name="从git本地 创建&amp;删除 远程分支" sheetId="13" r:id="rId12"/>
-    <sheet name="Webstorm中删除一大段" sheetId="14" r:id="rId13"/>
-    <sheet name="scss中使用 循环" sheetId="15" r:id="rId14"/>
+    <sheet name="git从本地merge分支" sheetId="16" r:id="rId13"/>
+    <sheet name="Webstorm中删除一大段" sheetId="14" r:id="rId14"/>
+    <sheet name="scss中使用 循环" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="262">
   <si>
     <t>github上选择Create new file</t>
   </si>
@@ -6031,6 +6032,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">git push </t>
     </r>
     <r>
@@ -6058,6 +6067,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>注：如果未加</t>
     </r>
     <r>
@@ -6131,6 +6147,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -6185,6 +6208,106 @@
   </si>
   <si>
     <t>git push origin -d branch-1</t>
+  </si>
+  <si>
+    <t>本地分支 合并到 master分支</t>
+  </si>
+  <si>
+    <t>1.保证本地分支已经commit</t>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>切换到master分支</t>
+    </r>
+  </si>
+  <si>
+    <t>git checkout master</t>
+  </si>
+  <si>
+    <t>3.更新master分支代码</t>
+  </si>
+  <si>
+    <t>git pull</t>
+  </si>
+  <si>
+    <t>4.合并本地分支</t>
+  </si>
+  <si>
+    <t>git merge local-branch(本地分支名)</t>
+  </si>
+  <si>
+    <r>
+      <t>merge时如果</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>冲突</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，解决冲突后，先执行 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git add .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，然后执行 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git commit -m "信息"</t>
+    </r>
+  </si>
+  <si>
+    <t>5.更新远程master分支</t>
+  </si>
+  <si>
+    <t>git push</t>
   </si>
   <si>
     <r>
@@ -6268,8 +6391,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="48">
     <font>
@@ -6287,16 +6410,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6390,12 +6513,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -6412,7 +6536,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6428,29 +6589,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6466,7 +6605,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6475,22 +6621,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6512,24 +6642,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6542,7 +6665,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6550,7 +6673,7 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6636,7 +6759,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6648,13 +6915,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6666,109 +6927,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6780,43 +6939,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6910,11 +7033,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6930,6 +7059,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -6939,40 +7077,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -6993,17 +7107,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7015,10 +7138,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7027,150 +7150,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -10233,12 +10353,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -10248,11 +10368,11 @@
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
@@ -10260,15 +10380,15 @@
       </c>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
@@ -10276,17 +10396,17 @@
       </c>
     </row>
     <row r="18" spans="11:11">
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="11:11">
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="20" spans="11:11">
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
         <v>228</v>
       </c>
     </row>
@@ -10296,20 +10416,20 @@
       </c>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10335,7 +10455,7 @@
       </c>
     </row>
     <row r="2" ht="18.75" spans="2:6">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>233</v>
       </c>
       <c r="F2" t="s">
@@ -10354,7 +10474,7 @@
   <sheetPr/>
   <dimension ref="B2:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -10366,79 +10486,79 @@
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="6" spans="3:10">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="4:5">
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="4:5">
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="4:5">
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="4:5">
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="4:5">
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="4:5">
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="39" spans="3:10">
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
     </row>
     <row r="40" spans="8:10">
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" t="s">
@@ -10453,6 +10573,79 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" t="s">
+        <v>253</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" t="s">
+        <v>254</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -10468,7 +10661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B15:D18"/>
@@ -10481,28 +10674,28 @@
   <sheetData>
     <row r="15" spans="2:4">
       <c r="B15" s="1" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="1" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="1" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -10539,7 +10732,7 @@
       <c r="B45" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10581,12 +10774,12 @@
       </c>
     </row>
     <row r="68" spans="17:17">
-      <c r="Q68" s="4" t="s">
+      <c r="Q68" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="102" spans="17:17">
-      <c r="Q102" s="4" t="s">
+      <c r="Q102" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10596,7 +10789,7 @@
       </c>
     </row>
     <row r="144" spans="7:7">
-      <c r="G144" s="2" t="s">
+      <c r="G144" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10609,15 +10802,15 @@
       </c>
     </row>
     <row r="146" spans="18:24">
-      <c r="R146" s="7" t="s">
+      <c r="R146" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S146" s="8"/>
-      <c r="T146" s="8"/>
-      <c r="U146" s="8"/>
-      <c r="V146" s="8"/>
-      <c r="W146" s="8"/>
-      <c r="X146" s="8"/>
+      <c r="S146" s="7"/>
+      <c r="T146" s="7"/>
+      <c r="U146" s="7"/>
+      <c r="V146" s="7"/>
+      <c r="W146" s="7"/>
+      <c r="X146" s="7"/>
     </row>
     <row r="153" spans="8:8">
       <c r="H153" t="s">
@@ -10630,33 +10823,33 @@
       </c>
     </row>
     <row r="181" spans="7:7">
-      <c r="G181" s="2" t="s">
+      <c r="G181" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="190" spans="16:19">
-      <c r="P190" s="7" t="s">
+      <c r="P190" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q190" s="8"/>
-      <c r="R190" s="8"/>
-      <c r="S190" s="8"/>
+      <c r="Q190" s="7"/>
+      <c r="R190" s="7"/>
+      <c r="S190" s="7"/>
     </row>
     <row r="191" spans="16:19">
-      <c r="P191" s="7" t="s">
+      <c r="P191" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Q191" s="8"/>
-      <c r="R191" s="8"/>
-      <c r="S191" s="8"/>
+      <c r="Q191" s="7"/>
+      <c r="R191" s="7"/>
+      <c r="S191" s="7"/>
     </row>
     <row r="192" spans="16:19">
-      <c r="P192" s="7" t="s">
+      <c r="P192" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q192" s="8"/>
-      <c r="R192" s="8"/>
-      <c r="S192" s="8"/>
+      <c r="Q192" s="7"/>
+      <c r="R192" s="7"/>
+      <c r="S192" s="7"/>
     </row>
     <row r="194" spans="16:16">
       <c r="P194" t="s">
@@ -10687,72 +10880,72 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
@@ -10760,44 +10953,44 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
@@ -10805,120 +10998,120 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" t="s">
@@ -10929,30 +11122,30 @@
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
@@ -10960,29 +11153,29 @@
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="44" s="25" customFormat="1"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="44" s="24" customFormat="1"/>
     <row r="46" spans="2:2">
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -11002,148 +11195,148 @@
       </c>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="G52" s="7" t="s">
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="G52" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="G53" s="7" t="s">
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="G53" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="G54" s="7" t="s">
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="G54" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="G56" s="7" t="s">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="G56" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="G57" s="9" t="s">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="G57" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="G58" s="15" t="s">
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="G58" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="G59" s="7" t="s">
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="G59" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8" t="s">
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
     </row>
     <row r="61" spans="7:10">
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
     </row>
     <row r="62" spans="7:10">
-      <c r="G62" s="7" t="s">
+      <c r="G62" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
     </row>
     <row r="63" spans="7:10">
-      <c r="G63" s="7" t="s">
+      <c r="G63" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="28" t="s">
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="27" t="s">
         <v>71</v>
       </c>
     </row>
@@ -11151,35 +11344,35 @@
       <c r="B64" t="s">
         <v>72</v>
       </c>
-      <c r="G64" s="27"/>
+      <c r="G64" s="26"/>
     </row>
     <row r="65" spans="7:7">
-      <c r="G65" s="27"/>
+      <c r="G65" s="26"/>
     </row>
     <row r="66" spans="7:7">
-      <c r="G66" s="27"/>
+      <c r="G66" s="26"/>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="27"/>
+      <c r="G67" s="26"/>
     </row>
     <row r="68" spans="7:7">
-      <c r="G68" s="27"/>
+      <c r="G68" s="26"/>
     </row>
     <row r="69" spans="7:7">
-      <c r="G69" s="27"/>
+      <c r="G69" s="26"/>
     </row>
     <row r="71" spans="7:7">
-      <c r="G71" s="29"/>
+      <c r="G71" s="28"/>
     </row>
     <row r="72" spans="7:7">
-      <c r="G72" s="27"/>
+      <c r="G72" s="26"/>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" t="s">
         <v>73</v>
       </c>
-      <c r="G73" s="30"/>
-      <c r="J73" s="4" t="s">
+      <c r="G73" s="29"/>
+      <c r="J73" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11190,7 +11383,7 @@
       <c r="C74" t="s">
         <v>75</v>
       </c>
-      <c r="J74" s="4" t="s">
+      <c r="J74" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -11201,8 +11394,8 @@
       <c r="C75" t="s">
         <v>77</v>
       </c>
-      <c r="G75" s="29"/>
-      <c r="J75" s="4" t="s">
+      <c r="G75" s="28"/>
+      <c r="J75" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -11213,31 +11406,31 @@
       <c r="C76" t="s">
         <v>79</v>
       </c>
-      <c r="G76" s="27"/>
+      <c r="G76" s="26"/>
     </row>
     <row r="77" spans="7:7">
-      <c r="G77" s="30"/>
+      <c r="G77" s="29"/>
     </row>
     <row r="79" spans="7:7">
-      <c r="G79" s="29"/>
+      <c r="G79" s="28"/>
     </row>
     <row r="80" spans="7:7">
-      <c r="G80" s="29"/>
+      <c r="G80" s="28"/>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" t="s">
         <v>80</v>
       </c>
-      <c r="G81" s="27"/>
+      <c r="G81" s="26"/>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" t="s">
         <v>81</v>
       </c>
-      <c r="G83" s="30"/>
+      <c r="G83" s="29"/>
     </row>
     <row r="84" spans="7:7">
-      <c r="G84" s="30"/>
+      <c r="G84" s="29"/>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
@@ -11250,162 +11443,162 @@
       </c>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="15" t="s">
+      <c r="B103" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="31" t="s">
+      <c r="B106" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="31" t="s">
+      <c r="B110" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
     </row>
     <row r="112" spans="2:9">
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="I112" s="4" t="s">
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="I112" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
     </row>
     <row r="116" spans="2:7">
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
     </row>
     <row r="117" spans="2:7">
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
@@ -11423,10 +11616,10 @@
       </c>
     </row>
     <row r="134" spans="2:3">
-      <c r="B134" s="13" t="s">
+      <c r="B134" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C134" s="8"/>
+      <c r="C134" s="7"/>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
@@ -11434,34 +11627,34 @@
       </c>
     </row>
     <row r="137" spans="2:6">
-      <c r="B137" s="11" t="s">
+      <c r="B137" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
     </row>
     <row r="138" spans="2:8">
-      <c r="B138" s="32" t="s">
+      <c r="B138" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
-      <c r="H138" s="4" t="s">
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="H138" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="139" spans="2:6">
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11482,7 +11675,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>107</v>
       </c>
       <c r="K2" t="s">
@@ -11490,42 +11683,42 @@
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="9"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
@@ -11538,88 +11731,88 @@
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
       <c r="G22" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
       <c r="G24" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="G26" s="4" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="G26" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="G27" s="16" t="s">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="G27" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
@@ -11645,7 +11838,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C2" t="s">
@@ -11659,7 +11852,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C3" t="s">
@@ -11670,7 +11863,7 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C4" t="s">
@@ -11681,7 +11874,7 @@
       </c>
     </row>
     <row r="7" ht="27" spans="2:2">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>133</v>
       </c>
     </row>
@@ -11701,173 +11894,173 @@
       </c>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="3:7">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="3:7">
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="3:7">
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="3:7">
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="3:7">
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" ht="14.25" spans="3:7">
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="3:7">
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="3:7">
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="21"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" ht="14.25" spans="3:7">
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="3:7">
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
@@ -11880,11 +12073,11 @@
       </c>
     </row>
     <row r="44" spans="4:6">
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
@@ -11892,11 +12085,11 @@
       </c>
     </row>
     <row r="46" spans="4:6">
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
@@ -11922,7 +12115,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>159</v>
       </c>
     </row>
@@ -11932,7 +12125,7 @@
       </c>
     </row>
     <row r="11" spans="10:10">
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="11" t="s">
         <v>161</v>
       </c>
     </row>
@@ -11952,7 +12145,7 @@
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>165</v>
       </c>
     </row>
@@ -11962,289 +12155,289 @@
       </c>
     </row>
     <row r="20" spans="3:10">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
       <c r="J20" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="21" spans="3:12">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="J21" s="7" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="J21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="3:12">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="J22" s="13" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="J22" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="3:12">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="J23" s="13" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="J23" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="3:12">
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="J24" s="13" t="s">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="J24" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="3:12">
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="J25" s="13" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="J25" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="3:12">
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="J26" s="13" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="J26" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="3:12">
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="J27" s="13" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="J27" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="3:12">
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="J28" s="13" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="J28" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="3:12">
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="J29" s="13" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="J29" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="3:12">
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="J30" s="7" t="s">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="J30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="3:8">
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" spans="3:8">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="3:8">
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="3:8">
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="3:8">
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="3:8">
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="3:8">
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
     </row>
     <row r="42" spans="3:8">
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" spans="3:8">
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
@@ -12257,27 +12450,27 @@
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="59" spans="3:3">
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="61" spans="3:3">
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="78" spans="11:11">
-      <c r="K78" s="4" t="s">
+      <c r="K78" s="3" t="s">
         <v>199</v>
       </c>
     </row>
@@ -12318,7 +12511,7 @@
       </c>
     </row>
     <row r="211" spans="2:2">
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="2" t="s">
         <v>208</v>
       </c>
     </row>
@@ -12333,15 +12526,15 @@
       </c>
     </row>
     <row r="215" spans="4:7">
-      <c r="D215" s="2" t="s">
+      <c r="D215" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="G215" s="3" t="s">
+      <c r="G215" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="216" spans="4:4">
-      <c r="D216" s="2"/>
+      <c r="D216" s="4"/>
     </row>
     <row r="224" spans="3:3">
       <c r="C224" t="s">
@@ -12349,13 +12542,13 @@
       </c>
     </row>
     <row r="225" spans="4:11">
-      <c r="D225" s="2" t="s">
+      <c r="D225" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="G225" s="3" t="s">
+      <c r="G225" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="K225" s="4" t="s">
+      <c r="K225" s="3" t="s">
         <v>216</v>
       </c>
     </row>
@@ -12404,7 +12597,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>219</v>
       </c>
     </row>

--- a/造轮子.xlsx
+++ b/造轮子.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="264">
   <si>
     <t>github上选择Create new file</t>
   </si>
@@ -6217,6 +6217,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2.</t>
     </r>
     <r>
@@ -6247,60 +6254,96 @@
   </si>
   <si>
     <r>
-      <t>merge时如果</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <rPr>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>冲突</t>
-    </r>
-    <r>
-      <rPr>
+      <t>merge时如果</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">，解决冲突后，先执行 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>冲突</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>git add .</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">，解决冲突后，先执行 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ，然后执行 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>git add .</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> ，然后执行 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>git commit -m "信息"</t>
+    </r>
+  </si>
+  <si>
+    <t>git status -sb</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">有 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ahead</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，说明合并成功。</t>
     </r>
   </si>
   <si>
@@ -6390,9 +6433,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="48">
     <font>
@@ -6513,7 +6556,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6521,22 +6564,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6549,11 +6577,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6564,11 +6592,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6587,9 +6638,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6603,16 +6667,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6620,7 +6677,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6628,28 +6693,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6759,13 +6802,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6777,103 +6940,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6891,55 +6964,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7034,16 +7077,49 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7057,11 +7133,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7091,45 +7173,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7138,10 +7181,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7150,16 +7193,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7168,115 +7211,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7963,6 +8006,53 @@
 </file>
 
 <file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>517525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384300" y="2584450"/>
+          <a:ext cx="2562225" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10575,10 +10665,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:H16"/>
+  <dimension ref="B2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -10629,19 +10719,30 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
+    <row r="15" spans="3:3">
+      <c r="C15" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
-      <c r="C16" t="s">
+    <row r="17" spans="7:7">
+      <c r="G17" s="3" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10674,28 +10775,28 @@
   <sheetData>
     <row r="15" spans="2:4">
       <c r="B15" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>

--- a/造轮子.xlsx
+++ b/造轮子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="9" activeTab="12"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="创建许可证文件" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,7 @@
     <sheet name="git log --oneline" sheetId="12" r:id="rId11"/>
     <sheet name="从git本地 创建&amp;删除 远程分支" sheetId="13" r:id="rId12"/>
     <sheet name="git从本地merge分支" sheetId="16" r:id="rId13"/>
-    <sheet name="Webstorm中删除一大段" sheetId="14" r:id="rId14"/>
-    <sheet name="scss中使用 循环" sheetId="15" r:id="rId15"/>
+    <sheet name="scss中使用 循环" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -6322,6 +6321,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">有 </t>
     </r>
     <r>
@@ -6432,10 +6438,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="48">
     <font>
@@ -6556,7 +6562,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6571,7 +6577,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6585,46 +6598,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6645,8 +6628,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6659,27 +6650,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6802,7 +6808,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6814,7 +6820,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6826,7 +6844,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6838,7 +6892,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6850,61 +6910,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6922,67 +6988,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7091,30 +7097,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -7126,8 +7108,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7150,10 +7134,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7173,6 +7164,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7181,10 +7187,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7193,133 +7199,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10564,7 +10570,7 @@
   <sheetPr/>
   <dimension ref="B2:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -10667,7 +10673,7 @@
   <sheetPr/>
   <dimension ref="B2:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -10749,26 +10755,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="B15:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/造轮子.xlsx
+++ b/造轮子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="9" activeTab="13"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="创建许可证文件" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="274">
   <si>
     <t>github上选择Create new file</t>
   </si>
@@ -5154,20 +5154,13 @@
     <t xml:space="preserve">    XIcon</t>
   </si>
   <si>
-    <t>3.命令行执行 yarn build-npm</t>
+    <t>3.命令行执行 yarn build-npm(先删除dist包)</t>
   </si>
   <si>
     <t>生成index.js与index.css(转义后的文件)</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">4.命令行执行 </t>
     </r>
     <r>
@@ -5183,6 +5176,15 @@
     </r>
   </si>
   <si>
+    <t>输一次即可</t>
+  </si>
+  <si>
+    <t>查询当前npm用户：</t>
+  </si>
+  <si>
+    <t>npm whoami</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5310,19 +5312,40 @@
     <t>登录到www.npmjs.com网站</t>
   </si>
   <si>
-    <t>6.在项目中使用</t>
-  </si>
-  <si>
-    <t>6.1.安装x-wheels</t>
+    <t>6.删除已发布的包：</t>
+  </si>
+  <si>
+    <t>npm unpublish 包名</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>npm unpublish --force 包名</t>
+  </si>
+  <si>
+    <t>强制删除(一般用于24小时之内发布的包)</t>
+  </si>
+  <si>
+    <t>npm unpublish 包名@版本号</t>
+  </si>
+  <si>
+    <t>指定版本号删除</t>
+  </si>
+  <si>
+    <t>7.在项目中使用</t>
+  </si>
+  <si>
+    <t>7.1.安装x-wheels</t>
   </si>
   <si>
     <t>node_modules\x-wheels，import时用的都是dist文件夹中的文件</t>
   </si>
   <si>
-    <t>6.2.引入全部</t>
-  </si>
-  <si>
-    <t>6.3.引入单个</t>
+    <t>7.2.引入全部</t>
+  </si>
+  <si>
+    <t>7.3.引入单个</t>
   </si>
   <si>
     <t>直接使用</t>
@@ -5332,14 +5355,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7.测试</t>
+      <t>8.测试</t>
     </r>
     <r>
       <rPr>
@@ -5367,7 +5383,7 @@
     <t>现在每次改一行代码，都需要改version，再执行npm publish，才能看到效果，缺少本地测试的步骤。</t>
   </si>
   <si>
-    <t>7.1.在x-wheels的根目录下执行(发布方)：</t>
+    <t>8.1.在x-wheels的根目录下执行(发布方)：</t>
   </si>
   <si>
     <t>yarn link</t>
@@ -5396,7 +5412,7 @@
     </r>
   </si>
   <si>
-    <t>7.2.在本机的其他vue项目中执行(使用方)：</t>
+    <t>8.2.在本机的其他vue项目中执行(使用方)：</t>
   </si>
   <si>
     <t>yarn link x-wheels</t>
@@ -5458,7 +5474,7 @@
     </r>
   </si>
   <si>
-    <t>之后，按照 引入全部(6.2) 与 引入单个(6.3) 的步骤测试即可。</t>
+    <t>之后，按照 引入全部(7.2) 与 引入单个(7.3) 的步骤测试即可。</t>
   </si>
   <si>
     <t>测试完成后，再修改version，执行npm publish。</t>
@@ -6438,10 +6454,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="48">
     <font>
@@ -6507,6 +6523,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -6562,15 +6586,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6584,7 +6600,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6598,75 +6637,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6682,10 +6654,63 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6697,25 +6722,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6808,7 +6824,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6820,25 +6974,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6851,144 +7005,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7082,26 +7098,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7113,6 +7129,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7132,20 +7157,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7165,17 +7187,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7187,10 +7203,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7199,137 +7215,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7366,16 +7382,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -7393,7 +7412,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
@@ -7405,10 +7424,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -7420,10 +7439,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9480,13 +9499,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9504,7 +9523,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="22129750"/>
+          <a:off x="1371600" y="22987000"/>
           <a:ext cx="3429000" cy="6038850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9564,13 +9583,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>650875</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9588,7 +9607,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1384300" y="28644850"/>
+          <a:off x="1384300" y="29502100"/>
           <a:ext cx="2695575" cy="2733675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9606,13 +9625,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9630,7 +9649,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1384300" y="31730950"/>
+          <a:off x="1384300" y="32588200"/>
           <a:ext cx="5238750" cy="1533525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9648,13 +9667,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9672,7 +9691,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8242300" y="28644850"/>
+          <a:off x="8242300" y="29502100"/>
           <a:ext cx="3419475" cy="2457450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9690,13 +9709,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>422275</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9714,7 +9733,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8242300" y="31730950"/>
+          <a:off x="8242300" y="32588200"/>
           <a:ext cx="3152775" cy="3181350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9732,13 +9751,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9756,7 +9775,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8242300" y="35159950"/>
+          <a:off x="8242300" y="36017200"/>
           <a:ext cx="3162300" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9774,13 +9793,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9798,7 +9817,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1384300" y="33445450"/>
+          <a:off x="1384300" y="34302700"/>
           <a:ext cx="3086100" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9900,13 +9919,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9924,7 +9943,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5499100" y="24358600"/>
+          <a:off x="5499100" y="25215850"/>
           <a:ext cx="1495425" cy="2095500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9942,13 +9961,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>498475</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9966,7 +9985,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2070100" y="38760400"/>
+          <a:off x="2070100" y="39617650"/>
           <a:ext cx="3228975" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9984,13 +10003,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10008,7 +10027,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2070100" y="37045900"/>
+          <a:off x="2070100" y="37903150"/>
           <a:ext cx="8343900" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10450,34 +10469,34 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="4" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" s="6" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="3:9">
       <c r="C9" s="6" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -10488,7 +10507,7 @@
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="11:11">
@@ -10498,22 +10517,22 @@
     </row>
     <row r="19" spans="11:11">
       <c r="K19" s="3" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="11:11">
       <c r="K20" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" s="6" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -10521,7 +10540,7 @@
     </row>
     <row r="29" spans="3:6">
       <c r="C29" s="6" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -10547,15 +10566,15 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" ht="18.75" spans="2:6">
       <c r="B2" s="5" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F2" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -10578,25 +10597,25 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" s="4" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="3:10">
       <c r="C6" s="4" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="4:4">
@@ -10606,19 +10625,19 @@
     </row>
     <row r="8" spans="4:5">
       <c r="D8" s="3" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="4:5">
       <c r="D9" s="3" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="3" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -10636,12 +10655,12 @@
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="2" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="3:10">
       <c r="C39" s="4" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>74</v>
@@ -10651,14 +10670,14 @@
     </row>
     <row r="40" spans="8:10">
       <c r="H40" s="3" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -10681,37 +10700,37 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>74</v>
@@ -10719,30 +10738,30 @@
     </row>
     <row r="13" spans="3:8">
       <c r="C13" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="7:7">
       <c r="G17" s="3" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -10757,7 +10776,7 @@
   <sheetPr/>
   <dimension ref="B15:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
@@ -10765,28 +10784,28 @@
   <sheetData>
     <row r="15" spans="2:4">
       <c r="B15" s="1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="1" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="1" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -11009,7 +11028,7 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="7"/>
@@ -11052,7 +11071,7 @@
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="7"/>
@@ -11060,7 +11079,7 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="7"/>
@@ -11068,7 +11087,7 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="7"/>
@@ -11175,7 +11194,7 @@
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="7"/>
@@ -11225,7 +11244,7 @@
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C36" s="7"/>
@@ -11251,7 +11270,7 @@
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C41" s="7"/>
@@ -11264,7 +11283,7 @@
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
     </row>
-    <row r="44" s="24" customFormat="1"/>
+    <row r="44" s="25" customFormat="1"/>
     <row r="46" spans="2:2">
       <c r="B46" s="4" t="s">
         <v>52</v>
@@ -11370,7 +11389,7 @@
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
-      <c r="G58" s="14" t="s">
+      <c r="G58" s="15" t="s">
         <v>65</v>
       </c>
       <c r="H58" s="7"/>
@@ -11378,7 +11397,7 @@
       <c r="J58" s="7"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="15" t="s">
         <v>66</v>
       </c>
       <c r="C59" s="7"/>
@@ -11427,7 +11446,7 @@
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
-      <c r="J63" s="27" t="s">
+      <c r="J63" s="28" t="s">
         <v>71</v>
       </c>
     </row>
@@ -11435,34 +11454,34 @@
       <c r="B64" t="s">
         <v>72</v>
       </c>
-      <c r="G64" s="26"/>
+      <c r="G64" s="27"/>
     </row>
     <row r="65" spans="7:7">
-      <c r="G65" s="26"/>
+      <c r="G65" s="27"/>
     </row>
     <row r="66" spans="7:7">
-      <c r="G66" s="26"/>
+      <c r="G66" s="27"/>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="26"/>
+      <c r="G67" s="27"/>
     </row>
     <row r="68" spans="7:7">
-      <c r="G68" s="26"/>
+      <c r="G68" s="27"/>
     </row>
     <row r="69" spans="7:7">
-      <c r="G69" s="26"/>
+      <c r="G69" s="27"/>
     </row>
     <row r="71" spans="7:7">
-      <c r="G71" s="28"/>
+      <c r="G71" s="29"/>
     </row>
     <row r="72" spans="7:7">
-      <c r="G72" s="26"/>
+      <c r="G72" s="27"/>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" t="s">
         <v>73</v>
       </c>
-      <c r="G73" s="29"/>
+      <c r="G73" s="30"/>
       <c r="J73" s="3" t="s">
         <v>74</v>
       </c>
@@ -11485,7 +11504,7 @@
       <c r="C75" t="s">
         <v>77</v>
       </c>
-      <c r="G75" s="28"/>
+      <c r="G75" s="29"/>
       <c r="J75" s="3" t="s">
         <v>78</v>
       </c>
@@ -11497,31 +11516,31 @@
       <c r="C76" t="s">
         <v>79</v>
       </c>
-      <c r="G76" s="26"/>
+      <c r="G76" s="27"/>
     </row>
     <row r="77" spans="7:7">
-      <c r="G77" s="29"/>
+      <c r="G77" s="30"/>
     </row>
     <row r="79" spans="7:7">
-      <c r="G79" s="28"/>
+      <c r="G79" s="29"/>
     </row>
     <row r="80" spans="7:7">
-      <c r="G80" s="28"/>
+      <c r="G80" s="29"/>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" t="s">
         <v>80</v>
       </c>
-      <c r="G81" s="26"/>
+      <c r="G81" s="27"/>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" t="s">
         <v>81</v>
       </c>
-      <c r="G83" s="29"/>
+      <c r="G83" s="30"/>
     </row>
     <row r="84" spans="7:7">
-      <c r="G84" s="29"/>
+      <c r="G84" s="30"/>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
@@ -11539,7 +11558,7 @@
       </c>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C103" s="7"/>
@@ -11549,7 +11568,7 @@
       <c r="G103" s="7"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C104" s="7"/>
@@ -11559,7 +11578,7 @@
       <c r="G104" s="7"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C105" s="7"/>
@@ -11569,7 +11588,7 @@
       <c r="G105" s="7"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="30" t="s">
+      <c r="B106" s="31" t="s">
         <v>88</v>
       </c>
       <c r="C106" s="7"/>
@@ -11589,7 +11608,7 @@
       <c r="G107" s="7"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C108" s="7"/>
@@ -11599,7 +11618,7 @@
       <c r="G108" s="7"/>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="14" t="s">
+      <c r="B109" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C109" s="7"/>
@@ -11609,7 +11628,7 @@
       <c r="G109" s="7"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="30" t="s">
+      <c r="B110" s="31" t="s">
         <v>91</v>
       </c>
       <c r="C110" s="7"/>
@@ -11707,7 +11726,7 @@
       </c>
     </row>
     <row r="134" spans="2:3">
-      <c r="B134" s="12" t="s">
+      <c r="B134" s="13" t="s">
         <v>102</v>
       </c>
       <c r="C134" s="7"/>
@@ -11727,7 +11746,7 @@
       <c r="F137" s="7"/>
     </row>
     <row r="138" spans="2:8">
-      <c r="B138" s="31" t="s">
+      <c r="B138" s="32" t="s">
         <v>105</v>
       </c>
       <c r="C138" s="7"/>
@@ -11804,7 +11823,7 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="7"/>
@@ -11838,7 +11857,7 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="7"/>
@@ -11849,7 +11868,7 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="15" t="s">
         <v>117</v>
       </c>
       <c r="C23" s="7"/>
@@ -11877,7 +11896,7 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="16" t="s">
         <v>120</v>
       </c>
       <c r="C26" s="7"/>
@@ -11888,13 +11907,13 @@
       </c>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>111</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="16" t="s">
         <v>122</v>
       </c>
       <c r="H27" s="7"/>
@@ -11965,7 +11984,7 @@
       </c>
     </row>
     <row r="7" ht="27" spans="2:2">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>133</v>
       </c>
     </row>
@@ -12039,7 +12058,7 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>142</v>
       </c>
       <c r="D19" s="7"/>
@@ -12048,7 +12067,7 @@
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>143</v>
       </c>
       <c r="D20" s="7"/>
@@ -12075,7 +12094,7 @@
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="3:7">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="16" t="s">
         <v>146</v>
       </c>
       <c r="D23" s="7"/>
@@ -12084,7 +12103,7 @@
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="3:7">
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="16" t="s">
         <v>147</v>
       </c>
       <c r="D24" s="7"/>
@@ -12118,31 +12137,31 @@
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="3:7">
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" spans="3:7">
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="20" t="s">
         <v>151</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="20"/>
+      <c r="G29" s="21"/>
     </row>
     <row r="30" ht="14.25" spans="3:7">
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="3:7">
       <c r="C31" s="6" t="s">
@@ -12164,7 +12183,7 @@
       </c>
     </row>
     <row r="44" spans="4:6">
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="16" t="s">
         <v>155</v>
       </c>
       <c r="E44" s="7"/>
@@ -12176,7 +12195,7 @@
       </c>
     </row>
     <row r="46" spans="4:6">
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="16" t="s">
         <v>157</v>
       </c>
       <c r="E46" s="7"/>
@@ -12197,10 +12216,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:M235"/>
+  <dimension ref="B2:N240"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="J212" sqref="J212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12216,7 +12235,7 @@
       </c>
     </row>
     <row r="11" spans="10:10">
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="12" t="s">
         <v>161</v>
       </c>
     </row>
@@ -12280,7 +12299,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="13" t="s">
         <v>47</v>
       </c>
       <c r="K22" s="7"/>
@@ -12295,7 +12314,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="13" t="s">
         <v>171</v>
       </c>
       <c r="K23" s="7"/>
@@ -12310,7 +12329,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="13" t="s">
         <v>173</v>
       </c>
       <c r="K24" s="7"/>
@@ -12325,7 +12344,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="13" t="s">
         <v>175</v>
       </c>
       <c r="K25" s="7"/>
@@ -12338,7 +12357,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="13" t="s">
         <v>176</v>
       </c>
       <c r="K26" s="7"/>
@@ -12353,7 +12372,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="13" t="s">
         <v>178</v>
       </c>
       <c r="K27" s="7"/>
@@ -12368,7 +12387,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="13" t="s">
         <v>180</v>
       </c>
       <c r="K28" s="7"/>
@@ -12383,7 +12402,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="13" t="s">
         <v>182</v>
       </c>
       <c r="K29" s="7"/>
@@ -12540,117 +12559,155 @@
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:14">
       <c r="B52" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="F52" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="L52" t="s">
+        <v>197</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="11:11">
       <c r="K78" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="129" spans="3:7">
       <c r="C129" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="142" spans="9:9">
-      <c r="I142" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="167" spans="3:13">
-      <c r="C167" t="s">
-        <v>204</v>
-      </c>
-      <c r="M167" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="185" spans="3:13">
-      <c r="C185" t="s">
+      <c r="G129" t="s">
         <v>206</v>
       </c>
-      <c r="M185" t="s">
+    </row>
+    <row r="130" spans="3:7">
+      <c r="C130" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="211" spans="2:2">
-      <c r="B211" s="2" t="s">
+      <c r="G130" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="212" spans="3:3">
-      <c r="C212" t="s">
+    <row r="131" spans="3:7">
+      <c r="C131" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="214" spans="3:3">
-      <c r="C214" t="s">
+      <c r="G131" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="215" spans="4:7">
-      <c r="D215" s="4" t="s">
+    <row r="133" spans="2:2">
+      <c r="B133" t="s">
         <v>211</v>
       </c>
-      <c r="G215" s="2" t="s">
+    </row>
+    <row r="134" spans="3:3">
+      <c r="C134" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="216" spans="4:4">
-      <c r="D216" s="4"/>
-    </row>
-    <row r="224" spans="3:3">
-      <c r="C224" t="s">
+    <row r="147" spans="9:9">
+      <c r="I147" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="225" spans="4:11">
-      <c r="D225" s="4" t="s">
+    <row r="172" spans="3:13">
+      <c r="C172" t="s">
         <v>214</v>
       </c>
-      <c r="G225" s="2" t="s">
+      <c r="M172" t="s">
         <v>215</v>
       </c>
-      <c r="K225" s="3" t="s">
+    </row>
+    <row r="190" spans="3:13">
+      <c r="C190" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="233" spans="4:4">
-      <c r="D233" t="s">
+      <c r="M190" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="235" spans="4:4">
-      <c r="D235" t="s">
+    <row r="216" spans="2:2">
+      <c r="B216" s="2" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3">
+      <c r="C217" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3">
+      <c r="C219" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="220" spans="4:7">
+      <c r="D220" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="221" spans="4:4">
+      <c r="D221" s="4"/>
+    </row>
+    <row r="229" spans="3:3">
+      <c r="C229" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="230" spans="4:11">
+      <c r="D230" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K230" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="238" spans="4:4">
+      <c r="D238" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="240" spans="4:4">
+      <c r="D240" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -12689,7 +12746,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/造轮子.xlsx
+++ b/造轮子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="创建许可证文件" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="284">
   <si>
     <t>github上选择Create new file</t>
   </si>
@@ -3027,6 +3027,504 @@
     </r>
   </si>
   <si>
+    <t>toast例子</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">XToast </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFDC322F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'./x-toast'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">export default </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A43"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>install</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(Vue, options) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Construtor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>= Vue.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A43"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>extend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(XToast);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">toast </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFD33682"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Construtor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>toast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A43"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$mount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>toast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组件挂载到内存中</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Vue.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>prototype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">$toast </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>toast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>toast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>body</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFF43EFF"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>document</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>body</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A43"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>appendChild</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF458383"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>toast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$el</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF586E75"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
     <t>BDD</t>
   </si>
   <si>
@@ -5089,9 +5587,6 @@
     </r>
   </si>
   <si>
-    <t>};</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -5161,6 +5656,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">4.命令行执行 </t>
     </r>
     <r>
@@ -5355,6 +5857,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>8.测试</t>
     </r>
     <r>
@@ -6456,8 +6965,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="48">
     <font>
@@ -6564,6 +7073,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF660E7A"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FFDC322F"/>
       <name val="Consolas"/>
@@ -6577,14 +7094,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FF660E7A"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -6593,21 +7102,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6621,9 +7116,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6638,16 +7200,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6668,64 +7230,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6824,7 +7333,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6836,13 +7345,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6854,31 +7375,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6890,61 +7393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6956,25 +7411,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6992,19 +7429,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7101,7 +7610,27 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7122,26 +7651,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7153,6 +7662,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7172,26 +7696,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7203,10 +7712,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7215,137 +7724,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7421,10 +7930,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -7439,10 +7966,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10469,34 +10996,34 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="4" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" s="6" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="3:9">
       <c r="C9" s="6" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -10507,7 +11034,7 @@
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="11:11">
@@ -10517,22 +11044,22 @@
     </row>
     <row r="19" spans="11:11">
       <c r="K19" s="3" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="11:11">
       <c r="K20" s="3" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" s="6" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -10540,7 +11067,7 @@
     </row>
     <row r="29" spans="3:6">
       <c r="C29" s="6" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -10566,15 +11093,15 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" ht="18.75" spans="2:6">
       <c r="B2" s="5" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -10597,25 +11124,25 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" s="4" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="3:10">
       <c r="C6" s="4" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="4:4">
@@ -10625,19 +11152,19 @@
     </row>
     <row r="8" spans="4:5">
       <c r="D8" s="3" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="4:5">
       <c r="D9" s="3" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="3" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -10655,12 +11182,12 @@
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="2" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="3:10">
       <c r="C39" s="4" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>74</v>
@@ -10670,14 +11197,14 @@
     </row>
     <row r="40" spans="8:10">
       <c r="H40" s="3" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -10700,37 +11227,37 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>74</v>
@@ -10738,30 +11265,30 @@
     </row>
     <row r="13" spans="3:8">
       <c r="C13" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="7:7">
       <c r="G17" s="3" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -10784,28 +11311,28 @@
   <sheetData>
     <row r="15" spans="2:4">
       <c r="B15" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="1" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="1" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -11079,7 +11606,7 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="32" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="7"/>
@@ -11087,7 +11614,7 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="32" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="7"/>
@@ -11283,7 +11810,7 @@
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
     </row>
-    <row r="44" s="25" customFormat="1"/>
+    <row r="44" s="31" customFormat="1"/>
     <row r="46" spans="2:2">
       <c r="B46" s="4" t="s">
         <v>52</v>
@@ -11446,7 +11973,7 @@
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
-      <c r="J63" s="28" t="s">
+      <c r="J63" s="34" t="s">
         <v>71</v>
       </c>
     </row>
@@ -11454,34 +11981,34 @@
       <c r="B64" t="s">
         <v>72</v>
       </c>
-      <c r="G64" s="27"/>
+      <c r="G64" s="33"/>
     </row>
     <row r="65" spans="7:7">
-      <c r="G65" s="27"/>
+      <c r="G65" s="33"/>
     </row>
     <row r="66" spans="7:7">
-      <c r="G66" s="27"/>
+      <c r="G66" s="33"/>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="27"/>
+      <c r="G67" s="33"/>
     </row>
     <row r="68" spans="7:7">
-      <c r="G68" s="27"/>
+      <c r="G68" s="33"/>
     </row>
     <row r="69" spans="7:7">
-      <c r="G69" s="27"/>
+      <c r="G69" s="33"/>
     </row>
     <row r="71" spans="7:7">
-      <c r="G71" s="29"/>
+      <c r="G71" s="35"/>
     </row>
     <row r="72" spans="7:7">
-      <c r="G72" s="27"/>
+      <c r="G72" s="33"/>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" t="s">
         <v>73</v>
       </c>
-      <c r="G73" s="30"/>
+      <c r="G73" s="36"/>
       <c r="J73" s="3" t="s">
         <v>74</v>
       </c>
@@ -11504,7 +12031,7 @@
       <c r="C75" t="s">
         <v>77</v>
       </c>
-      <c r="G75" s="29"/>
+      <c r="G75" s="35"/>
       <c r="J75" s="3" t="s">
         <v>78</v>
       </c>
@@ -11516,31 +12043,31 @@
       <c r="C76" t="s">
         <v>79</v>
       </c>
-      <c r="G76" s="27"/>
+      <c r="G76" s="33"/>
     </row>
     <row r="77" spans="7:7">
-      <c r="G77" s="30"/>
+      <c r="G77" s="36"/>
     </row>
     <row r="79" spans="7:7">
-      <c r="G79" s="29"/>
+      <c r="G79" s="35"/>
     </row>
     <row r="80" spans="7:7">
-      <c r="G80" s="29"/>
+      <c r="G80" s="35"/>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" t="s">
         <v>80</v>
       </c>
-      <c r="G81" s="27"/>
+      <c r="G81" s="33"/>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" t="s">
         <v>81</v>
       </c>
-      <c r="G83" s="30"/>
+      <c r="G83" s="36"/>
     </row>
     <row r="84" spans="7:7">
-      <c r="G84" s="30"/>
+      <c r="G84" s="36"/>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
@@ -11588,7 +12115,7 @@
       <c r="G105" s="7"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="31" t="s">
+      <c r="B106" s="37" t="s">
         <v>88</v>
       </c>
       <c r="C106" s="7"/>
@@ -11628,7 +12155,7 @@
       <c r="G109" s="7"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="31" t="s">
+      <c r="B110" s="37" t="s">
         <v>91</v>
       </c>
       <c r="C110" s="7"/>
@@ -11746,7 +12273,7 @@
       <c r="F137" s="7"/>
     </row>
     <row r="138" spans="2:8">
-      <c r="B138" s="32" t="s">
+      <c r="B138" s="38" t="s">
         <v>105</v>
       </c>
       <c r="C138" s="7"/>
@@ -11776,10 +12303,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:N29"/>
+  <dimension ref="B2:N54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11928,6 +12455,131 @@
       <c r="B29" t="s">
         <v>112</v>
       </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11949,43 +12601,43 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="4" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="J2" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="4" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G3" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" ht="27" spans="2:2">
       <c r="B7" s="14" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="2:2">
@@ -11995,17 +12647,17 @@
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="3:7">
       <c r="C13" s="8" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -12014,7 +12666,7 @@
     </row>
     <row r="14" spans="3:7">
       <c r="C14" s="8" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -12023,7 +12675,7 @@
     </row>
     <row r="15" spans="3:7">
       <c r="C15" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -12032,7 +12684,7 @@
     </row>
     <row r="16" spans="3:7">
       <c r="C16" s="9" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -12041,7 +12693,7 @@
     </row>
     <row r="17" spans="3:7">
       <c r="C17" s="8" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -12050,7 +12702,7 @@
     </row>
     <row r="18" spans="3:7">
       <c r="C18" s="8" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -12059,7 +12711,7 @@
     </row>
     <row r="19" spans="3:7">
       <c r="C19" s="15" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -12068,7 +12720,7 @@
     </row>
     <row r="20" spans="3:7">
       <c r="C20" s="15" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -12077,7 +12729,7 @@
     </row>
     <row r="21" spans="3:7">
       <c r="C21" s="6" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -12086,7 +12738,7 @@
     </row>
     <row r="22" spans="3:7">
       <c r="C22" s="6" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -12095,7 +12747,7 @@
     </row>
     <row r="23" spans="3:7">
       <c r="C23" s="16" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -12104,7 +12756,7 @@
     </row>
     <row r="24" spans="3:7">
       <c r="C24" s="16" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -12120,7 +12772,7 @@
     </row>
     <row r="26" spans="3:7">
       <c r="C26" s="8" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -12129,7 +12781,7 @@
     </row>
     <row r="27" ht="14.25" spans="3:7">
       <c r="C27" s="8" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -12138,7 +12790,7 @@
     </row>
     <row r="28" spans="3:7">
       <c r="C28" s="17" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -12147,7 +12799,7 @@
     </row>
     <row r="29" spans="3:7">
       <c r="C29" s="20" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -12156,7 +12808,7 @@
     </row>
     <row r="30" ht="14.25" spans="3:7">
       <c r="C30" s="22" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -12174,36 +12826,36 @@
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="4:6">
       <c r="D44" s="16" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="4:6">
       <c r="D46" s="16" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -12218,7 +12870,7 @@
   <sheetPr/>
   <dimension ref="B2:N240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+    <sheetView topLeftCell="A205" workbookViewId="0">
       <selection activeCell="J212" sqref="J212"/>
     </sheetView>
   </sheetViews>
@@ -12226,47 +12878,47 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="10:10">
       <c r="J11" s="12" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="3:10">
       <c r="C20" s="8" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -12274,12 +12926,12 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="J20" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="3:12">
       <c r="C21" s="8" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -12307,7 +12959,7 @@
     </row>
     <row r="23" spans="3:12">
       <c r="C23" s="8" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -12315,14 +12967,14 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="J23" s="13" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="3:12">
       <c r="C24" s="8" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -12330,14 +12982,14 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="J24" s="13" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
     <row r="25" spans="3:12">
       <c r="C25" s="8" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -12345,7 +12997,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="J25" s="13" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -12358,14 +13010,14 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="J26" s="13" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="3:12">
       <c r="C27" s="9" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -12373,14 +13025,14 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="J27" s="13" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
     <row r="28" spans="3:12">
       <c r="C28" s="8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -12388,14 +13040,14 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="J28" s="13" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
     </row>
     <row r="29" spans="3:12">
       <c r="C29" s="10" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -12403,14 +13055,14 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="J29" s="13" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
     </row>
     <row r="30" spans="3:12">
       <c r="C30" s="9" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -12425,7 +13077,7 @@
     </row>
     <row r="31" spans="3:8">
       <c r="C31" s="6" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -12435,7 +13087,7 @@
     </row>
     <row r="32" spans="3:8">
       <c r="C32" s="6" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -12445,7 +13097,7 @@
     </row>
     <row r="33" spans="3:8">
       <c r="C33" s="6" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -12465,7 +13117,7 @@
     </row>
     <row r="35" spans="3:8">
       <c r="C35" s="6" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -12483,7 +13135,7 @@
     </row>
     <row r="37" spans="3:8">
       <c r="C37" s="8" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -12501,7 +13153,7 @@
     </row>
     <row r="39" spans="3:8">
       <c r="C39" s="8" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -12511,7 +13163,7 @@
     </row>
     <row r="40" spans="3:8">
       <c r="C40" s="6" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -12521,7 +13173,7 @@
     </row>
     <row r="41" spans="3:8">
       <c r="C41" s="6" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -12531,7 +13183,7 @@
     </row>
     <row r="42" spans="3:8">
       <c r="C42" s="6" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -12541,7 +13193,7 @@
     </row>
     <row r="43" spans="3:8">
       <c r="C43" s="6" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -12551,134 +13203,134 @@
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="2:14">
       <c r="B52" s="2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="L52" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="2" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="3" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="2" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78" spans="11:11">
       <c r="K78" s="3" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="129" spans="3:7">
       <c r="C129" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G129" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="130" spans="3:7">
       <c r="C130" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G130" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="131" spans="3:7">
       <c r="C131" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G131" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="134" spans="3:3">
       <c r="C134" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="147" spans="9:9">
       <c r="I147" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="172" spans="3:13">
       <c r="C172" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M172" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="190" spans="3:13">
       <c r="C190" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M190" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" s="2" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="217" spans="3:3">
       <c r="C217" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="219" spans="3:3">
       <c r="C219" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="220" spans="4:7">
       <c r="D220" s="4" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="221" spans="4:4">
@@ -12686,28 +13338,28 @@
     </row>
     <row r="229" spans="3:3">
       <c r="C229" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="230" spans="4:11">
       <c r="D230" s="4" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="K230" s="3" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="238" spans="4:4">
       <c r="D238" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="240" spans="4:4">
       <c r="D240" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -12746,7 +13398,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
